--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prototype\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\PTAlso\PTA\PTA\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="406">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -477,13 +477,801 @@
   </si>
   <si>
     <t xml:space="preserve">Light Emitting Diode(LED) or Liquid Crystal Displays (LCD) screens are much better at displacing glare than the other technolgy combinations. </t>
+  </si>
+  <si>
+    <r>
+      <t>the main functionality of the basic input/output system (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BIOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) is to perform the initial hardware checks after the computer is powered on and start up the OS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t>in modern PCs, the procedure of replacing BIOS contents is sometimes refered to as:</t>
+  </si>
+  <si>
+    <t>hard boot</t>
+  </si>
+  <si>
+    <t>overclock</t>
+  </si>
+  <si>
+    <t>flashing the BIOS</t>
+  </si>
+  <si>
+    <t>Direct memory access DMA</t>
+  </si>
+  <si>
+    <t>Flashing the BIOS</t>
+  </si>
+  <si>
+    <t>A+S</t>
+  </si>
+  <si>
+    <t>which Microsoft Windows OS utility can be used to view basic information about computers BIOS</t>
+  </si>
+  <si>
+    <t>WINVER&gt;EXE</t>
+  </si>
+  <si>
+    <t>MSINFO32.EXE</t>
+  </si>
+  <si>
+    <t>controle panel</t>
+  </si>
+  <si>
+    <t>SERVICES.MSC</t>
+  </si>
+  <si>
+    <t>power failure during BIOS upgrade can be the cause of irreversible damage to the computer system</t>
+  </si>
+  <si>
+    <t>after normal system shutdown, when the computer is turned off, contents of the memory used to store BIOS setting are:</t>
+  </si>
+  <si>
+    <t>Erased</t>
+  </si>
+  <si>
+    <t>Retained</t>
+  </si>
+  <si>
+    <t>Stored in a page file</t>
+  </si>
+  <si>
+    <t>Saved on a harddrive</t>
+  </si>
+  <si>
+    <t>Rettained</t>
+  </si>
+  <si>
+    <t>which of the acronyms listed below refers to a series of basic hardware diagnostic test performed by the BIOS after the computer is powered on?</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Qos</t>
+  </si>
+  <si>
+    <t>after completing the initial diagnostics and assigning system resources, the startup Bios program checks for information about secondary storage devices that might contain the OS.  The list of devices and the order in which they should be checked can be found and arranged in th CMOS setu utility, and this option is commonly refered to as:</t>
+  </si>
+  <si>
+    <t>boot record</t>
+  </si>
+  <si>
+    <t>Master Boot Record(MBR)</t>
+  </si>
+  <si>
+    <t>Partition table</t>
+  </si>
+  <si>
+    <t>Bootsequence</t>
+  </si>
+  <si>
+    <t>Boot sequence</t>
+  </si>
+  <si>
+    <t>in order to work, an integrated component such as Network Interface Card(NIC) on a newly assembled computer system may need to be first</t>
+  </si>
+  <si>
+    <t>Enabled in Windows Controle Panel</t>
+  </si>
+  <si>
+    <t>Updated with the latest driver in Device Manager</t>
+  </si>
+  <si>
+    <t>Checked against the Hardware Compatibility List (HCL)</t>
+  </si>
+  <si>
+    <t>Enabled in the advances BIOS settings menu</t>
+  </si>
+  <si>
+    <t>Enabled in the advanced BIOS settings menu</t>
+  </si>
+  <si>
+    <t>After launching Windows Virtual PC application technician recives error message stating that the Hardware-Assisted Virtualization(HAV) feature is not enabled on the computer. Which of the folowing steps might help in fixing this problem?</t>
+  </si>
+  <si>
+    <t>increasing the amount of phisical RAM on the system</t>
+  </si>
+  <si>
+    <t>Re-instlling Windows Virtual PC app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getting into the CMOS setup utility and enabling the virtualization technology setting </t>
+  </si>
+  <si>
+    <t>Safe Mode troubleshooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting the CMOS setup utility and Enabling the virtualization technology setting </t>
+  </si>
+  <si>
+    <t>the CMOS setup utility can be accessed by pressing:</t>
+  </si>
+  <si>
+    <t>Reset button on the front panel of the computer case</t>
+  </si>
+  <si>
+    <t>the key set by the motherboard manufacturer for accessing CMOS setup utility during boot</t>
+  </si>
+  <si>
+    <t>Del key during boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 key while loged into Windows </t>
+  </si>
+  <si>
+    <t>Which of the folowing answers refers to a firmware interface designed as a replacement for BIOS?</t>
+  </si>
+  <si>
+    <t>UEFI</t>
+  </si>
+  <si>
+    <t>CMOS</t>
+  </si>
+  <si>
+    <t>USMT</t>
+  </si>
+  <si>
+    <t>Which of the folowing statements is true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aborted BIOS update can be resumed by the transaction recovery system </t>
+  </si>
+  <si>
+    <t>a common securtiy measure is to store BIOS on a non-rewriteable memory chip</t>
+  </si>
+  <si>
+    <t>the process of BIOS update can be aborted and resumed at a later time</t>
+  </si>
+  <si>
+    <t>Aborted BIOS update could render the computer unusable</t>
+  </si>
+  <si>
+    <t>aborted BIOS update could render the computer unusable</t>
+  </si>
+  <si>
+    <t>which type of password provides the hightst level of permissions in BIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root </t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>power user</t>
+  </si>
+  <si>
+    <t>what is LoJack?</t>
+  </si>
+  <si>
+    <t>loopback adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secutity feature used for locating stolen desktops, laptops, or tablets </t>
+  </si>
+  <si>
+    <t>Conector standard</t>
+  </si>
+  <si>
+    <t>RJ_11 plug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security feature used for locating stolen Desktops, laptops, or tablets </t>
+  </si>
+  <si>
+    <t>which of the folowing terms refer to a tech that allows for storing passwords, certificates, or encryption keys in a hardware chip?</t>
+  </si>
+  <si>
+    <t>Access Controle List (ACL)</t>
+  </si>
+  <si>
+    <t>Encrypting File System(EFS)</t>
+  </si>
+  <si>
+    <t>User Account Controle (UAC)</t>
+  </si>
+  <si>
+    <t>Trusted Platform Module (TPM)</t>
+  </si>
+  <si>
+    <t>Trusted Platform Module(TPM)</t>
+  </si>
+  <si>
+    <t>while tryign to enable the entire drive encryption feature in windows technician receives the followling error message: "A compatible Trusted Platform Module(TPM) security Device must be present on this computer, but a TPM was not found." knowing that the system had a TPM chip installed, which of the folowing steps might help in solving this problem?</t>
+  </si>
+  <si>
+    <t>Re-install OS</t>
+  </si>
+  <si>
+    <t>Enableing the TPM security feture in CMOS setup menu</t>
+  </si>
+  <si>
+    <t>Hard drive replacement</t>
+  </si>
+  <si>
+    <t>Enabling the TPM security feature in Windows controle panel</t>
+  </si>
+  <si>
+    <t>Enabling the TPM security in CMOS setup menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A computer supporting LoJack tech has two main componets installed: a Application Agent residing in he os which sends tracking signals to the monitoring center allowing the law enforcement to locate and recover stolen device, andd Persistence Module  which restores the Application Agent and allows it to survive os re-installation or hard drive format: the highest level of security offered by LoJack can be achieved when Persistence Module resides in </t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>Partition gap on hard drive</t>
+  </si>
+  <si>
+    <t>Computers BIOS</t>
+  </si>
+  <si>
+    <t>USB key</t>
+  </si>
+  <si>
+    <t>A UEFI functionality designed to prevent the loading of malware and unauthorized Oss during system start-up is known as:</t>
+  </si>
+  <si>
+    <t>LoJack</t>
+  </si>
+  <si>
+    <t>Bitlocker</t>
+  </si>
+  <si>
+    <t>Secure boot</t>
+  </si>
+  <si>
+    <t>Kerberos</t>
+  </si>
+  <si>
+    <t>Similarly to magnetic drives, Solid State-Drives (SSD) require periodic defragmentation in order to improve system performance.</t>
+  </si>
+  <si>
+    <t>a tiny sopt on the LCD monitor display screen that permanetly remains black when it should be activated and displaying color is commonly refered to as stuck pixel.</t>
+  </si>
+  <si>
+    <t>a permanent computer display screen discoloration caused by displaying the same static image for extended periods of time is known as:</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>Stuck pixel</t>
+  </si>
+  <si>
+    <t>Burn-in</t>
+  </si>
+  <si>
+    <t>Dead pixel</t>
+  </si>
+  <si>
+    <t>which of the folowing command-line utilities allows to test the reachability of a host across an IP network</t>
+  </si>
+  <si>
+    <t>NETSTAT</t>
+  </si>
+  <si>
+    <t>IPCONFIG</t>
+  </si>
+  <si>
+    <t>TRACERT</t>
+  </si>
+  <si>
+    <t>PING</t>
+  </si>
+  <si>
+    <t>NET CONFIG</t>
+  </si>
+  <si>
+    <t>IFCONFIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which of the folowing command-line prompt tools listed below allows to display IP addresses, subnet mask, and default gateway for all adaptors? </t>
+  </si>
+  <si>
+    <t>A Linux comand-line utility used for displaying and modifying network interface configuration settings is called</t>
+  </si>
+  <si>
+    <t>NETWORKSETUP</t>
+  </si>
+  <si>
+    <t>Microsoft Windows OS command-line for displaying intermediary points on the packet route is called</t>
+  </si>
+  <si>
+    <t>ROUTE PRINT</t>
+  </si>
+  <si>
+    <t>TRACEOUTE</t>
+  </si>
+  <si>
+    <t>N+</t>
+  </si>
+  <si>
+    <t>which of the folowing is an example of active eavesdropping</t>
+  </si>
+  <si>
+    <t>Phishing</t>
+  </si>
+  <si>
+    <t>DDoS</t>
+  </si>
+  <si>
+    <t>Xmas attack</t>
+  </si>
+  <si>
+    <t>MITM</t>
+  </si>
+  <si>
+    <t>Switch spoofing and double tagging are two primary methods of attacking networked resources on:</t>
+  </si>
+  <si>
+    <t>WLAN</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Harmful programs used to disrupt computer operation, gather sensitive information, or gain access to private computer systems are commonly referred to as:</t>
+  </si>
+  <si>
+    <t>Malware</t>
+  </si>
+  <si>
+    <t>Adware</t>
+  </si>
+  <si>
+    <t>Spyware</t>
+  </si>
+  <si>
+    <t>Computer viruses</t>
+  </si>
+  <si>
+    <t>Zero-day attack exploits:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New accounts </t>
+  </si>
+  <si>
+    <t>Packed software</t>
+  </si>
+  <si>
+    <t>well known vulberability</t>
+  </si>
+  <si>
+    <t>Vulnerability that is present in already released software but unknown to the software developer</t>
+  </si>
+  <si>
+    <t>one of the measures for securing network devices includes the practice of disabling unsused ports.</t>
+  </si>
+  <si>
+    <t>a hacker has captured network traffic with cleartext commands sent from the client to the server console. Which of the following ports is being used by the network admin for the client-server communication?</t>
+  </si>
+  <si>
+    <t>which of the folowing answers refers to preferred replacement for SLIP protocol</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>PoE</t>
+  </si>
+  <si>
+    <t>CHAP</t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>FTPS is an extension to the Secure Shell Protocol (SSH) and runs by default on port number 22</t>
+  </si>
+  <si>
+    <t>which of the following protocols does not provide authentication?</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>SCP</t>
+  </si>
+  <si>
+    <t>TFTP</t>
+  </si>
+  <si>
+    <t>SFTP</t>
+  </si>
+  <si>
+    <t>of the three exsiting versions of the Simple Network Management Protocol (SNMP) versions 1 and 2 (SNMPv1 and SNMPv2) offer authentication based on community strings sent in an unencrypted form (in cleartext). SNMPv3 provides packet encryption, authentication, and hasning mechanisms that allow for checking whether data has changed in transit.</t>
+  </si>
+  <si>
+    <t>which of the following answers refers to a cryptographic network protocol for secure data communication, remote command-line login, remote command execution, and other secure network services between computers?</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>Bcrypt</t>
+  </si>
+  <si>
+    <t>which of the protocols listed below was designed as a secure replacement for Telnet</t>
+  </si>
+  <si>
+    <t>LDAP</t>
+  </si>
+  <si>
+    <t>the SCP protocol is used for:</t>
+  </si>
+  <si>
+    <t>Directory access</t>
+  </si>
+  <si>
+    <t>Secure file transfer</t>
+  </si>
+  <si>
+    <t>Network addressing</t>
+  </si>
+  <si>
+    <t>Sending emails</t>
+  </si>
+  <si>
+    <t>Which ot the Ipsec modes provides entire packet encryption?</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>which of the following solutions provides a shielded environment that protects against unintentional signal leakage and eavesdropping</t>
+  </si>
+  <si>
+    <t>SCADA</t>
+  </si>
+  <si>
+    <t>TEMPEST</t>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>RADIUS</t>
+  </si>
+  <si>
+    <t>Data files containing detection and remediation code that antivirus or antispyware products use to identify malicious code are known as</t>
+  </si>
+  <si>
+    <t>Repositories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signature files </t>
+  </si>
+  <si>
+    <t>macros</t>
+  </si>
+  <si>
+    <t>Security logs</t>
+  </si>
+  <si>
+    <t>signature files</t>
+  </si>
+  <si>
+    <t>the term "DHCP snooping" refers to an exploit that enables operation of a rouge DHCP server on a network.</t>
+  </si>
+  <si>
+    <t>Simple Mail Transfer Protocol(SMTP) operates with the use of TCP port:</t>
+  </si>
+  <si>
+    <t>Which of the potr numbers listed below is commonly used for Session Iniation Protocol (SIP) non-encrypted traffic?</t>
+  </si>
+  <si>
+    <t>Port number 5061 is typically used for Session Initiation Protocol (SIP) traffic encrypted with Transport Layre Security (TLS)</t>
+  </si>
+  <si>
+    <t>port number 5004 is used by:</t>
+  </si>
+  <si>
+    <t>MGCP</t>
+  </si>
+  <si>
+    <t>RTP</t>
+  </si>
+  <si>
+    <t>H.323</t>
+  </si>
+  <si>
+    <t>RTCP</t>
+  </si>
+  <si>
+    <t>RTP contorl Protocol RTCP runs by defalt on port</t>
+  </si>
+  <si>
+    <t>TCP port 1720 is the default port number for</t>
+  </si>
+  <si>
+    <t>PPTP</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol (UDP) is a connection- oriented protocol that requires a set of initial steps in order to establish a connection, supports retransmission of lost packets, flow control, or sequencing</t>
+  </si>
+  <si>
+    <t>Transmission Controle Protocol(tcp) is an example of connectionless protocol. TCP doesn’t support three-way handshake</t>
+  </si>
+  <si>
+    <t>Which of the following protocols is used in network management systems for monitoring network- attached devices?</t>
+  </si>
+  <si>
+    <t>IMAP</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>An SNMP Agent recives request on UDP port:</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists a cryptographic network protocol for secure data communication, remote command-line login, remote command execution, and other secure network services between two networked computers?</t>
+  </si>
+  <si>
+    <t>A hacker has captured network traffic with cleartext commands sent from the client to the server console. Which of the following ports is being used by the network admin for the client-server communication?</t>
+  </si>
+  <si>
+    <t>A network administrator wants to replace a service running on port 23 with a more reliable solution. Which of the following ports would be in use after implementing this change?</t>
+  </si>
+  <si>
+    <t>DNS runs on port:</t>
+  </si>
+  <si>
+    <t>UDP port 67 is used by:</t>
+  </si>
+  <si>
+    <t>Bootstrap Protocol(BOOTP)</t>
+  </si>
+  <si>
+    <t>remote authentication Dial in user service (RADIUS)</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol SNMP</t>
+  </si>
+  <si>
+    <t>Merberos</t>
+  </si>
+  <si>
+    <t>which of the file transfer protocols listed below runs on port number 69 and does not provide authentication?</t>
+  </si>
+  <si>
+    <t>TCP port 445 is used by:</t>
+  </si>
+  <si>
+    <t>RDP</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>A network technician uses an RDP client on their Windows OS in order to remotely troubleshoot a problem on another Windows machine. Which of the following ports needs to be opened for the built-in Windows RDP server to allow this type of network connection?</t>
+  </si>
+  <si>
+    <t>A double colon in an IPv6 address indicates that part of the address containing only zeroes has been compressed to make the address shorter</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists a valid address of FE80:0000:0000:0000:02AA:0000:4C00:FE9A after compression?</t>
+  </si>
+  <si>
+    <t>FE80::2AA::4C00:FE9A</t>
+  </si>
+  <si>
+    <t>FE80:0:2AA:0:4C:FE9A</t>
+  </si>
+  <si>
+    <t>FE80:0:02AA::4C:FE9A</t>
+  </si>
+  <si>
+    <t>An IPv4 to IPv6 transition mechanism that allows IPv6 packets to be transmitted over an IPv4 network is known as:</t>
+  </si>
+  <si>
+    <t>6to4</t>
+  </si>
+  <si>
+    <t>802.3af</t>
+  </si>
+  <si>
+    <t>eDiscovery</t>
+  </si>
+  <si>
+    <t>Miredo</t>
+  </si>
+  <si>
+    <t>What does the term "Miredo" refer to?</t>
+  </si>
+  <si>
+    <t>IPv4 to IPV6 migration mechanism</t>
+  </si>
+  <si>
+    <t>Load balancing solution</t>
+  </si>
+  <si>
+    <t>TeredoIPv6</t>
+  </si>
+  <si>
+    <t>Content filtering solution</t>
+  </si>
+  <si>
+    <t>Teredo IPv6 tunneling software</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists the binary notation of the decimal number 192?</t>
+  </si>
+  <si>
+    <t>an Ipv 4 address consists of:</t>
+  </si>
+  <si>
+    <t>32bits</t>
+  </si>
+  <si>
+    <t>48bits</t>
+  </si>
+  <si>
+    <t>64bits</t>
+  </si>
+  <si>
+    <t>128bits</t>
+  </si>
+  <si>
+    <t>Which of the following is an example of a valid subnet mask?</t>
+  </si>
+  <si>
+    <t>255.255.225.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the above is a valid subnet mask </t>
+  </si>
+  <si>
+    <t>255.255.191.0</t>
+  </si>
+  <si>
+    <t>255.255.64.0</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists the default (classful) subnet mask for a class A network?</t>
+  </si>
+  <si>
+    <t>192.168.0.3</t>
+  </si>
+  <si>
+    <t>169.254.10.20</t>
+  </si>
+  <si>
+    <t>65.55.57.27</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>255.128.0.0</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>255.244.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 127.0.0.1 </t>
+  </si>
+  <si>
+    <t>APIPA-assigned addresses are valid only for communications within a network segment that a given host is connected to (a host with APIPA-assigned address cannot connect to the Internet).</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists the default (classful) subnet mask for a class C network?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.192.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.224.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.252.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An IPv4 address in the range 169.254.1.0 through 169.254.254.255 indicates a problem with what type of service?</t>
+  </si>
+  <si>
+    <t>In IPv4 addressing, the leading octet of an IP address with a value of 1 through 126 denotes that the IP address within that range belongs to the:</t>
+  </si>
+  <si>
+    <t>Class A address space</t>
+  </si>
+  <si>
+    <t>Class B address space</t>
+  </si>
+  <si>
+    <t>Class D address space</t>
+  </si>
+  <si>
+    <t>In IPv4 addressing, the leading octet of an IP address with a value of 192 through 223 denotes that the IP address within that range belongs to the:</t>
+  </si>
+  <si>
+    <t>Class C Address space</t>
+  </si>
+  <si>
+    <t>Class C address space</t>
+  </si>
+  <si>
+    <t>I'm sure you know why (Placeholder)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +1280,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
@@ -837,10 +1633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,68 +2297,1872 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H27" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H29" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H31" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" t="s">
+        <v>281</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56">
+        <v>49</v>
+      </c>
+      <c r="C56">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>68</v>
+      </c>
+      <c r="E56">
+        <v>22</v>
+      </c>
+      <c r="F56">
+        <v>23</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" t="s">
+        <v>293</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" t="s">
+        <v>298</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H62" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63" t="s">
+        <v>304</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" t="s">
+        <v>311</v>
+      </c>
+      <c r="F64" t="s">
+        <v>308</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E65" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" t="s">
+        <v>314</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" t="s">
+        <v>322</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68">
+        <v>110</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>143</v>
+      </c>
+      <c r="E68">
+        <v>25</v>
+      </c>
+      <c r="F68">
+        <v>25</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69">
+        <v>5004</v>
+      </c>
+      <c r="C69">
+        <v>5005</v>
+      </c>
+      <c r="D69">
+        <v>5060</v>
+      </c>
+      <c r="E69">
+        <v>5061</v>
+      </c>
+      <c r="F69">
+        <v>5060</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" t="s">
+        <v>330</v>
+      </c>
+      <c r="E71" t="s">
+        <v>331</v>
+      </c>
+      <c r="F71" t="s">
+        <v>329</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72">
+        <v>5004</v>
+      </c>
+      <c r="C72">
+        <v>5060</v>
+      </c>
+      <c r="D72">
+        <v>5005</v>
+      </c>
+      <c r="E72">
+        <v>5061</v>
+      </c>
+      <c r="F72">
+        <v>5005</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B73" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" t="s">
+        <v>330</v>
+      </c>
+      <c r="D73" t="s">
+        <v>334</v>
+      </c>
+      <c r="E73" t="s">
+        <v>329</v>
+      </c>
+      <c r="F73" t="s">
+        <v>330</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" t="s">
+        <v>329</v>
+      </c>
+      <c r="C76" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76" t="s">
+        <v>331</v>
+      </c>
+      <c r="F76" t="s">
+        <v>339</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77">
+        <v>161</v>
+      </c>
+      <c r="C77">
+        <v>138</v>
+      </c>
+      <c r="D77">
+        <v>162</v>
+      </c>
+      <c r="E77">
+        <v>139</v>
+      </c>
+      <c r="F77">
+        <v>161</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" t="s">
+        <v>293</v>
+      </c>
+      <c r="F78" t="s">
+        <v>298</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79">
+        <v>49</v>
+      </c>
+      <c r="C79">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>68</v>
+      </c>
+      <c r="E79">
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <v>23</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>25</v>
+      </c>
+      <c r="F80">
+        <v>22</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B81">
+        <v>139</v>
+      </c>
+      <c r="C81">
+        <v>53</v>
+      </c>
+      <c r="D81">
+        <v>443</v>
+      </c>
+      <c r="E81">
+        <v>22</v>
+      </c>
+      <c r="F81">
+        <v>53</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" t="s">
+        <v>348</v>
+      </c>
+      <c r="E82" t="s">
+        <v>349</v>
+      </c>
+      <c r="F82" t="s">
+        <v>346</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" t="s">
+        <v>294</v>
+      </c>
+      <c r="F83" t="s">
+        <v>293</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" t="s">
+        <v>353</v>
+      </c>
+      <c r="D84" t="s">
+        <v>354</v>
+      </c>
+      <c r="E84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F84" t="s">
+        <v>353</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B85">
+        <v>1701</v>
+      </c>
+      <c r="C85">
+        <v>139</v>
+      </c>
+      <c r="D85">
+        <v>3389</v>
+      </c>
+      <c r="E85">
+        <v>110</v>
+      </c>
+      <c r="F85">
+        <v>3389</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>356</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" t="s">
+        <v>358</v>
+      </c>
+      <c r="C87" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" t="s">
+        <v>360</v>
+      </c>
+      <c r="F87" t="s">
+        <v>360</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>361</v>
+      </c>
+      <c r="B88" t="s">
+        <v>362</v>
+      </c>
+      <c r="C88" t="s">
+        <v>363</v>
+      </c>
+      <c r="D88" t="s">
+        <v>364</v>
+      </c>
+      <c r="E88" t="s">
+        <v>365</v>
+      </c>
+      <c r="F88" t="s">
+        <v>362</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>366</v>
+      </c>
+      <c r="B89" t="s">
+        <v>367</v>
+      </c>
+      <c r="C89" t="s">
+        <v>368</v>
+      </c>
+      <c r="D89" t="s">
+        <v>369</v>
+      </c>
+      <c r="E89" t="s">
+        <v>370</v>
+      </c>
+      <c r="F89" t="s">
+        <v>371</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>372</v>
+      </c>
+      <c r="B90">
+        <v>10101100</v>
+      </c>
+      <c r="C90">
+        <v>11000000</v>
+      </c>
+      <c r="D90">
+        <v>1111111</v>
+      </c>
+      <c r="E90">
+        <v>10101000</v>
+      </c>
+      <c r="F90">
+        <v>11000000</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>373</v>
+      </c>
+      <c r="B91" t="s">
+        <v>374</v>
+      </c>
+      <c r="C91" t="s">
+        <v>375</v>
+      </c>
+      <c r="D91" t="s">
+        <v>376</v>
+      </c>
+      <c r="E91" t="s">
+        <v>377</v>
+      </c>
+      <c r="F91" t="s">
+        <v>374</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>372</v>
+      </c>
+      <c r="B92">
+        <v>168</v>
+      </c>
+      <c r="C92">
+        <v>172</v>
+      </c>
+      <c r="D92">
+        <v>192</v>
+      </c>
+      <c r="E92">
+        <v>255</v>
+      </c>
+      <c r="F92">
+        <v>172</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>378</v>
+      </c>
+      <c r="B93" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93" t="s">
+        <v>382</v>
+      </c>
+      <c r="E93" t="s">
+        <v>380</v>
+      </c>
+      <c r="F93" t="s">
+        <v>380</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>383</v>
+      </c>
+      <c r="B94" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" t="s">
+        <v>388</v>
+      </c>
+      <c r="D94" t="s">
+        <v>389</v>
+      </c>
+      <c r="E94" t="s">
+        <v>390</v>
+      </c>
+      <c r="F94" t="s">
+        <v>387</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" t="s">
+        <v>384</v>
+      </c>
+      <c r="C95" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E95" t="s">
+        <v>386</v>
+      </c>
+      <c r="F95" t="s">
+        <v>385</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>392</v>
+      </c>
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>393</v>
+      </c>
+      <c r="B97" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" t="s">
+        <v>395</v>
+      </c>
+      <c r="E97" t="s">
+        <v>396</v>
+      </c>
+      <c r="F97" t="s">
+        <v>395</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>397</v>
+      </c>
+      <c r="B98" t="s">
+        <v>339</v>
+      </c>
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>45</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>398</v>
+      </c>
+      <c r="B99" t="s">
+        <v>399</v>
+      </c>
+      <c r="C99" t="s">
+        <v>400</v>
+      </c>
+      <c r="D99" t="s">
+        <v>400</v>
+      </c>
+      <c r="E99" t="s">
+        <v>401</v>
+      </c>
+      <c r="F99" t="s">
+        <v>399</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" t="s">
+        <v>401</v>
+      </c>
+      <c r="F100" t="s">
+        <v>404</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H100" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prototype\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\pta\PTA\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="405">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -477,13 +477,798 @@
   </si>
   <si>
     <t xml:space="preserve">Light Emitting Diode(LED) or Liquid Crystal Displays (LCD) screens are much better at displacing glare than the other technolgy combinations. </t>
+  </si>
+  <si>
+    <r>
+      <t>the main functionality of the basic input/output system (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BIOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) is to perform the initial hardware checks after the computer is powered on and start up the OS</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t>in modern PCs, the procedure of replacing BIOS contents is sometimes refered to as:</t>
+  </si>
+  <si>
+    <t>hard boot</t>
+  </si>
+  <si>
+    <t>overclock</t>
+  </si>
+  <si>
+    <t>flashing the BIOS</t>
+  </si>
+  <si>
+    <t>Direct memory access DMA</t>
+  </si>
+  <si>
+    <t>Flashing the BIOS</t>
+  </si>
+  <si>
+    <t>A+S</t>
+  </si>
+  <si>
+    <t>which Microsoft Windows OS utility can be used to view basic information about computers BIOS</t>
+  </si>
+  <si>
+    <t>WINVER&gt;EXE</t>
+  </si>
+  <si>
+    <t>MSINFO32.EXE</t>
+  </si>
+  <si>
+    <t>controle panel</t>
+  </si>
+  <si>
+    <t>SERVICES.MSC</t>
+  </si>
+  <si>
+    <t>power failure during BIOS upgrade can be the cause of irreversible damage to the computer system</t>
+  </si>
+  <si>
+    <t>after normal system shutdown, when the computer is turned off, contents of the memory used to store BIOS setting are:</t>
+  </si>
+  <si>
+    <t>Erased</t>
+  </si>
+  <si>
+    <t>Retained</t>
+  </si>
+  <si>
+    <t>Stored in a page file</t>
+  </si>
+  <si>
+    <t>Saved on a harddrive</t>
+  </si>
+  <si>
+    <t>Rettained</t>
+  </si>
+  <si>
+    <t>which of the acronyms listed below refers to a series of basic hardware diagnostic test performed by the BIOS after the computer is powered on?</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>Qos</t>
+  </si>
+  <si>
+    <t>after completing the initial diagnostics and assigning system resources, the startup Bios program checks for information about secondary storage devices that might contain the OS.  The list of devices and the order in which they should be checked can be found and arranged in th CMOS setu utility, and this option is commonly refered to as:</t>
+  </si>
+  <si>
+    <t>boot record</t>
+  </si>
+  <si>
+    <t>Master Boot Record(MBR)</t>
+  </si>
+  <si>
+    <t>Partition table</t>
+  </si>
+  <si>
+    <t>Bootsequence</t>
+  </si>
+  <si>
+    <t>Boot sequence</t>
+  </si>
+  <si>
+    <t>in order to work, an integrated component such as Network Interface Card(NIC) on a newly assembled computer system may need to be first</t>
+  </si>
+  <si>
+    <t>Enabled in Windows Controle Panel</t>
+  </si>
+  <si>
+    <t>Updated with the latest driver in Device Manager</t>
+  </si>
+  <si>
+    <t>Checked against the Hardware Compatibility List (HCL)</t>
+  </si>
+  <si>
+    <t>Enabled in the advances BIOS settings menu</t>
+  </si>
+  <si>
+    <t>Enabled in the advanced BIOS settings menu</t>
+  </si>
+  <si>
+    <t>After launching Windows Virtual PC application technician recives error message stating that the Hardware-Assisted Virtualization(HAV) feature is not enabled on the computer. Which of the folowing steps might help in fixing this problem?</t>
+  </si>
+  <si>
+    <t>increasing the amount of phisical RAM on the system</t>
+  </si>
+  <si>
+    <t>Re-instlling Windows Virtual PC app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getting into the CMOS setup utility and enabling the virtualization technology setting </t>
+  </si>
+  <si>
+    <t>Safe Mode troubleshooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting the CMOS setup utility and Enabling the virtualization technology setting </t>
+  </si>
+  <si>
+    <t>the CMOS setup utility can be accessed by pressing:</t>
+  </si>
+  <si>
+    <t>Reset button on the front panel of the computer case</t>
+  </si>
+  <si>
+    <t>the key set by the motherboard manufacturer for accessing CMOS setup utility during boot</t>
+  </si>
+  <si>
+    <t>Del key during boot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1 key while loged into Windows </t>
+  </si>
+  <si>
+    <t>Which of the folowing answers refers to a firmware interface designed as a replacement for BIOS?</t>
+  </si>
+  <si>
+    <t>UEFI</t>
+  </si>
+  <si>
+    <t>CMOS</t>
+  </si>
+  <si>
+    <t>USMT</t>
+  </si>
+  <si>
+    <t>Which of the folowing statements is true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aborted BIOS update can be resumed by the transaction recovery system </t>
+  </si>
+  <si>
+    <t>a common securtiy measure is to store BIOS on a non-rewriteable memory chip</t>
+  </si>
+  <si>
+    <t>the process of BIOS update can be aborted and resumed at a later time</t>
+  </si>
+  <si>
+    <t>Aborted BIOS update could render the computer unusable</t>
+  </si>
+  <si>
+    <t>aborted BIOS update could render the computer unusable</t>
+  </si>
+  <si>
+    <t>which type of password provides the hightst level of permissions in BIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root </t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>power user</t>
+  </si>
+  <si>
+    <t>what is LoJack?</t>
+  </si>
+  <si>
+    <t>loopback adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secutity feature used for locating stolen desktops, laptops, or tablets </t>
+  </si>
+  <si>
+    <t>Conector standard</t>
+  </si>
+  <si>
+    <t>RJ_11 plug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security feature used for locating stolen Desktops, laptops, or tablets </t>
+  </si>
+  <si>
+    <t>which of the folowing terms refer to a tech that allows for storing passwords, certificates, or encryption keys in a hardware chip?</t>
+  </si>
+  <si>
+    <t>Access Controle List (ACL)</t>
+  </si>
+  <si>
+    <t>Encrypting File System(EFS)</t>
+  </si>
+  <si>
+    <t>User Account Controle (UAC)</t>
+  </si>
+  <si>
+    <t>Trusted Platform Module (TPM)</t>
+  </si>
+  <si>
+    <t>Trusted Platform Module(TPM)</t>
+  </si>
+  <si>
+    <t>while tryign to enable the entire drive encryption feature in windows technician receives the followling error message: "A compatible Trusted Platform Module(TPM) security Device must be present on this computer, but a TPM was not found." knowing that the system had a TPM chip installed, which of the folowing steps might help in solving this problem?</t>
+  </si>
+  <si>
+    <t>Re-install OS</t>
+  </si>
+  <si>
+    <t>Enableing the TPM security feture in CMOS setup menu</t>
+  </si>
+  <si>
+    <t>Hard drive replacement</t>
+  </si>
+  <si>
+    <t>Enabling the TPM security feature in Windows controle panel</t>
+  </si>
+  <si>
+    <t>Enabling the TPM security in CMOS setup menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A computer supporting LoJack tech has two main componets installed: a Application Agent residing in he os which sends tracking signals to the monitoring center allowing the law enforcement to locate and recover stolen device, andd Persistence Module  which restores the Application Agent and allows it to survive os re-installation or hard drive format: the highest level of security offered by LoJack can be achieved when Persistence Module resides in </t>
+  </si>
+  <si>
+    <t>os</t>
+  </si>
+  <si>
+    <t>Partition gap on hard drive</t>
+  </si>
+  <si>
+    <t>Computers BIOS</t>
+  </si>
+  <si>
+    <t>USB key</t>
+  </si>
+  <si>
+    <t>A UEFI functionality designed to prevent the loading of malware and unauthorized Oss during system start-up is known as:</t>
+  </si>
+  <si>
+    <t>LoJack</t>
+  </si>
+  <si>
+    <t>Bitlocker</t>
+  </si>
+  <si>
+    <t>Secure boot</t>
+  </si>
+  <si>
+    <t>Kerberos</t>
+  </si>
+  <si>
+    <t>Similarly to magnetic drives, Solid State-Drives (SSD) require periodic defragmentation in order to improve system performance.</t>
+  </si>
+  <si>
+    <t>a tiny sopt on the LCD monitor display screen that permanetly remains black when it should be activated and displaying color is commonly refered to as stuck pixel.</t>
+  </si>
+  <si>
+    <t>a permanent computer display screen discoloration caused by displaying the same static image for extended periods of time is known as:</t>
+  </si>
+  <si>
+    <t>Artifact</t>
+  </si>
+  <si>
+    <t>Stuck pixel</t>
+  </si>
+  <si>
+    <t>Burn-in</t>
+  </si>
+  <si>
+    <t>Dead pixel</t>
+  </si>
+  <si>
+    <t>which of the folowing command-line utilities allows to test the reachability of a host across an IP network</t>
+  </si>
+  <si>
+    <t>NETSTAT</t>
+  </si>
+  <si>
+    <t>IPCONFIG</t>
+  </si>
+  <si>
+    <t>TRACERT</t>
+  </si>
+  <si>
+    <t>PING</t>
+  </si>
+  <si>
+    <t>NET CONFIG</t>
+  </si>
+  <si>
+    <t>IFCONFIG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">which of the folowing command-line prompt tools listed below allows to display IP addresses, subnet mask, and default gateway for all adaptors? </t>
+  </si>
+  <si>
+    <t>A Linux comand-line utility used for displaying and modifying network interface configuration settings is called</t>
+  </si>
+  <si>
+    <t>NETWORKSETUP</t>
+  </si>
+  <si>
+    <t>Microsoft Windows OS command-line for displaying intermediary points on the packet route is called</t>
+  </si>
+  <si>
+    <t>ROUTE PRINT</t>
+  </si>
+  <si>
+    <t>TRACEOUTE</t>
+  </si>
+  <si>
+    <t>N+</t>
+  </si>
+  <si>
+    <t>which of the folowing is an example of active eavesdropping</t>
+  </si>
+  <si>
+    <t>Phishing</t>
+  </si>
+  <si>
+    <t>DDoS</t>
+  </si>
+  <si>
+    <t>Xmas attack</t>
+  </si>
+  <si>
+    <t>MITM</t>
+  </si>
+  <si>
+    <t>Switch spoofing and double tagging are two primary methods of attacking networked resources on:</t>
+  </si>
+  <si>
+    <t>WLAN</t>
+  </si>
+  <si>
+    <t>VLAN</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Harmful programs used to disrupt computer operation, gather sensitive information, or gain access to private computer systems are commonly referred to as:</t>
+  </si>
+  <si>
+    <t>Malware</t>
+  </si>
+  <si>
+    <t>Adware</t>
+  </si>
+  <si>
+    <t>Spyware</t>
+  </si>
+  <si>
+    <t>Computer viruses</t>
+  </si>
+  <si>
+    <t>Zero-day attack exploits:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New accounts </t>
+  </si>
+  <si>
+    <t>Packed software</t>
+  </si>
+  <si>
+    <t>well known vulberability</t>
+  </si>
+  <si>
+    <t>Vulnerability that is present in already released software but unknown to the software developer</t>
+  </si>
+  <si>
+    <t>one of the measures for securing network devices includes the practice of disabling unsused ports.</t>
+  </si>
+  <si>
+    <t>a hacker has captured network traffic with cleartext commands sent from the client to the server console. Which of the following ports is being used by the network admin for the client-server communication?</t>
+  </si>
+  <si>
+    <t>which of the folowing answers refers to preferred replacement for SLIP protocol</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>PoE</t>
+  </si>
+  <si>
+    <t>CHAP</t>
+  </si>
+  <si>
+    <t>PAP</t>
+  </si>
+  <si>
+    <t>FTPS is an extension to the Secure Shell Protocol (SSH) and runs by default on port number 22</t>
+  </si>
+  <si>
+    <t>which of the following protocols does not provide authentication?</t>
+  </si>
+  <si>
+    <t>FTP</t>
+  </si>
+  <si>
+    <t>SCP</t>
+  </si>
+  <si>
+    <t>TFTP</t>
+  </si>
+  <si>
+    <t>SFTP</t>
+  </si>
+  <si>
+    <t>of the three exsiting versions of the Simple Network Management Protocol (SNMP) versions 1 and 2 (SNMPv1 and SNMPv2) offer authentication based on community strings sent in an unencrypted form (in cleartext). SNMPv3 provides packet encryption, authentication, and hasning mechanisms that allow for checking whether data has changed in transit.</t>
+  </si>
+  <si>
+    <t>which of the following answers refers to a cryptographic network protocol for secure data communication, remote command-line login, remote command execution, and other secure network services between computers?</t>
+  </si>
+  <si>
+    <t>Telnet</t>
+  </si>
+  <si>
+    <t>SSH</t>
+  </si>
+  <si>
+    <t>Bcrypt</t>
+  </si>
+  <si>
+    <t>which of the protocols listed below was designed as a secure replacement for Telnet</t>
+  </si>
+  <si>
+    <t>LDAP</t>
+  </si>
+  <si>
+    <t>the SCP protocol is used for:</t>
+  </si>
+  <si>
+    <t>Directory access</t>
+  </si>
+  <si>
+    <t>Secure file transfer</t>
+  </si>
+  <si>
+    <t>Network addressing</t>
+  </si>
+  <si>
+    <t>Sending emails</t>
+  </si>
+  <si>
+    <t>Which ot the Ipsec modes provides entire packet encryption?</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>Payload</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>which of the following solutions provides a shielded environment that protects against unintentional signal leakage and eavesdropping</t>
+  </si>
+  <si>
+    <t>SCADA</t>
+  </si>
+  <si>
+    <t>TEMPEST</t>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>RADIUS</t>
+  </si>
+  <si>
+    <t>Data files containing detection and remediation code that antivirus or antispyware products use to identify malicious code are known as</t>
+  </si>
+  <si>
+    <t>Repositories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signature files </t>
+  </si>
+  <si>
+    <t>macros</t>
+  </si>
+  <si>
+    <t>Security logs</t>
+  </si>
+  <si>
+    <t>signature files</t>
+  </si>
+  <si>
+    <t>the term "DHCP snooping" refers to an exploit that enables operation of a rouge DHCP server on a network.</t>
+  </si>
+  <si>
+    <t>Simple Mail Transfer Protocol(SMTP) operates with the use of TCP port:</t>
+  </si>
+  <si>
+    <t>Which of the potr numbers listed below is commonly used for Session Iniation Protocol (SIP) non-encrypted traffic?</t>
+  </si>
+  <si>
+    <t>Port number 5061 is typically used for Session Initiation Protocol (SIP) traffic encrypted with Transport Layre Security (TLS)</t>
+  </si>
+  <si>
+    <t>port number 5004 is used by:</t>
+  </si>
+  <si>
+    <t>MGCP</t>
+  </si>
+  <si>
+    <t>RTP</t>
+  </si>
+  <si>
+    <t>H.323</t>
+  </si>
+  <si>
+    <t>RTCP</t>
+  </si>
+  <si>
+    <t>RTP contorl Protocol RTCP runs by defalt on port</t>
+  </si>
+  <si>
+    <t>TCP port 1720 is the default port number for</t>
+  </si>
+  <si>
+    <t>PPTP</t>
+  </si>
+  <si>
+    <t>User Datagram Protocol (UDP) is a connection- oriented protocol that requires a set of initial steps in order to establish a connection, supports retransmission of lost packets, flow control, or sequencing</t>
+  </si>
+  <si>
+    <t>Transmission Controle Protocol(tcp) is an example of connectionless protocol. TCP doesn’t support three-way handshake</t>
+  </si>
+  <si>
+    <t>Which of the following protocols is used in network management systems for monitoring network- attached devices?</t>
+  </si>
+  <si>
+    <t>IMAP</t>
+  </si>
+  <si>
+    <t>SNMP</t>
+  </si>
+  <si>
+    <t>An SNMP Agent recives request on UDP port:</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists a cryptographic network protocol for secure data communication, remote command-line login, remote command execution, and other secure network services between two networked computers?</t>
+  </si>
+  <si>
+    <t>A hacker has captured network traffic with cleartext commands sent from the client to the server console. Which of the following ports is being used by the network admin for the client-server communication?</t>
+  </si>
+  <si>
+    <t>A network administrator wants to replace a service running on port 23 with a more reliable solution. Which of the following ports would be in use after implementing this change?</t>
+  </si>
+  <si>
+    <t>DNS runs on port:</t>
+  </si>
+  <si>
+    <t>UDP port 67 is used by:</t>
+  </si>
+  <si>
+    <t>Bootstrap Protocol(BOOTP)</t>
+  </si>
+  <si>
+    <t>remote authentication Dial in user service (RADIUS)</t>
+  </si>
+  <si>
+    <t>Simple Network Management Protocol SNMP</t>
+  </si>
+  <si>
+    <t>Merberos</t>
+  </si>
+  <si>
+    <t>which of the file transfer protocols listed below runs on port number 69 and does not provide authentication?</t>
+  </si>
+  <si>
+    <t>TCP port 445 is used by:</t>
+  </si>
+  <si>
+    <t>RDP</t>
+  </si>
+  <si>
+    <t>SMB</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>A network technician uses an RDP client on their Windows OS in order to remotely troubleshoot a problem on another Windows machine. Which of the following ports needs to be opened for the built-in Windows RDP server to allow this type of network connection?</t>
+  </si>
+  <si>
+    <t>A double colon in an IPv6 address indicates that part of the address containing only zeroes has been compressed to make the address shorter</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists a valid address of FE80:0000:0000:0000:02AA:0000:4C00:FE9A after compression?</t>
+  </si>
+  <si>
+    <t>FE80::2AA::4C00:FE9A</t>
+  </si>
+  <si>
+    <t>FE80:0:2AA:0:4C:FE9A</t>
+  </si>
+  <si>
+    <t>FE80:0:02AA::4C:FE9A</t>
+  </si>
+  <si>
+    <t>An IPv4 to IPv6 transition mechanism that allows IPv6 packets to be transmitted over an IPv4 network is known as:</t>
+  </si>
+  <si>
+    <t>6to4</t>
+  </si>
+  <si>
+    <t>802.3af</t>
+  </si>
+  <si>
+    <t>eDiscovery</t>
+  </si>
+  <si>
+    <t>Miredo</t>
+  </si>
+  <si>
+    <t>What does the term "Miredo" refer to?</t>
+  </si>
+  <si>
+    <t>IPv4 to IPV6 migration mechanism</t>
+  </si>
+  <si>
+    <t>Load balancing solution</t>
+  </si>
+  <si>
+    <t>TeredoIPv6</t>
+  </si>
+  <si>
+    <t>Content filtering solution</t>
+  </si>
+  <si>
+    <t>Teredo IPv6 tunneling software</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists the binary notation of the decimal number 192?</t>
+  </si>
+  <si>
+    <t>an Ipv 4 address consists of:</t>
+  </si>
+  <si>
+    <t>32bits</t>
+  </si>
+  <si>
+    <t>48bits</t>
+  </si>
+  <si>
+    <t>64bits</t>
+  </si>
+  <si>
+    <t>128bits</t>
+  </si>
+  <si>
+    <t>Which of the following is an example of a valid subnet mask?</t>
+  </si>
+  <si>
+    <t>255.255.225.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None of the above is a valid subnet mask </t>
+  </si>
+  <si>
+    <t>255.255.191.0</t>
+  </si>
+  <si>
+    <t>255.255.64.0</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists the default (classful) subnet mask for a class A network?</t>
+  </si>
+  <si>
+    <t>192.168.0.3</t>
+  </si>
+  <si>
+    <t>169.254.10.20</t>
+  </si>
+  <si>
+    <t>65.55.57.27</t>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+  </si>
+  <si>
+    <t>255.128.0.0</t>
+  </si>
+  <si>
+    <t>224.0.0.0</t>
+  </si>
+  <si>
+    <t>255.244.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 127.0.0.1 </t>
+  </si>
+  <si>
+    <t>APIPA-assigned addresses are valid only for communications within a network segment that a given host is connected to (a host with APIPA-assigned address cannot connect to the Internet).</t>
+  </si>
+  <si>
+    <t>Which of the following answers lists the default (classful) subnet mask for a class C network?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.192.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.224.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">255.255.252.0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An IPv4 address in the range 169.254.1.0 through 169.254.254.255 indicates a problem with what type of service?</t>
+  </si>
+  <si>
+    <t>In IPv4 addressing, the leading octet of an IP address with a value of 1 through 126 denotes that the IP address within that range belongs to the:</t>
+  </si>
+  <si>
+    <t>Class A address space</t>
+  </si>
+  <si>
+    <t>Class B address space</t>
+  </si>
+  <si>
+    <t>Class D address space</t>
+  </si>
+  <si>
+    <t>In IPv4 addressing, the leading octet of an IP address with a value of 192 through 223 denotes that the IP address within that range belongs to the:</t>
+  </si>
+  <si>
+    <t>Class C Address space</t>
+  </si>
+  <si>
+    <t>Class C address space</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +1277,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
@@ -837,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1501,68 +2294,1647 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="H27" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>162</v>
+      </c>
       <c r="H28" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
       <c r="H29" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H31" t="s">
-        <v>6</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="H32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="H33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="H34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="H35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>199</v>
+      </c>
       <c r="H36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="H37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="H38" t="s">
-        <v>6</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F54" t="s">
+        <v>281</v>
+      </c>
+      <c r="H54" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="b">
+        <v>0</v>
+      </c>
+      <c r="F55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56">
+        <v>49</v>
+      </c>
+      <c r="C56">
+        <v>23</v>
+      </c>
+      <c r="D56">
+        <v>68</v>
+      </c>
+      <c r="E56">
+        <v>22</v>
+      </c>
+      <c r="F56">
+        <v>23</v>
+      </c>
+      <c r="H56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="H57" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" t="s">
+        <v>293</v>
+      </c>
+      <c r="E59" t="s">
+        <v>294</v>
+      </c>
+      <c r="F59" t="s">
+        <v>293</v>
+      </c>
+      <c r="H59" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" t="s">
+        <v>293</v>
+      </c>
+      <c r="F61" t="s">
+        <v>298</v>
+      </c>
+      <c r="H61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C62" t="s">
+        <v>301</v>
+      </c>
+      <c r="D62" t="s">
+        <v>291</v>
+      </c>
+      <c r="E62" t="s">
+        <v>287</v>
+      </c>
+      <c r="F62" t="s">
+        <v>298</v>
+      </c>
+      <c r="H62" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C63" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" t="s">
+        <v>306</v>
+      </c>
+      <c r="F63" t="s">
+        <v>304</v>
+      </c>
+      <c r="H63" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64" t="s">
+        <v>310</v>
+      </c>
+      <c r="E64" t="s">
+        <v>311</v>
+      </c>
+      <c r="F64" t="s">
+        <v>308</v>
+      </c>
+      <c r="H64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" t="s">
+        <v>313</v>
+      </c>
+      <c r="D65" t="s">
+        <v>315</v>
+      </c>
+      <c r="E65" t="s">
+        <v>316</v>
+      </c>
+      <c r="F65" t="s">
+        <v>314</v>
+      </c>
+      <c r="H65" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66" t="s">
+        <v>321</v>
+      </c>
+      <c r="F66" t="s">
+        <v>322</v>
+      </c>
+      <c r="H66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68">
+        <v>110</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>143</v>
+      </c>
+      <c r="E68">
+        <v>25</v>
+      </c>
+      <c r="F68">
+        <v>25</v>
+      </c>
+      <c r="H68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69">
+        <v>5004</v>
+      </c>
+      <c r="C69">
+        <v>5005</v>
+      </c>
+      <c r="D69">
+        <v>5060</v>
+      </c>
+      <c r="E69">
+        <v>5061</v>
+      </c>
+      <c r="F69">
+        <v>5060</v>
+      </c>
+      <c r="H69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" t="b">
+        <v>0</v>
+      </c>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" t="s">
+        <v>330</v>
+      </c>
+      <c r="E71" t="s">
+        <v>331</v>
+      </c>
+      <c r="F71" t="s">
+        <v>329</v>
+      </c>
+      <c r="H71" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72">
+        <v>5004</v>
+      </c>
+      <c r="C72">
+        <v>5060</v>
+      </c>
+      <c r="D72">
+        <v>5005</v>
+      </c>
+      <c r="E72">
+        <v>5061</v>
+      </c>
+      <c r="F72">
+        <v>5005</v>
+      </c>
+      <c r="H72" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B73" t="s">
+        <v>328</v>
+      </c>
+      <c r="C73" t="s">
+        <v>330</v>
+      </c>
+      <c r="D73" t="s">
+        <v>334</v>
+      </c>
+      <c r="E73" t="s">
+        <v>329</v>
+      </c>
+      <c r="F73" t="s">
+        <v>330</v>
+      </c>
+      <c r="H73" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B75" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" t="b">
+        <v>0</v>
+      </c>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" t="s">
+        <v>329</v>
+      </c>
+      <c r="C76" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" t="s">
+        <v>339</v>
+      </c>
+      <c r="E76" t="s">
+        <v>331</v>
+      </c>
+      <c r="F76" t="s">
+        <v>339</v>
+      </c>
+      <c r="H76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B77">
+        <v>161</v>
+      </c>
+      <c r="C77">
+        <v>138</v>
+      </c>
+      <c r="D77">
+        <v>162</v>
+      </c>
+      <c r="E77">
+        <v>139</v>
+      </c>
+      <c r="F77">
+        <v>161</v>
+      </c>
+      <c r="H77" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B78" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" t="s">
+        <v>299</v>
+      </c>
+      <c r="E78" t="s">
+        <v>293</v>
+      </c>
+      <c r="F78" t="s">
+        <v>298</v>
+      </c>
+      <c r="H78" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>342</v>
+      </c>
+      <c r="B79">
+        <v>49</v>
+      </c>
+      <c r="C79">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>68</v>
+      </c>
+      <c r="E79">
+        <v>22</v>
+      </c>
+      <c r="F79">
+        <v>23</v>
+      </c>
+      <c r="H79" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>343</v>
+      </c>
+      <c r="B80">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>21</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80">
+        <v>25</v>
+      </c>
+      <c r="F80">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B81">
+        <v>139</v>
+      </c>
+      <c r="C81">
+        <v>53</v>
+      </c>
+      <c r="D81">
+        <v>443</v>
+      </c>
+      <c r="E81">
+        <v>22</v>
+      </c>
+      <c r="F81">
+        <v>53</v>
+      </c>
+      <c r="H81" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B82" t="s">
+        <v>346</v>
+      </c>
+      <c r="C82" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" t="s">
+        <v>348</v>
+      </c>
+      <c r="E82" t="s">
+        <v>349</v>
+      </c>
+      <c r="F82" t="s">
+        <v>346</v>
+      </c>
+      <c r="H82" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B83" t="s">
+        <v>291</v>
+      </c>
+      <c r="C83" t="s">
+        <v>293</v>
+      </c>
+      <c r="D83" t="s">
+        <v>292</v>
+      </c>
+      <c r="E83" t="s">
+        <v>294</v>
+      </c>
+      <c r="F83" t="s">
+        <v>293</v>
+      </c>
+      <c r="H83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B84" t="s">
+        <v>352</v>
+      </c>
+      <c r="C84" t="s">
+        <v>353</v>
+      </c>
+      <c r="D84" t="s">
+        <v>354</v>
+      </c>
+      <c r="E84" t="s">
+        <v>329</v>
+      </c>
+      <c r="F84" t="s">
+        <v>353</v>
+      </c>
+      <c r="H84" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B85">
+        <v>1701</v>
+      </c>
+      <c r="C85">
+        <v>139</v>
+      </c>
+      <c r="D85">
+        <v>3389</v>
+      </c>
+      <c r="E85">
+        <v>110</v>
+      </c>
+      <c r="F85">
+        <v>3389</v>
+      </c>
+      <c r="H85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>356</v>
+      </c>
+      <c r="B86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" t="b">
+        <v>0</v>
+      </c>
+      <c r="F86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" t="s">
+        <v>358</v>
+      </c>
+      <c r="C87" t="s">
+        <v>359</v>
+      </c>
+      <c r="D87" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" t="s">
+        <v>360</v>
+      </c>
+      <c r="F87" t="s">
+        <v>360</v>
+      </c>
+      <c r="H87" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>361</v>
+      </c>
+      <c r="B88" t="s">
+        <v>362</v>
+      </c>
+      <c r="C88" t="s">
+        <v>363</v>
+      </c>
+      <c r="D88" t="s">
+        <v>364</v>
+      </c>
+      <c r="E88" t="s">
+        <v>365</v>
+      </c>
+      <c r="F88" t="s">
+        <v>362</v>
+      </c>
+      <c r="H88" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>366</v>
+      </c>
+      <c r="B89" t="s">
+        <v>367</v>
+      </c>
+      <c r="C89" t="s">
+        <v>368</v>
+      </c>
+      <c r="D89" t="s">
+        <v>369</v>
+      </c>
+      <c r="E89" t="s">
+        <v>370</v>
+      </c>
+      <c r="F89" t="s">
+        <v>371</v>
+      </c>
+      <c r="H89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>372</v>
+      </c>
+      <c r="B90">
+        <v>10101100</v>
+      </c>
+      <c r="C90">
+        <v>11000000</v>
+      </c>
+      <c r="D90">
+        <v>1111111</v>
+      </c>
+      <c r="E90">
+        <v>10101000</v>
+      </c>
+      <c r="F90">
+        <v>11000000</v>
+      </c>
+      <c r="H90" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>373</v>
+      </c>
+      <c r="B91" t="s">
+        <v>374</v>
+      </c>
+      <c r="C91" t="s">
+        <v>375</v>
+      </c>
+      <c r="D91" t="s">
+        <v>376</v>
+      </c>
+      <c r="E91" t="s">
+        <v>377</v>
+      </c>
+      <c r="F91" t="s">
+        <v>374</v>
+      </c>
+      <c r="H91" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>372</v>
+      </c>
+      <c r="B92">
+        <v>168</v>
+      </c>
+      <c r="C92">
+        <v>172</v>
+      </c>
+      <c r="D92">
+        <v>192</v>
+      </c>
+      <c r="E92">
+        <v>255</v>
+      </c>
+      <c r="F92">
+        <v>172</v>
+      </c>
+      <c r="H92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>378</v>
+      </c>
+      <c r="B93" t="s">
+        <v>379</v>
+      </c>
+      <c r="C93" t="s">
+        <v>381</v>
+      </c>
+      <c r="D93" t="s">
+        <v>382</v>
+      </c>
+      <c r="E93" t="s">
+        <v>380</v>
+      </c>
+      <c r="F93" t="s">
+        <v>380</v>
+      </c>
+      <c r="H93" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>383</v>
+      </c>
+      <c r="B94" t="s">
+        <v>387</v>
+      </c>
+      <c r="C94" t="s">
+        <v>388</v>
+      </c>
+      <c r="D94" t="s">
+        <v>389</v>
+      </c>
+      <c r="E94" t="s">
+        <v>390</v>
+      </c>
+      <c r="F94" t="s">
+        <v>387</v>
+      </c>
+      <c r="H94" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" t="s">
+        <v>384</v>
+      </c>
+      <c r="C95" t="s">
+        <v>391</v>
+      </c>
+      <c r="D95" t="s">
+        <v>385</v>
+      </c>
+      <c r="E95" t="s">
+        <v>386</v>
+      </c>
+      <c r="F95" t="s">
+        <v>385</v>
+      </c>
+      <c r="H95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>392</v>
+      </c>
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" t="b">
+        <v>0</v>
+      </c>
+      <c r="F96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>393</v>
+      </c>
+      <c r="B97" t="s">
+        <v>394</v>
+      </c>
+      <c r="C97" t="s">
+        <v>395</v>
+      </c>
+      <c r="E97" t="s">
+        <v>396</v>
+      </c>
+      <c r="F97" t="s">
+        <v>395</v>
+      </c>
+      <c r="H97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>397</v>
+      </c>
+      <c r="B98" t="s">
+        <v>339</v>
+      </c>
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>398</v>
+      </c>
+      <c r="B99" t="s">
+        <v>399</v>
+      </c>
+      <c r="C99" t="s">
+        <v>400</v>
+      </c>
+      <c r="D99" t="s">
+        <v>400</v>
+      </c>
+      <c r="E99" t="s">
+        <v>401</v>
+      </c>
+      <c r="F99" t="s">
+        <v>399</v>
+      </c>
+      <c r="H99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100" t="s">
+        <v>399</v>
+      </c>
+      <c r="C100" t="s">
+        <v>400</v>
+      </c>
+      <c r="D100" t="s">
+        <v>403</v>
+      </c>
+      <c r="E100" t="s">
+        <v>401</v>
+      </c>
+      <c r="F100" t="s">
+        <v>404</v>
+      </c>
+      <c r="H100" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\pta\PTA\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\PTAlso\PTA\PTA\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="406">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -1262,6 +1262,9 @@
   </si>
   <si>
     <t>Class C address space</t>
+  </si>
+  <si>
+    <t>I'm sure you know why (Placeholder)</t>
   </si>
 </sst>
 </file>
@@ -1632,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" workbookViewId="0">
-      <selection activeCell="G100" sqref="G100"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,6 +2309,9 @@
       <c r="F26" t="b">
         <v>1</v>
       </c>
+      <c r="G26" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H26" t="s">
         <v>159</v>
       </c>
@@ -2329,6 +2335,9 @@
       <c r="F27" s="1" t="s">
         <v>158</v>
       </c>
+      <c r="G27" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H27" t="s">
         <v>159</v>
       </c>
@@ -2352,6 +2361,9 @@
       <c r="F28" s="1" t="s">
         <v>162</v>
       </c>
+      <c r="G28" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H28" t="s">
         <v>159</v>
       </c>
@@ -2369,6 +2381,9 @@
       <c r="F29" t="b">
         <v>1</v>
       </c>
+      <c r="G29" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H29" t="s">
         <v>159</v>
       </c>
@@ -2392,6 +2407,9 @@
       <c r="F30" s="1" t="s">
         <v>171</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H30" t="s">
         <v>159</v>
       </c>
@@ -2415,6 +2433,9 @@
       <c r="F31" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G31" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H31" t="s">
         <v>159</v>
       </c>
@@ -2438,6 +2459,9 @@
       <c r="F32" s="1" t="s">
         <v>180</v>
       </c>
+      <c r="G32" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H32" t="s">
         <v>159</v>
       </c>
@@ -2461,6 +2485,9 @@
       <c r="F33" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="G33" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H33" t="s">
         <v>159</v>
       </c>
@@ -2484,6 +2511,9 @@
       <c r="F34" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="G34" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H34" t="s">
         <v>159</v>
       </c>
@@ -2507,6 +2537,9 @@
       <c r="F35" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="G35" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H35" t="s">
         <v>159</v>
       </c>
@@ -2530,6 +2563,9 @@
       <c r="F36" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H36" t="s">
         <v>159</v>
       </c>
@@ -2553,6 +2589,9 @@
       <c r="F37" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="G37" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H37" t="s">
         <v>159</v>
       </c>
@@ -2576,6 +2615,9 @@
       <c r="F38" s="1" t="s">
         <v>210</v>
       </c>
+      <c r="G38" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H38" t="s">
         <v>159</v>
       </c>
@@ -2599,6 +2641,9 @@
       <c r="F39" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="G39" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H39" s="1" t="s">
         <v>159</v>
       </c>
@@ -2622,6 +2667,9 @@
       <c r="F40" s="1" t="s">
         <v>224</v>
       </c>
+      <c r="G40" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H40" s="1" t="s">
         <v>159</v>
       </c>
@@ -2645,6 +2693,9 @@
       <c r="F41" s="1" t="s">
         <v>230</v>
       </c>
+      <c r="G41" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H41" s="1" t="s">
         <v>159</v>
       </c>
@@ -2668,6 +2719,9 @@
       <c r="F42" s="1" t="s">
         <v>234</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H42" s="1" t="s">
         <v>159</v>
       </c>
@@ -2691,6 +2745,9 @@
       <c r="F43" s="1" t="s">
         <v>239</v>
       </c>
+      <c r="G43" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H43" s="1" t="s">
         <v>159</v>
       </c>
@@ -2708,6 +2765,9 @@
       <c r="F44" t="b">
         <v>0</v>
       </c>
+      <c r="G44" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H44" s="1" t="s">
         <v>159</v>
       </c>
@@ -2725,6 +2785,9 @@
       <c r="F45" t="b">
         <v>0</v>
       </c>
+      <c r="G45" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>159</v>
       </c>
@@ -2748,6 +2811,9 @@
       <c r="F46" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="G46" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H46" s="1" t="s">
         <v>159</v>
       </c>
@@ -2771,6 +2837,9 @@
       <c r="F47" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="G47" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H47" s="1" t="s">
         <v>159</v>
       </c>
@@ -2794,6 +2863,9 @@
       <c r="F48" s="1" t="s">
         <v>250</v>
       </c>
+      <c r="G48" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>159</v>
       </c>
@@ -2817,6 +2889,9 @@
       <c r="F49" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="G49" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H49" s="1" t="s">
         <v>159</v>
       </c>
@@ -2840,6 +2915,9 @@
       <c r="F50" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="G50" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H50" s="1" t="s">
         <v>159</v>
       </c>
@@ -2863,6 +2941,9 @@
       <c r="F51" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="G51" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H51" s="1" t="s">
         <v>261</v>
       </c>
@@ -2886,6 +2967,9 @@
       <c r="F52" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="G52" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H52" s="1" t="s">
         <v>261</v>
       </c>
@@ -2909,6 +2993,9 @@
       <c r="F53" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="G53" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H53" t="s">
         <v>261</v>
       </c>
@@ -2932,6 +3019,9 @@
       <c r="F54" t="s">
         <v>281</v>
       </c>
+      <c r="G54" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H54" t="s">
         <v>261</v>
       </c>
@@ -2949,6 +3039,9 @@
       <c r="F55" t="b">
         <v>1</v>
       </c>
+      <c r="G55" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H55" t="s">
         <v>261</v>
       </c>
@@ -2972,6 +3065,9 @@
       <c r="F56">
         <v>23</v>
       </c>
+      <c r="G56" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H56" t="s">
         <v>261</v>
       </c>
@@ -2995,6 +3091,9 @@
       <c r="F57" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="G57" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H57" t="s">
         <v>261</v>
       </c>
@@ -3012,6 +3111,9 @@
       <c r="F58" t="b">
         <v>1</v>
       </c>
+      <c r="G58" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H58" t="s">
         <v>261</v>
       </c>
@@ -3035,6 +3137,9 @@
       <c r="F59" t="s">
         <v>293</v>
       </c>
+      <c r="G59" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H59" t="s">
         <v>261</v>
       </c>
@@ -3052,6 +3157,9 @@
       <c r="F60" t="b">
         <v>1</v>
       </c>
+      <c r="G60" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H60" t="s">
         <v>261</v>
       </c>
@@ -3075,6 +3183,9 @@
       <c r="F61" t="s">
         <v>298</v>
       </c>
+      <c r="G61" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H61" t="s">
         <v>261</v>
       </c>
@@ -3098,6 +3209,9 @@
       <c r="F62" t="s">
         <v>298</v>
       </c>
+      <c r="G62" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H62" t="s">
         <v>261</v>
       </c>
@@ -3121,6 +3235,9 @@
       <c r="F63" t="s">
         <v>304</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H63" t="s">
         <v>261</v>
       </c>
@@ -3144,6 +3261,9 @@
       <c r="F64" t="s">
         <v>308</v>
       </c>
+      <c r="G64" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H64" t="s">
         <v>261</v>
       </c>
@@ -3167,6 +3287,9 @@
       <c r="F65" t="s">
         <v>314</v>
       </c>
+      <c r="G65" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H65" t="s">
         <v>261</v>
       </c>
@@ -3190,6 +3313,9 @@
       <c r="F66" t="s">
         <v>322</v>
       </c>
+      <c r="G66" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H66" t="s">
         <v>261</v>
       </c>
@@ -3207,6 +3333,9 @@
       <c r="F67" t="b">
         <v>0</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H67" t="s">
         <v>261</v>
       </c>
@@ -3230,6 +3359,9 @@
       <c r="F68">
         <v>25</v>
       </c>
+      <c r="G68" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H68" t="s">
         <v>261</v>
       </c>
@@ -3253,6 +3385,9 @@
       <c r="F69">
         <v>5060</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H69" t="s">
         <v>261</v>
       </c>
@@ -3270,6 +3405,9 @@
       <c r="F70" t="b">
         <v>0</v>
       </c>
+      <c r="G70" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H70" t="s">
         <v>261</v>
       </c>
@@ -3293,6 +3431,9 @@
       <c r="F71" t="s">
         <v>329</v>
       </c>
+      <c r="G71" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H71" t="s">
         <v>261</v>
       </c>
@@ -3316,6 +3457,9 @@
       <c r="F72">
         <v>5005</v>
       </c>
+      <c r="G72" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H72" t="s">
         <v>261</v>
       </c>
@@ -3339,6 +3483,9 @@
       <c r="F73" t="s">
         <v>330</v>
       </c>
+      <c r="G73" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H73" t="s">
         <v>261</v>
       </c>
@@ -3356,6 +3503,9 @@
       <c r="F74" t="b">
         <v>0</v>
       </c>
+      <c r="G74" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H74" t="s">
         <v>261</v>
       </c>
@@ -3373,6 +3523,9 @@
       <c r="F75" t="b">
         <v>0</v>
       </c>
+      <c r="G75" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H75" t="s">
         <v>261</v>
       </c>
@@ -3396,6 +3549,9 @@
       <c r="F76" t="s">
         <v>339</v>
       </c>
+      <c r="G76" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H76" t="s">
         <v>261</v>
       </c>
@@ -3419,6 +3575,9 @@
       <c r="F77">
         <v>161</v>
       </c>
+      <c r="G77" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H77" t="s">
         <v>261</v>
       </c>
@@ -3442,6 +3601,9 @@
       <c r="F78" t="s">
         <v>298</v>
       </c>
+      <c r="G78" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H78" t="s">
         <v>261</v>
       </c>
@@ -3465,6 +3627,9 @@
       <c r="F79">
         <v>23</v>
       </c>
+      <c r="G79" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H79" t="s">
         <v>261</v>
       </c>
@@ -3488,6 +3653,9 @@
       <c r="F80">
         <v>22</v>
       </c>
+      <c r="G80" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H80" t="s">
         <v>261</v>
       </c>
@@ -3511,6 +3679,9 @@
       <c r="F81">
         <v>53</v>
       </c>
+      <c r="G81" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H81" t="s">
         <v>261</v>
       </c>
@@ -3534,6 +3705,9 @@
       <c r="F82" t="s">
         <v>346</v>
       </c>
+      <c r="G82" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H82" t="s">
         <v>261</v>
       </c>
@@ -3557,6 +3731,9 @@
       <c r="F83" t="s">
         <v>293</v>
       </c>
+      <c r="G83" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H83" t="s">
         <v>261</v>
       </c>
@@ -3580,6 +3757,9 @@
       <c r="F84" t="s">
         <v>353</v>
       </c>
+      <c r="G84" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H84" t="s">
         <v>261</v>
       </c>
@@ -3603,6 +3783,9 @@
       <c r="F85">
         <v>3389</v>
       </c>
+      <c r="G85" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H85" t="s">
         <v>261</v>
       </c>
@@ -3620,6 +3803,9 @@
       <c r="F86" t="b">
         <v>1</v>
       </c>
+      <c r="G86" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H86" t="s">
         <v>261</v>
       </c>
@@ -3643,6 +3829,9 @@
       <c r="F87" t="s">
         <v>360</v>
       </c>
+      <c r="G87" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H87" t="s">
         <v>261</v>
       </c>
@@ -3666,6 +3855,9 @@
       <c r="F88" t="s">
         <v>362</v>
       </c>
+      <c r="G88" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H88" t="s">
         <v>261</v>
       </c>
@@ -3689,6 +3881,9 @@
       <c r="F89" t="s">
         <v>371</v>
       </c>
+      <c r="G89" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H89" t="s">
         <v>261</v>
       </c>
@@ -3712,6 +3907,9 @@
       <c r="F90">
         <v>11000000</v>
       </c>
+      <c r="G90" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H90" t="s">
         <v>261</v>
       </c>
@@ -3735,6 +3933,9 @@
       <c r="F91" t="s">
         <v>374</v>
       </c>
+      <c r="G91" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H91" t="s">
         <v>261</v>
       </c>
@@ -3758,6 +3959,9 @@
       <c r="F92">
         <v>172</v>
       </c>
+      <c r="G92" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H92" t="s">
         <v>261</v>
       </c>
@@ -3781,6 +3985,9 @@
       <c r="F93" t="s">
         <v>380</v>
       </c>
+      <c r="G93" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H93" t="s">
         <v>261</v>
       </c>
@@ -3804,6 +4011,9 @@
       <c r="F94" t="s">
         <v>387</v>
       </c>
+      <c r="G94" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H94" t="s">
         <v>261</v>
       </c>
@@ -3827,6 +4037,9 @@
       <c r="F95" t="s">
         <v>385</v>
       </c>
+      <c r="G95" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H95" t="s">
         <v>261</v>
       </c>
@@ -3844,6 +4057,9 @@
       <c r="F96" t="b">
         <v>1</v>
       </c>
+      <c r="G96" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H96" t="s">
         <v>261</v>
       </c>
@@ -3864,6 +4080,9 @@
       <c r="F97" t="s">
         <v>395</v>
       </c>
+      <c r="G97" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H97" t="s">
         <v>261</v>
       </c>
@@ -3887,6 +4106,9 @@
       <c r="F98" t="s">
         <v>45</v>
       </c>
+      <c r="G98" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H98" t="s">
         <v>261</v>
       </c>
@@ -3910,6 +4132,9 @@
       <c r="F99" t="s">
         <v>399</v>
       </c>
+      <c r="G99" s="1" t="s">
+        <v>405</v>
+      </c>
       <c r="H99" t="s">
         <v>261</v>
       </c>
@@ -3932,6 +4157,9 @@
       </c>
       <c r="F100" t="s">
         <v>404</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="H100" t="s">
         <v>261</v>

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\PTAlso\PTA\PTA\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\pta\PTA\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="652">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -1264,7 +1264,746 @@
     <t>Class C address space</t>
   </si>
   <si>
-    <t>I'm sure you know why (Placeholder)</t>
+    <t>A software or hardware that checks information coming from the Internet and depending on the applied configuration settings either blocks it or allows it to pass through is called:</t>
+  </si>
+  <si>
+    <t>Antivirus</t>
+  </si>
+  <si>
+    <t>Firewall</t>
+  </si>
+  <si>
+    <t>Antispyware</t>
+  </si>
+  <si>
+    <t>malware</t>
+  </si>
+  <si>
+    <t>S+</t>
+  </si>
+  <si>
+    <t>a device designed to forward data packets between networks is caled:</t>
+  </si>
+  <si>
+    <t>Layer 2 switch</t>
+  </si>
+  <si>
+    <t>Active hub</t>
+  </si>
+  <si>
+    <t>Content filter</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Allowing a connection through a firewall is known as creating:</t>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>AccessPoint(AP)</t>
+  </si>
+  <si>
+    <t>Entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a network device designed for managing the optimal distribution of workloads across multiple computing resources is called </t>
+  </si>
+  <si>
+    <t>Load balancer</t>
+  </si>
+  <si>
+    <t>HIDS</t>
+  </si>
+  <si>
+    <t>Captive portal</t>
+  </si>
+  <si>
+    <t>Load Balancer</t>
+  </si>
+  <si>
+    <t>the last default rule on a firewall on a firewall is to deny all traffic.</t>
+  </si>
+  <si>
+    <t>A computer network service that allows clients to make indirect network connections to other network services is called:</t>
+  </si>
+  <si>
+    <t>Load balancing</t>
+  </si>
+  <si>
+    <t>Proxy</t>
+  </si>
+  <si>
+    <t>Network Access Control (NAC)</t>
+  </si>
+  <si>
+    <t>Backdoor</t>
+  </si>
+  <si>
+    <t>Which of the terms listed below refers to a security solution implemented on an individual computer host monitoring that specific system for malicious activities or policy violations?</t>
+  </si>
+  <si>
+    <t>NIPS</t>
+  </si>
+  <si>
+    <t>One of the measures for securing networking devices includes the practice of disabling unused ports.</t>
+  </si>
+  <si>
+    <t>Which of the following ensures the privacy of a VPN connection?</t>
+  </si>
+  <si>
+    <t>Tunneling</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Cleartext credentials</t>
+  </si>
+  <si>
+    <t>Which of the following answers refers to a dedicated device for managing secure connections established over an untrusted network, such as the Internet?</t>
+  </si>
+  <si>
+    <t>Load ballencer</t>
+  </si>
+  <si>
+    <t>VPN concentrator</t>
+  </si>
+  <si>
+    <t>Layre 3 switch</t>
+  </si>
+  <si>
+    <t>Hardware firewall</t>
+  </si>
+  <si>
+    <t>Which of the following acronyms refers to a network or host based monitoring system designed to automatically alert administrators of known or suspected unauthorized activity?</t>
+  </si>
+  <si>
+    <t>IDS</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>TPM</t>
+  </si>
+  <si>
+    <t>EFS</t>
+  </si>
+  <si>
+    <t>Which of the following acronyms refers to a network security solution combining the functionality of a firewall with additional safeguards such as URL filtering, content inspection, or malware inspection?</t>
+  </si>
+  <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>UTM</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>URL filtering restricts access to Internet sites based on which of the following criteria?</t>
+  </si>
+  <si>
+    <t>Virus signature</t>
+  </si>
+  <si>
+    <t>Web address</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Data content</t>
+  </si>
+  <si>
+    <t>Which of the following network security solutions inspects network traffic in real-time and has the capability to stop the ongoing attack?</t>
+  </si>
+  <si>
+    <t>NIDS</t>
+  </si>
+  <si>
+    <t>NIST</t>
+  </si>
+  <si>
+    <t>Which of the following acronyms refers to a firewall controlling access to a web server?</t>
+  </si>
+  <si>
+    <t>WEP</t>
+  </si>
+  <si>
+    <t>WAP</t>
+  </si>
+  <si>
+    <t>WPS</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>Which of the answers listed below refers to a set of rules that specify which users or system processes are granted access to objects as well as what operations are allowed on a given object?</t>
+  </si>
+  <si>
+    <t>Firewall reconfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closing down connection </t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Termination process</t>
+  </si>
+  <si>
+    <t>802.1x is an IEEE standard defining:</t>
+  </si>
+  <si>
+    <t>Token ring networks</t>
+  </si>
+  <si>
+    <t>Port-based network access control</t>
+  </si>
+  <si>
+    <t>VLAN tagging</t>
+  </si>
+  <si>
+    <t>wireless networking</t>
+  </si>
+  <si>
+    <t>An access control model in which access to resources is granted or denied depending on Access Control List (ACL) entries is also known as:</t>
+  </si>
+  <si>
+    <t>Mandatory Access Control</t>
+  </si>
+  <si>
+    <t>Lattice-Based Access Control</t>
+  </si>
+  <si>
+    <t>Role-Based Access Control</t>
+  </si>
+  <si>
+    <t>Rule-Based Access Control</t>
+  </si>
+  <si>
+    <t>Which of the following security solutions provides a countermeasure against denial-of-service attack characterized by increasing number of half-open connections?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flood guard </t>
+  </si>
+  <si>
+    <t>Protocol analyzer</t>
+  </si>
+  <si>
+    <t>Flood guard</t>
+  </si>
+  <si>
+    <t>Which of the protocols listed below protects against switching loops?</t>
+  </si>
+  <si>
+    <t>UTP</t>
+  </si>
+  <si>
+    <t>OCSP</t>
+  </si>
+  <si>
+    <t>HMAC</t>
+  </si>
+  <si>
+    <t>A type of Intrusion Detection System (IDS) that relies on known attack patterns to detect an intrusion is known as a signature-based IDS</t>
+  </si>
+  <si>
+    <t>Which of the following backup site types allows for fastest disaster recovery?</t>
+  </si>
+  <si>
+    <t>Cold site</t>
+  </si>
+  <si>
+    <t>Hot site</t>
+  </si>
+  <si>
+    <t>Warm site</t>
+  </si>
+  <si>
+    <t>Cross-site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A cold site is the most expensive type of backup site for an organization to operate. </t>
+  </si>
+  <si>
+    <t>Steganography allows for:</t>
+  </si>
+  <si>
+    <t>Checking data intergity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calculating hash values </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiding data within another piece of data </t>
+  </si>
+  <si>
+    <t>Data encryption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiding data within another piece of data </t>
+  </si>
+  <si>
+    <t>What is the purpose of non-repudation?</t>
+  </si>
+  <si>
+    <t>Hiding one piece of data in another piece of data</t>
+  </si>
+  <si>
+    <t>Ensuring that recevied data hasn't changed in transit</t>
+  </si>
+  <si>
+    <t>Preventing someone from denying that they have taken apecific action</t>
+  </si>
+  <si>
+    <t>transforming plaintext into ciphertext</t>
+  </si>
+  <si>
+    <t>Preventing someone from denying that they have taken specific action</t>
+  </si>
+  <si>
+    <t>Which of the Following answerd refers to a general term used to describe software designed specifically to damage or disrupt the operation of a computer system</t>
+  </si>
+  <si>
+    <t>Spam</t>
+  </si>
+  <si>
+    <t>What is adware</t>
+  </si>
+  <si>
+    <t>Unsolicited or undesired electronic messages</t>
+  </si>
+  <si>
+    <t>Malicious program that sends copies of itself to other computers on the network</t>
+  </si>
+  <si>
+    <t>Software that displays advertisements</t>
+  </si>
+  <si>
+    <t>Malicious software that collects information about users without their knowledge</t>
+  </si>
+  <si>
+    <t>A computer program containing malicious segment that attaches itself to an application program or other executable component is called:</t>
+  </si>
+  <si>
+    <t>Virus</t>
+  </si>
+  <si>
+    <t>Flash cookie</t>
+  </si>
+  <si>
+    <t>Malicious software collecting information about users without their knowledge / consent is called:</t>
+  </si>
+  <si>
+    <t>Logic bomb</t>
+  </si>
+  <si>
+    <t>Computer worm</t>
+  </si>
+  <si>
+    <t>Which of the following answers refers to malicious software performing unwanted and harmful actions in disguise of a legitimate and useful program?</t>
+  </si>
+  <si>
+    <t>Trojan horse</t>
+  </si>
+  <si>
+    <t>Software that cannot be clearly classified as malware is referred to as:</t>
+  </si>
+  <si>
+    <t>Ransomware</t>
+  </si>
+  <si>
+    <t>Grayware</t>
+  </si>
+  <si>
+    <t>Shareware</t>
+  </si>
+  <si>
+    <t>What is the function of Windows Defender software</t>
+  </si>
+  <si>
+    <t>Allowing and blocking applications through Windows Firewall</t>
+  </si>
+  <si>
+    <t>Protection against spyware and other potentially unwanted software</t>
+  </si>
+  <si>
+    <t>Reviewing computer's status and resolving isues</t>
+  </si>
+  <si>
+    <t>Management of User Account Controle (UAC) settings</t>
+  </si>
+  <si>
+    <t>A collection of software tools used by a hacker in order to mask intrusion and obtain administrator-level access to a computer or computer network is known as:</t>
+  </si>
+  <si>
+    <t>Botnet</t>
+  </si>
+  <si>
+    <t>Rootkit</t>
+  </si>
+  <si>
+    <t>Honeypot</t>
+  </si>
+  <si>
+    <t>Which of the following answers refers to an undocumented way of gaining access to a program, online service or an entire computer system?</t>
+  </si>
+  <si>
+    <t>Tailgating</t>
+  </si>
+  <si>
+    <t>Malicious code activated by a specific event is known as:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spyware </t>
+  </si>
+  <si>
+    <t>Armored virus</t>
+  </si>
+  <si>
+    <t>A group of computers running malicious software under control of a hacker is referred to as:</t>
+  </si>
+  <si>
+    <t>Intranet</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>Honeynet</t>
+  </si>
+  <si>
+    <t>Malware that restricts access to a computer system by encrypting files or locking the entire system down until the user performs requested action is known as</t>
+  </si>
+  <si>
+    <t>The process by which malicious software changes its underlying code to avoid detection is called</t>
+  </si>
+  <si>
+    <t>Fuzzing</t>
+  </si>
+  <si>
+    <t>Polymorphism</t>
+  </si>
+  <si>
+    <t>Pharming</t>
+  </si>
+  <si>
+    <t>Spoofing</t>
+  </si>
+  <si>
+    <t>A type of virus that takes advantage of various mechanisms specifically designed to make tracing, disassembling and reverse engineering its code more difficult is known as:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logic bomb </t>
+  </si>
+  <si>
+    <t>Which of the following is an example of active eavesdropping?</t>
+  </si>
+  <si>
+    <t>A replay attack occurs when an attacker intercepts user credentials and tries to use this information later for gaining unauthorized access to resources on a network.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> An email sent from unknown source disguised as a source known to the message receiver is an example of:</t>
+  </si>
+  <si>
+    <t>Shoulder surfing</t>
+  </si>
+  <si>
+    <t>Birthday attack</t>
+  </si>
+  <si>
+    <t>Which IPsec mode provides encryption for the entire packet?</t>
+  </si>
+  <si>
+    <t>Host-to-host</t>
+  </si>
+  <si>
+    <t>An IPsec mode providing encryption only for the payload (the data part of the packet) is known as:</t>
+  </si>
+  <si>
+    <t>Protected mode</t>
+  </si>
+  <si>
+    <t>Tunnel mode</t>
+  </si>
+  <si>
+    <t>Transport mode</t>
+  </si>
+  <si>
+    <t>Safe mode</t>
+  </si>
+  <si>
+    <t>What is the purpose of non-repudiation?</t>
+  </si>
+  <si>
+    <t>taking hashes ensures that data retains its:</t>
+  </si>
+  <si>
+    <t>Confidentiality</t>
+  </si>
+  <si>
+    <t>Inttegrity</t>
+  </si>
+  <si>
+    <t>Order of volatility</t>
+  </si>
+  <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Integrity</t>
+  </si>
+  <si>
+    <t>What is the name of a storage solution used to retain copies of private encryption keys?</t>
+  </si>
+  <si>
+    <t>Trusted OS</t>
+  </si>
+  <si>
+    <t>Key escrow</t>
+  </si>
+  <si>
+    <t>Proxy server</t>
+  </si>
+  <si>
+    <t>Recovery agent</t>
+  </si>
+  <si>
+    <t>What is the purpose of Steganography?</t>
+  </si>
+  <si>
+    <t>A digital signature is a hash of a message that uniquely identifies the sender of the message and provides a proof that the message hasn't changed in transit.</t>
+  </si>
+  <si>
+    <t>SHA, MD5, and RIPEMD are examples of:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trust models </t>
+  </si>
+  <si>
+    <t>Encryption algorithms</t>
+  </si>
+  <si>
+    <t>Hash functions</t>
+  </si>
+  <si>
+    <t>Virus signatures</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>a set of computer instructions in firmware that control input and output operations.</t>
+  </si>
+  <si>
+    <t>This firmware usually supports flashing the BIOS from a file in a CD or floppy disk. Flashing the BIOS is akin to updating software on your operating system but is a different process because the BIOS software is stored, not the hard drive, but rather on a chip on the motherboard</t>
+  </si>
+  <si>
+    <t>A component of Microsoft Windows. System Information on Windows 10. System Information (msinfo32.exe) is a system profiler included with Microsoft Windows that displays diagnostic and troubleshooting information related to the operating system, hardware and software.</t>
+  </si>
+  <si>
+    <t>to restore the BIOS</t>
+  </si>
+  <si>
+    <t>When power is turned on, POST (Power-On Self-Test) is the diagnostic testing sequence that a computer's basic input/output system (or "starting program") runs to determine if the computer keyboard, random access memory, disk drives, and other hardware are working correctly.</t>
+  </si>
+  <si>
+    <t>Boot sequence is the order in which a computer searches for nonvolatile data storage devices containing program code to load the operating system (OS). Typically, a Macintosh structure uses ROM and Windows uses BIOS to start the boot sequence.</t>
+  </si>
+  <si>
+    <t>Unified Extensible Firmware Interface (UEFI) is a specification for a software program that connects a computer's firmware to its operating system (OS). UEFI is expected to eventually replace BIOS. Like BIOS, UEFI is installed at the time of manufacturing and is the first program that runs when a computer is turned on.</t>
+  </si>
+  <si>
+    <t>without the BIOS you will encounter problems</t>
+  </si>
+  <si>
+    <t>supervisor admin privlages give you more access</t>
+  </si>
+  <si>
+    <t>find your pc or tablet through gps tracker</t>
+  </si>
+  <si>
+    <t>Trusted Platform Module (TPM) is an international standard for a secure cryptoprocessor, which is a dedicated microcontroller designed to secure hardware by integrating cryptographic keys into devices. TPM's technical specification was written by a computer industry consortium called Trusted Computing Group (TCG).</t>
+  </si>
+  <si>
+    <t>BIOS (basic input/output system) is the program a personal computer's microprocessor uses to get the computer system started after you turn it on. It also manages data flow between the computer's operating system and attached devices such as the hard disk, video adapter, keyboard, mouse and printer.</t>
+  </si>
+  <si>
+    <t>Secure Boot is a security standard developed by members of the PC industry to help make sure that your PC boots using only software that is trusted by the PC manufacturer. Support for Secure Boot was introduced in Windows 8.</t>
+  </si>
+  <si>
+    <t>a reliability test in which a device is switched on for a long time.</t>
+  </si>
+  <si>
+    <t>query (another computer on a network) to determine whether there is a connection to it.</t>
+  </si>
+  <si>
+    <t>Ipconfig (sometimes written as IPCONFIG) is a command line tool used to control the network connections on Windows NT/2000/XP machines. ... Ipconfig displays all current TCP/IP network configuration values and refreshes Dynamic Host Configuration Protocol (DHCP) and Domain Name System (DNS) settings.</t>
+  </si>
+  <si>
+    <t>ifconfig is a system administration utility in Unix-like operating systems for network interface configuration.</t>
+  </si>
+  <si>
+    <t>Traceroute is a utility that records the route (the specific gateway computers at each hop) through the Internet between your computer and a specified destination computer. It also calculates and displays the amount of time each hop took.</t>
+  </si>
+  <si>
+    <t>In cryptography and computer security, a man-in-the-middle attack (MITM) is an attack where the attacker secretly relays and possibly alters the communication between two parties who believe they are directly communicating with each other.</t>
+  </si>
+  <si>
+    <t>A virtual LAN (VLAN) is any broadcast domain that is partitioned and isolated in a computer network at the data link layer (OSI layer 2). ... VLANs allow network administrators to group hosts together even if the hosts are not on the same network switch.</t>
+  </si>
+  <si>
+    <t>software that is intended to damage or disable computers and computer systems.</t>
+  </si>
+  <si>
+    <t>Purchasing Power Parity (PPP) is an economic theory that compares different countries' currencies through a market "basket of goods" approach. ... To make a comparison of prices across countries that holds any type of meaning, a wide range of goods and services must be considered.</t>
+  </si>
+  <si>
+    <t>Trivial File Transfer Protocol (TFTP) is an Internet software utility for transferring files that is simpler to use than the File Transfer Protocol (FTP) but less capable. It is used where user authentication and directory visibility are not required.</t>
+  </si>
+  <si>
+    <t>Secure Shell (SSH) is a cryptographic network protocol for operating network services securely over an unsecured network. The best known example application is for remote login to computer systems by users.</t>
+  </si>
+  <si>
+    <t>The Bootstrap Protocol (BOOTP) is a computer networking protocol used in Internet Protocol networks to automatically assign an IP address to network devices from a configuration server. The BOOTP was originally defined in RFC 951.</t>
+  </si>
+  <si>
+    <t>A small and midsize business (SMB) is a business which, due to its size, has different IT requirements—and often faces different IT challenges—than do large enterprises, and whose IT resources (usually budget and staff) are often highly constrained</t>
+  </si>
+  <si>
+    <t>In computer networking, Teredo is a transition technology that gives full IPv6 connectivity for IPv6-capable hosts that are on the IPv4 Internet but have no native connection to an IPv6 network. ... Teredo is a temporary measure. In the long term, all IPv6 hosts should use native IPv6 connectivity</t>
+  </si>
+  <si>
+    <t>Dynamic Host Configuration Protocol (DHCP) is a network protocol that enables a server to automatically assign an IP address to a computer from a defined range of numbers (i.e., a scope) configured for a given network.</t>
+  </si>
+  <si>
+    <t>Class A addresses always have the first bit of their IP addresses set to “0”. Since Class A networks have an 8-bit network mask, the use of a leading zero leaves only 7 bits for the network portion of the address, allowing for a maximum of 128 possible network numbers, ranging from 0.0.0.0 – 127.0.0.0. Number 127.x.x.x is reserved for loopback, used for internal testing on the local machine.</t>
+  </si>
+  <si>
+    <t>Class C addresses have their first two bits set to “1” and their third bit set to “0”. Since Class C addresses have a 24-bit network mask, this leaves 21 bits for the network portion of the address, allowing for a maximum of 2,097,152 network addresses, ranging from 192.0.0.0 – 223.255.255.0.</t>
+  </si>
+  <si>
+    <t>a part of a computer system or network that is designed to block unauthorized access while permitting outward communication.
+another term for Chinese wall.</t>
+  </si>
+  <si>
+    <t>Definition of: router. router. A network device that forwards data packets from one network to another. Based on the address of the destination network in the incoming packet and an internal routing table, the router determines which port (line) to send out the packet (ports typically connect to Ethernet cables).</t>
+  </si>
+  <si>
+    <t>A load balancer is a piece of hardware (or virtual hardware) that acts like a reverse proxy to distribute network and/or application traffic across different servers. A load balancer is used to improve the concurrent user capacity and overall reliability of applications.</t>
+  </si>
+  <si>
+    <t>A proxy server verifies and forwards incoming client requests to other servers for further communication. A proxy server is located between a client and a server where it acts as an intermediary between the two, such as a Web browser and a Web server. The proxy server's most important role is providing security</t>
+  </si>
+  <si>
+    <t>A host-based intrusion detection system (HIDS) is an intrusion detection system that monitors and analyzes the internals of a computing system as well as (in some cases) the network packets on its network interfaces (just like a network-based intrusion detection system (NIDS) would do).</t>
+  </si>
+  <si>
+    <t>Tunneling is a protocol that allows for the secure movement of data from one network to another. ... The encapsulation process allows for data packets to appear as though they are of a public nature to a public network when they are actually private data packets, allowing them to pass through unnoticed</t>
+  </si>
+  <si>
+    <t>A VPN concentrator is a type of networking device that provides secure creation of VPN connections and delivery of messages between VPN nodes. It is a type of router device, built specifically for creating and managing VPN communication infrastructures.</t>
+  </si>
+  <si>
+    <t>An intrusion detection system (IDS) is a device or software application that monitors a network or systems for malicious activity or policy violations</t>
+  </si>
+  <si>
+    <t>Unified Threat Management (UTM) is a term first used by IDC to describe a category of security appliances which integrates a range of security features into a single appliance. UTM appliances combine firewall, gateway anti-virus, and intrusion detection and prevention capabilities into a single platform.</t>
+  </si>
+  <si>
+    <t>A website address, also known as a URL (uniform resource locator), is an Internet or intranet name that points to to a location where a file, directory or website page is hosted.</t>
+  </si>
+  <si>
+    <t>By Vangie Beal Short for network-based intrusion prevention system, NIPS is an IPS or intrusion prevention systems designed for security over network-based systems. See also IPS, intrusion prevention systems.</t>
+  </si>
+  <si>
+    <t>A web application firewall (WAF) is an application firewall for HTTP applications. It applies a set of rules to an HTTP conversation. Generally, these rules cover common attacks such as cross-site scripting (XSS) and SQL injection.</t>
+  </si>
+  <si>
+    <t>The Security Log, in Microsoft Windows, is a log that contains records of login/logout activity or other security-related events specified by the system's audit policy. Auditing allows administrators to configure Windows to record operating system activity in the Security Log.</t>
+  </si>
+  <si>
+    <t>Network Security Tab. Conclusion. IEEE 802.1x port-based network access control provides a significantly improved solution for authentication for switched LAN and wireless LAN. It is a means to authenticate every network user accessing the LAN services.</t>
+  </si>
+  <si>
+    <t>In computer systems security, role-based access control (RBAC) is an approach to restricting system access to authorized users. ... Role-based-access-control (RBAC) is a policy neutral access control mechanism defined around roles and privileges.</t>
+  </si>
+  <si>
+    <t>A flood guard protects against Denial of Service (DOS) flooding attacks. A SYN attack or a SYN flood is one example of a DOS flooding attack. ... MAC hijacking occurs when an attacks spoofs their MAC address as that of someone else, this is not a flooding attack.</t>
+  </si>
+  <si>
+    <t>Spanning Tree Protocol Security. Spanning Tree Protocol (STP) is a link management protocol, defined in the IEEE 802.1D, for bridged networks. ... STP implements an algorithm that guarantees a loop-free topology.</t>
+  </si>
+  <si>
+    <t>A hot site is a commercial disaster recovery service that allows a business to continue computer and network operations in the event of a computer or equipment disaster. For example, if an enterprise's data center becomes inoperable, that enterprise can move all data processing operations to a hot site.</t>
+  </si>
+  <si>
+    <t>Malware, or malicious software, is any program or file that is harmful to a computer user. Malware includes computer viruses, worms, Trojan horses and spyware.</t>
+  </si>
+  <si>
+    <t>Industry definition for the term Stealth Virus. A stealth virus is complex malware that hides itself after infecting a computer.</t>
+  </si>
+  <si>
+    <t>Spyware is a type of malware that is installed on a computer without the knowledge of the owner in order to collect the owner's private information. Spyware is often hidden from the user in order to gather information about internet interaction, keystrokes (also known as keylogging), passwords, and other valuable data.</t>
+  </si>
+  <si>
+    <t>A Trojan horse, often shortened to Trojan, is a type of malware designed to provide unauthorized, remote access to a user's computer. ... The term gets its name from the Greek story of the Trojan War, when the Greeks offered the Trojans a peace offering in the form of a large wooden horse.</t>
+  </si>
+  <si>
+    <t>Coined as a term in September 2004, grayware (or greyware) refers to an unwanted software program (small or large) that can cause damage to a computer system. ... Grayware can generate pop-up ads, cause security vulnerabilities on a computer or network, and can potentially prohibit users from performing certain actions.</t>
+  </si>
+  <si>
+    <t>A rootkit is a collection of computer software, typically malicious, designed to enable access to a computer or areas of its software that would not otherwise be allowed (for example, to an unauthorized user) and often masks its existence or the existence of other software.</t>
+  </si>
+  <si>
+    <t>A backdoor is a means to access a computer system or encrypted data that bypasses the system's customary security mechanisms. ... However, attackers often use backdoors that they detect or install themselves as part of an exploit.</t>
+  </si>
+  <si>
+    <t>Logic bomb. ... Software that is inherently malicious, such as viruses and worms, often contain logic bombs that execute a certain payload at a pre-defined time or when some other condition is met. This technique can be used by a virus or worm to gain momentum and spread before being noticed.</t>
+  </si>
+  <si>
+    <t>Ransomware is a type of malicious software from cryptovirology that threatens to publish the victim's data or perpetually block access to it unless a ransom is paid.</t>
+  </si>
+  <si>
+    <t>Polymorphic techniques involve frequently changing identifiable characteristics like file names and types or encryption keys to make the malware unrecognizable to many detection techniques. Polymorphism is used to evade pattern-matching detection relied on by security solutions like antivirus software.</t>
+  </si>
+  <si>
+    <t>A type of virus that has been designed to thwart attempts by analysts from examining its code by using various methods to make tracing, disassembling and reverse engineering more difficult. An Armored Virus may also protect itself from antivirus programs, making it more difficult to trace.</t>
+  </si>
+  <si>
+    <t>From Wikipedia, the free encyclopedia. In cryptography and computer security, a man-in-the-middle attack (MITM) is an attack where the attacker secretly relays and possibly alters the communication between two parties who believe they are directly communicating with each other.</t>
+  </si>
+  <si>
+    <t>In the context of network security, a spoofing attack is a situation in which one person or program successfully masquerades as another by falsifying data, thereby gaining an illegitimate advantage.</t>
+  </si>
+  <si>
+    <t>Tunneling is a protocol that allows for the secure movement of data from one network to another. Tunneling involves allowing private network communications to be sent across a public network, such as the Internet, through a process called encapsulation.</t>
+  </si>
+  <si>
+    <t>There are two encapsulation modes used by AH and ESP, transport and tunnel. ... Therefore, when transport mode is used, the IP header reflects the original source and destination of the packet. Transport is most often used in a host-to-host scenario, where the data endpoints and the security endpoints are the same.</t>
+  </si>
+  <si>
+    <t>Confidentiality, integrity and availability, also known as the CIA triad, is a model designed to guide policies for information security within an organization. The model is also sometimes referred to as the AIC triad (availability, integrity and confidentiality) to avoid confusion with the Central Intelligence Agency.</t>
+  </si>
+  <si>
+    <t>Key escrow is a data security measure in which a cryptographic key is entrusted to a third party (i.e., kept in escrow).</t>
+  </si>
+  <si>
+    <t>These functions are categorized into cryptographic hash functions and provably secure hash functions. ... Collision resistance is accomplished in part by generating very large hash values. For example, SHA-1, one of the most widely used cryptographic hash functions, generates 160 bit values.</t>
   </si>
 </sst>
 </file>
@@ -1315,10 +2054,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,10 +2375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="E130" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +3052,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>405</v>
+        <v>586</v>
       </c>
       <c r="H26" t="s">
         <v>159</v>
@@ -2336,7 +3078,7 @@
         <v>158</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>405</v>
+        <v>587</v>
       </c>
       <c r="H27" t="s">
         <v>159</v>
@@ -2362,7 +3104,7 @@
         <v>162</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>405</v>
+        <v>588</v>
       </c>
       <c r="H28" t="s">
         <v>159</v>
@@ -2382,7 +3124,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>405</v>
+        <v>586</v>
       </c>
       <c r="H29" t="s">
         <v>159</v>
@@ -2408,7 +3150,7 @@
         <v>171</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>405</v>
+        <v>589</v>
       </c>
       <c r="H30" t="s">
         <v>159</v>
@@ -2434,7 +3176,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>405</v>
+        <v>590</v>
       </c>
       <c r="H31" t="s">
         <v>159</v>
@@ -2460,7 +3202,7 @@
         <v>180</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>405</v>
+        <v>591</v>
       </c>
       <c r="H32" t="s">
         <v>159</v>
@@ -2486,7 +3228,7 @@
         <v>186</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H33" t="s">
         <v>159</v>
@@ -2512,7 +3254,7 @@
         <v>192</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H34" t="s">
         <v>159</v>
@@ -2538,7 +3280,7 @@
         <v>195</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H35" t="s">
         <v>159</v>
@@ -2564,7 +3306,7 @@
         <v>199</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>405</v>
+        <v>592</v>
       </c>
       <c r="H36" t="s">
         <v>159</v>
@@ -2590,7 +3332,7 @@
         <v>207</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>405</v>
+        <v>593</v>
       </c>
       <c r="H37" t="s">
         <v>159</v>
@@ -2616,7 +3358,7 @@
         <v>210</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>405</v>
+        <v>594</v>
       </c>
       <c r="H38" t="s">
         <v>159</v>
@@ -2642,7 +3384,7 @@
         <v>218</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>405</v>
+        <v>595</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>159</v>
@@ -2668,7 +3410,7 @@
         <v>224</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>405</v>
+        <v>596</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>159</v>
@@ -2693,9 +3435,7 @@
       <c r="F41" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G41" s="1" t="s">
-        <v>405</v>
-      </c>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
         <v>159</v>
       </c>
@@ -2720,7 +3460,7 @@
         <v>234</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>405</v>
+        <v>597</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>159</v>
@@ -2746,7 +3486,7 @@
         <v>239</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>405</v>
+        <v>598</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>159</v>
@@ -2766,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>159</v>
@@ -2786,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>159</v>
@@ -2812,7 +3552,7 @@
         <v>246</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>405</v>
+        <v>599</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>159</v>
@@ -2838,7 +3578,7 @@
         <v>252</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>405</v>
+        <v>600</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>159</v>
@@ -2864,7 +3604,7 @@
         <v>250</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>405</v>
+        <v>601</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>159</v>
@@ -2890,7 +3630,7 @@
         <v>254</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>405</v>
+        <v>602</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>159</v>
@@ -2916,7 +3656,7 @@
         <v>251</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>405</v>
+        <v>603</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>159</v>
@@ -2942,7 +3682,7 @@
         <v>266</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>405</v>
+        <v>604</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>261</v>
@@ -2968,7 +3708,7 @@
         <v>269</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>405</v>
+        <v>605</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>261</v>
@@ -2994,7 +3734,7 @@
         <v>273</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>405</v>
+        <v>606</v>
       </c>
       <c r="H53" t="s">
         <v>261</v>
@@ -3020,7 +3760,7 @@
         <v>281</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H54" t="s">
         <v>261</v>
@@ -3040,7 +3780,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H55" t="s">
         <v>261</v>
@@ -3066,7 +3806,7 @@
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H56" t="s">
         <v>261</v>
@@ -3092,7 +3832,7 @@
         <v>285</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>405</v>
+        <v>607</v>
       </c>
       <c r="H57" t="s">
         <v>261</v>
@@ -3112,7 +3852,7 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H58" t="s">
         <v>261</v>
@@ -3138,7 +3878,7 @@
         <v>293</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>405</v>
+        <v>608</v>
       </c>
       <c r="H59" t="s">
         <v>261</v>
@@ -3158,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H60" t="s">
         <v>261</v>
@@ -3184,7 +3924,7 @@
         <v>298</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>405</v>
+        <v>609</v>
       </c>
       <c r="H61" t="s">
         <v>261</v>
@@ -3210,7 +3950,7 @@
         <v>298</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>405</v>
+        <v>609</v>
       </c>
       <c r="H62" t="s">
         <v>261</v>
@@ -3236,7 +3976,7 @@
         <v>304</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H63" t="s">
         <v>261</v>
@@ -3262,7 +4002,7 @@
         <v>308</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H64" t="s">
         <v>261</v>
@@ -3288,7 +4028,7 @@
         <v>314</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H65" t="s">
         <v>261</v>
@@ -3314,7 +4054,7 @@
         <v>322</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H66" t="s">
         <v>261</v>
@@ -3334,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H67" t="s">
         <v>261</v>
@@ -3360,7 +4100,7 @@
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H68" t="s">
         <v>261</v>
@@ -3386,7 +4126,7 @@
         <v>5060</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H69" t="s">
         <v>261</v>
@@ -3406,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H70" t="s">
         <v>261</v>
@@ -3432,7 +4172,7 @@
         <v>329</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H71" t="s">
         <v>261</v>
@@ -3458,7 +4198,7 @@
         <v>5005</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H72" t="s">
         <v>261</v>
@@ -3484,7 +4224,7 @@
         <v>330</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H73" t="s">
         <v>261</v>
@@ -3504,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H74" t="s">
         <v>261</v>
@@ -3524,7 +4264,7 @@
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H75" t="s">
         <v>261</v>
@@ -3550,7 +4290,7 @@
         <v>339</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H76" t="s">
         <v>261</v>
@@ -3576,7 +4316,7 @@
         <v>161</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H77" t="s">
         <v>261</v>
@@ -3602,7 +4342,7 @@
         <v>298</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>405</v>
+        <v>609</v>
       </c>
       <c r="H78" t="s">
         <v>261</v>
@@ -3628,7 +4368,7 @@
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H79" t="s">
         <v>261</v>
@@ -3654,7 +4394,7 @@
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H80" t="s">
         <v>261</v>
@@ -3680,7 +4420,7 @@
         <v>53</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H81" t="s">
         <v>261</v>
@@ -3706,7 +4446,7 @@
         <v>346</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>405</v>
+        <v>610</v>
       </c>
       <c r="H82" t="s">
         <v>261</v>
@@ -3732,7 +4472,7 @@
         <v>293</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>405</v>
+        <v>608</v>
       </c>
       <c r="H83" t="s">
         <v>261</v>
@@ -3758,7 +4498,7 @@
         <v>353</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>405</v>
+        <v>611</v>
       </c>
       <c r="H84" t="s">
         <v>261</v>
@@ -3784,7 +4524,7 @@
         <v>3389</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H85" t="s">
         <v>261</v>
@@ -3804,7 +4544,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H86" t="s">
         <v>261</v>
@@ -3830,7 +4570,7 @@
         <v>360</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H87" t="s">
         <v>261</v>
@@ -3856,7 +4596,7 @@
         <v>362</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H88" t="s">
         <v>261</v>
@@ -3882,7 +4622,7 @@
         <v>371</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>405</v>
+        <v>612</v>
       </c>
       <c r="H89" t="s">
         <v>261</v>
@@ -3908,7 +4648,7 @@
         <v>11000000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H90" t="s">
         <v>261</v>
@@ -3934,7 +4674,7 @@
         <v>374</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H91" t="s">
         <v>261</v>
@@ -3960,7 +4700,7 @@
         <v>172</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H92" t="s">
         <v>261</v>
@@ -3986,7 +4726,7 @@
         <v>380</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H93" t="s">
         <v>261</v>
@@ -4012,7 +4752,7 @@
         <v>387</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H94" t="s">
         <v>261</v>
@@ -4038,7 +4778,7 @@
         <v>385</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H95" t="s">
         <v>261</v>
@@ -4058,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H96" t="s">
         <v>261</v>
@@ -4081,7 +4821,7 @@
         <v>395</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>405</v>
+        <v>585</v>
       </c>
       <c r="H97" t="s">
         <v>261</v>
@@ -4107,7 +4847,7 @@
         <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>405</v>
+        <v>613</v>
       </c>
       <c r="H98" t="s">
         <v>261</v>
@@ -4133,7 +4873,7 @@
         <v>399</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>405</v>
+        <v>614</v>
       </c>
       <c r="H99" t="s">
         <v>261</v>
@@ -4159,10 +4899,1274 @@
         <v>404</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>405</v>
+        <v>615</v>
       </c>
       <c r="H100" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>405</v>
+      </c>
+      <c r="B101" t="s">
+        <v>406</v>
+      </c>
+      <c r="C101" t="s">
+        <v>407</v>
+      </c>
+      <c r="D101" t="s">
+        <v>408</v>
+      </c>
+      <c r="E101" t="s">
+        <v>409</v>
+      </c>
+      <c r="F101" t="s">
+        <v>407</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H101" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>411</v>
+      </c>
+      <c r="B102" t="s">
+        <v>412</v>
+      </c>
+      <c r="C102" t="s">
+        <v>413</v>
+      </c>
+      <c r="D102" t="s">
+        <v>414</v>
+      </c>
+      <c r="E102" t="s">
+        <v>415</v>
+      </c>
+      <c r="F102" t="s">
+        <v>415</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H102" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>416</v>
+      </c>
+      <c r="B103" t="s">
+        <v>308</v>
+      </c>
+      <c r="C103" t="s">
+        <v>417</v>
+      </c>
+      <c r="D103" t="s">
+        <v>418</v>
+      </c>
+      <c r="E103" t="s">
+        <v>419</v>
+      </c>
+      <c r="F103" t="s">
+        <v>417</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H103" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>420</v>
+      </c>
+      <c r="B104" t="s">
+        <v>421</v>
+      </c>
+      <c r="C104" t="s">
+        <v>422</v>
+      </c>
+      <c r="D104" t="s">
+        <v>407</v>
+      </c>
+      <c r="E104" t="s">
+        <v>423</v>
+      </c>
+      <c r="F104" t="s">
+        <v>424</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H104" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>425</v>
+      </c>
+      <c r="B105" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="b">
+        <v>1</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H105" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>426</v>
+      </c>
+      <c r="B106" t="s">
+        <v>427</v>
+      </c>
+      <c r="C106" t="s">
+        <v>428</v>
+      </c>
+      <c r="D106" t="s">
+        <v>429</v>
+      </c>
+      <c r="E106" t="s">
+        <v>430</v>
+      </c>
+      <c r="F106" t="s">
+        <v>428</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="H106" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>431</v>
+      </c>
+      <c r="B107" t="s">
+        <v>432</v>
+      </c>
+      <c r="C107" t="s">
+        <v>414</v>
+      </c>
+      <c r="D107" t="s">
+        <v>407</v>
+      </c>
+      <c r="E107" t="s">
+        <v>422</v>
+      </c>
+      <c r="F107" t="s">
+        <v>422</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H107" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>433</v>
+      </c>
+      <c r="B108" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="b">
+        <v>1</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H108" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>434</v>
+      </c>
+      <c r="B109" t="s">
+        <v>435</v>
+      </c>
+      <c r="C109" t="s">
+        <v>436</v>
+      </c>
+      <c r="D109" t="s">
+        <v>437</v>
+      </c>
+      <c r="E109" t="s">
+        <v>438</v>
+      </c>
+      <c r="F109" t="s">
+        <v>435</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="H109" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>439</v>
+      </c>
+      <c r="B110" t="s">
+        <v>440</v>
+      </c>
+      <c r="C110" t="s">
+        <v>441</v>
+      </c>
+      <c r="D110" t="s">
+        <v>442</v>
+      </c>
+      <c r="E110" t="s">
+        <v>443</v>
+      </c>
+      <c r="F110" t="s">
+        <v>441</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="H110" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>444</v>
+      </c>
+      <c r="B111" t="s">
+        <v>445</v>
+      </c>
+      <c r="C111" t="s">
+        <v>446</v>
+      </c>
+      <c r="D111" t="s">
+        <v>447</v>
+      </c>
+      <c r="E111" t="s">
+        <v>448</v>
+      </c>
+      <c r="F111" t="s">
+        <v>445</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H111" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>449</v>
+      </c>
+      <c r="B112" t="s">
+        <v>450</v>
+      </c>
+      <c r="C112" t="s">
+        <v>451</v>
+      </c>
+      <c r="D112" t="s">
+        <v>452</v>
+      </c>
+      <c r="E112" t="s">
+        <v>453</v>
+      </c>
+      <c r="F112" t="s">
+        <v>452</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="H112" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>454</v>
+      </c>
+      <c r="B113" t="s">
+        <v>455</v>
+      </c>
+      <c r="C113" t="s">
+        <v>456</v>
+      </c>
+      <c r="D113" t="s">
+        <v>457</v>
+      </c>
+      <c r="E113" t="s">
+        <v>458</v>
+      </c>
+      <c r="F113" t="s">
+        <v>456</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="H113" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>459</v>
+      </c>
+      <c r="B114" t="s">
+        <v>432</v>
+      </c>
+      <c r="C114" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" t="s">
+        <v>460</v>
+      </c>
+      <c r="E114" t="s">
+        <v>461</v>
+      </c>
+      <c r="F114" t="s">
+        <v>432</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="H114" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>462</v>
+      </c>
+      <c r="B115" t="s">
+        <v>463</v>
+      </c>
+      <c r="C115" t="s">
+        <v>464</v>
+      </c>
+      <c r="D115" t="s">
+        <v>465</v>
+      </c>
+      <c r="E115" t="s">
+        <v>466</v>
+      </c>
+      <c r="F115" t="s">
+        <v>466</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="H115" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>467</v>
+      </c>
+      <c r="B116" t="s">
+        <v>468</v>
+      </c>
+      <c r="C116" t="s">
+        <v>469</v>
+      </c>
+      <c r="D116" t="s">
+        <v>470</v>
+      </c>
+      <c r="E116" t="s">
+        <v>471</v>
+      </c>
+      <c r="F116" t="s">
+        <v>470</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="H116" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>472</v>
+      </c>
+      <c r="B117" t="s">
+        <v>473</v>
+      </c>
+      <c r="C117" t="s">
+        <v>474</v>
+      </c>
+      <c r="D117" t="s">
+        <v>475</v>
+      </c>
+      <c r="E117" t="s">
+        <v>476</v>
+      </c>
+      <c r="F117" t="s">
+        <v>474</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H117" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>477</v>
+      </c>
+      <c r="B118" t="s">
+        <v>478</v>
+      </c>
+      <c r="C118" t="s">
+        <v>479</v>
+      </c>
+      <c r="D118" t="s">
+        <v>480</v>
+      </c>
+      <c r="E118" t="s">
+        <v>481</v>
+      </c>
+      <c r="F118" t="s">
+        <v>481</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H118" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>482</v>
+      </c>
+      <c r="B119" t="s">
+        <v>483</v>
+      </c>
+      <c r="C119" t="s">
+        <v>423</v>
+      </c>
+      <c r="D119" t="s">
+        <v>484</v>
+      </c>
+      <c r="E119" t="s">
+        <v>407</v>
+      </c>
+      <c r="F119" t="s">
+        <v>485</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="H119" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>486</v>
+      </c>
+      <c r="B120" t="s">
+        <v>487</v>
+      </c>
+      <c r="C120" t="s">
+        <v>488</v>
+      </c>
+      <c r="D120" t="s">
+        <v>451</v>
+      </c>
+      <c r="E120" t="s">
+        <v>489</v>
+      </c>
+      <c r="F120" t="s">
+        <v>451</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="H120" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>490</v>
+      </c>
+      <c r="B121" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="b">
+        <v>1</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H121" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>491</v>
+      </c>
+      <c r="B122" t="s">
+        <v>492</v>
+      </c>
+      <c r="C122" t="s">
+        <v>493</v>
+      </c>
+      <c r="D122" t="s">
+        <v>494</v>
+      </c>
+      <c r="E122" t="s">
+        <v>495</v>
+      </c>
+      <c r="F122" t="s">
+        <v>493</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="H122" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>496</v>
+      </c>
+      <c r="B123" t="s">
+        <v>152</v>
+      </c>
+      <c r="C123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="b">
+        <v>0</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H123" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>497</v>
+      </c>
+      <c r="B124" t="s">
+        <v>498</v>
+      </c>
+      <c r="C124" t="s">
+        <v>499</v>
+      </c>
+      <c r="D124" t="s">
+        <v>500</v>
+      </c>
+      <c r="E124" t="s">
+        <v>501</v>
+      </c>
+      <c r="F124" t="s">
+        <v>502</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H124" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>503</v>
+      </c>
+      <c r="B125" t="s">
+        <v>504</v>
+      </c>
+      <c r="C125" t="s">
+        <v>505</v>
+      </c>
+      <c r="D125" t="s">
+        <v>506</v>
+      </c>
+      <c r="E125" t="s">
+        <v>507</v>
+      </c>
+      <c r="F125" t="s">
+        <v>508</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H125" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>509</v>
+      </c>
+      <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" t="s">
+        <v>275</v>
+      </c>
+      <c r="D126" t="s">
+        <v>510</v>
+      </c>
+      <c r="E126" t="s">
+        <v>273</v>
+      </c>
+      <c r="F126" t="s">
+        <v>409</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="H126" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>511</v>
+      </c>
+      <c r="B127" t="s">
+        <v>512</v>
+      </c>
+      <c r="C127" t="s">
+        <v>513</v>
+      </c>
+      <c r="D127" t="s">
+        <v>514</v>
+      </c>
+      <c r="E127" t="s">
+        <v>515</v>
+      </c>
+      <c r="F127" t="s">
+        <v>514</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H127" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>516</v>
+      </c>
+      <c r="B128" t="s">
+        <v>274</v>
+      </c>
+      <c r="C128" t="s">
+        <v>517</v>
+      </c>
+      <c r="D128" t="s">
+        <v>510</v>
+      </c>
+      <c r="E128" t="s">
+        <v>518</v>
+      </c>
+      <c r="F128" t="s">
+        <v>517</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="H128" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>519</v>
+      </c>
+      <c r="B129" t="s">
+        <v>520</v>
+      </c>
+      <c r="C129" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" t="s">
+        <v>521</v>
+      </c>
+      <c r="E129" t="s">
+        <v>275</v>
+      </c>
+      <c r="F129" t="s">
+        <v>275</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="H129" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>522</v>
+      </c>
+      <c r="B130" t="s">
+        <v>523</v>
+      </c>
+      <c r="C130" t="s">
+        <v>275</v>
+      </c>
+      <c r="D130" t="s">
+        <v>520</v>
+      </c>
+      <c r="E130" t="s">
+        <v>274</v>
+      </c>
+      <c r="F130" t="s">
+        <v>523</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H130" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>524</v>
+      </c>
+      <c r="B131" t="s">
+        <v>525</v>
+      </c>
+      <c r="C131" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" t="s">
+        <v>526</v>
+      </c>
+      <c r="E131" t="s">
+        <v>527</v>
+      </c>
+      <c r="F131" t="s">
+        <v>526</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="H131" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>528</v>
+      </c>
+      <c r="B132" t="s">
+        <v>529</v>
+      </c>
+      <c r="C132" t="s">
+        <v>530</v>
+      </c>
+      <c r="D132" t="s">
+        <v>531</v>
+      </c>
+      <c r="E132" t="s">
+        <v>532</v>
+      </c>
+      <c r="F132" t="s">
+        <v>530</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H132" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>533</v>
+      </c>
+      <c r="B133" t="s">
+        <v>430</v>
+      </c>
+      <c r="C133" t="s">
+        <v>534</v>
+      </c>
+      <c r="D133" t="s">
+        <v>535</v>
+      </c>
+      <c r="E133" t="s">
+        <v>536</v>
+      </c>
+      <c r="F133" t="s">
+        <v>535</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="H133" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>537</v>
+      </c>
+      <c r="B134" t="s">
+        <v>538</v>
+      </c>
+      <c r="C134" t="s">
+        <v>535</v>
+      </c>
+      <c r="D134" t="s">
+        <v>523</v>
+      </c>
+      <c r="E134" t="s">
+        <v>430</v>
+      </c>
+      <c r="F134" t="s">
+        <v>430</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="H134" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>539</v>
+      </c>
+      <c r="B135" t="s">
+        <v>520</v>
+      </c>
+      <c r="C135" t="s">
+        <v>540</v>
+      </c>
+      <c r="D135" t="s">
+        <v>523</v>
+      </c>
+      <c r="E135" t="s">
+        <v>541</v>
+      </c>
+      <c r="F135" t="s">
+        <v>520</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="H135" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>542</v>
+      </c>
+      <c r="B136" t="s">
+        <v>543</v>
+      </c>
+      <c r="C136" t="s">
+        <v>534</v>
+      </c>
+      <c r="D136" t="s">
+        <v>544</v>
+      </c>
+      <c r="E136" t="s">
+        <v>545</v>
+      </c>
+      <c r="F136" t="s">
+        <v>534</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="H136" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>546</v>
+      </c>
+      <c r="B137" t="s">
+        <v>526</v>
+      </c>
+      <c r="C137" t="s">
+        <v>274</v>
+      </c>
+      <c r="D137" t="s">
+        <v>525</v>
+      </c>
+      <c r="E137" t="s">
+        <v>275</v>
+      </c>
+      <c r="F137" t="s">
+        <v>525</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="H137" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>547</v>
+      </c>
+      <c r="B138" t="s">
+        <v>548</v>
+      </c>
+      <c r="C138" t="s">
+        <v>549</v>
+      </c>
+      <c r="D138" t="s">
+        <v>550</v>
+      </c>
+      <c r="E138" t="s">
+        <v>551</v>
+      </c>
+      <c r="F138" t="s">
+        <v>549</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="H138" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>552</v>
+      </c>
+      <c r="B139" t="s">
+        <v>541</v>
+      </c>
+      <c r="C139" t="s">
+        <v>535</v>
+      </c>
+      <c r="D139" t="s">
+        <v>553</v>
+      </c>
+      <c r="E139" t="s">
+        <v>430</v>
+      </c>
+      <c r="F139" t="s">
+        <v>541</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H139" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>554</v>
+      </c>
+      <c r="B140" t="s">
+        <v>263</v>
+      </c>
+      <c r="C140" t="s">
+        <v>264</v>
+      </c>
+      <c r="D140" t="s">
+        <v>265</v>
+      </c>
+      <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
+        <v>266</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="H140" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>555</v>
+      </c>
+      <c r="B141" t="s">
+        <v>152</v>
+      </c>
+      <c r="C141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H141" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>556</v>
+      </c>
+      <c r="B142" t="s">
+        <v>551</v>
+      </c>
+      <c r="C142" t="s">
+        <v>557</v>
+      </c>
+      <c r="D142" t="s">
+        <v>430</v>
+      </c>
+      <c r="E142" t="s">
+        <v>558</v>
+      </c>
+      <c r="F142" t="s">
+        <v>551</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="H142" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>559</v>
+      </c>
+      <c r="B143" t="s">
+        <v>308</v>
+      </c>
+      <c r="C143" t="s">
+        <v>560</v>
+      </c>
+      <c r="D143" t="s">
+        <v>309</v>
+      </c>
+      <c r="E143" t="s">
+        <v>310</v>
+      </c>
+      <c r="F143" t="s">
+        <v>308</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="H143" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>561</v>
+      </c>
+      <c r="B144" t="s">
+        <v>562</v>
+      </c>
+      <c r="C144" t="s">
+        <v>563</v>
+      </c>
+      <c r="D144" t="s">
+        <v>564</v>
+      </c>
+      <c r="E144" t="s">
+        <v>565</v>
+      </c>
+      <c r="F144" t="s">
+        <v>564</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="H144" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>566</v>
+      </c>
+      <c r="B145" t="s">
+        <v>504</v>
+      </c>
+      <c r="C145" t="s">
+        <v>505</v>
+      </c>
+      <c r="D145" t="s">
+        <v>506</v>
+      </c>
+      <c r="E145" t="s">
+        <v>507</v>
+      </c>
+      <c r="F145" t="s">
+        <v>508</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H145" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>567</v>
+      </c>
+      <c r="B146" t="s">
+        <v>568</v>
+      </c>
+      <c r="C146" t="s">
+        <v>569</v>
+      </c>
+      <c r="D146" t="s">
+        <v>570</v>
+      </c>
+      <c r="E146" t="s">
+        <v>571</v>
+      </c>
+      <c r="F146" t="s">
+        <v>572</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="H146" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>573</v>
+      </c>
+      <c r="B147" t="s">
+        <v>574</v>
+      </c>
+      <c r="C147" t="s">
+        <v>575</v>
+      </c>
+      <c r="D147" t="s">
+        <v>576</v>
+      </c>
+      <c r="E147" t="s">
+        <v>577</v>
+      </c>
+      <c r="F147" t="s">
+        <v>575</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="H147" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>578</v>
+      </c>
+      <c r="B148" t="s">
+        <v>498</v>
+      </c>
+      <c r="C148" t="s">
+        <v>499</v>
+      </c>
+      <c r="D148" t="s">
+        <v>500</v>
+      </c>
+      <c r="E148" t="s">
+        <v>501</v>
+      </c>
+      <c r="F148" t="s">
+        <v>500</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H148" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>579</v>
+      </c>
+      <c r="B149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H149" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>580</v>
+      </c>
+      <c r="B150" t="s">
+        <v>581</v>
+      </c>
+      <c r="C150" t="s">
+        <v>582</v>
+      </c>
+      <c r="D150" t="s">
+        <v>583</v>
+      </c>
+      <c r="E150" t="s">
+        <v>584</v>
+      </c>
+      <c r="F150" t="s">
+        <v>583</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="H150" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="651">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -511,15 +511,6 @@
     <t>in modern PCs, the procedure of replacing BIOS contents is sometimes refered to as:</t>
   </si>
   <si>
-    <t>hard boot</t>
-  </si>
-  <si>
-    <t>overclock</t>
-  </si>
-  <si>
-    <t>flashing the BIOS</t>
-  </si>
-  <si>
     <t>Direct memory access DMA</t>
   </si>
   <si>
@@ -613,15 +604,9 @@
     <t>After launching Windows Virtual PC application technician recives error message stating that the Hardware-Assisted Virtualization(HAV) feature is not enabled on the computer. Which of the folowing steps might help in fixing this problem?</t>
   </si>
   <si>
-    <t>increasing the amount of phisical RAM on the system</t>
-  </si>
-  <si>
     <t>Re-instlling Windows Virtual PC app</t>
   </si>
   <si>
-    <t xml:space="preserve">getting into the CMOS setup utility and enabling the virtualization technology setting </t>
-  </si>
-  <si>
     <t>Safe Mode troubleshooting</t>
   </si>
   <si>
@@ -1006,12 +991,6 @@
     <t>Repositories</t>
   </si>
   <si>
-    <t xml:space="preserve">signature files </t>
-  </si>
-  <si>
-    <t>macros</t>
-  </si>
-  <si>
     <t>Security logs</t>
   </si>
   <si>
@@ -1088,9 +1067,6 @@
   </si>
   <si>
     <t>Bootstrap Protocol(BOOTP)</t>
-  </si>
-  <si>
-    <t>remote authentication Dial in user service (RADIUS)</t>
   </si>
   <si>
     <t>Simple Network Management Protocol SNMP</t>
@@ -2004,6 +1980,27 @@
   </si>
   <si>
     <t>These functions are categorized into cryptographic hash functions and provably secure hash functions. ... Collision resistance is accomplished in part by generating very large hash values. For example, SHA-1, one of the most widely used cryptographic hash functions, generates 160 bit values.</t>
+  </si>
+  <si>
+    <t>Macros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signature files </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting into the CMOS setup utility and enabling the virtualization technology setting </t>
+  </si>
+  <si>
+    <t>Increasing the amount of phisical RAM on the system</t>
+  </si>
+  <si>
+    <t>Overclock</t>
+  </si>
+  <si>
+    <t>Hard boot</t>
+  </si>
+  <si>
+    <t>Remote authentication Dial in user service (RADIUS)</t>
   </si>
 </sst>
 </file>
@@ -2377,8 +2374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E130" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="B137" workbookViewId="0">
+      <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,10 +3049,10 @@
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="H26" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -3063,56 +3060,56 @@
         <v>153</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H27" t="s">
         <v>156</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="H27" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="H28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>152</v>
@@ -3124,50 +3121,50 @@
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="H30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
@@ -3176,325 +3173,325 @@
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="H31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="G32" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="H32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>192</v>
-      </c>
       <c r="G34" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="H38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>152</v>
@@ -3506,15 +3503,15 @@
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>152</v>
@@ -3526,249 +3523,249 @@
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="H53" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="F54" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H54" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>152</v>
@@ -3780,15 +3777,15 @@
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H55" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B56">
         <v>49</v>
@@ -3806,41 +3803,41 @@
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H56" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="H57" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>152</v>
@@ -3852,41 +3849,41 @@
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H58" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C59" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D59" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E59" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F59" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H59" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>152</v>
@@ -3898,171 +3895,171 @@
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H60" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D61" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E61" t="s">
+        <v>288</v>
+      </c>
+      <c r="F61" t="s">
         <v>293</v>
       </c>
-      <c r="F61" t="s">
-        <v>298</v>
-      </c>
       <c r="G61" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="H61" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C62" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D62" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E62" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="F62" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="H62" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D63" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E63" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F63" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H63" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C64" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E64" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F64" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H64" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C65" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D65" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E65" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F65" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H65" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C66" t="s">
-        <v>319</v>
+        <v>645</v>
       </c>
       <c r="D66" t="s">
-        <v>320</v>
+        <v>644</v>
       </c>
       <c r="E66" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F66" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H66" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>152</v>
@@ -4074,15 +4071,15 @@
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H67" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B68">
         <v>110</v>
@@ -4100,15 +4097,15 @@
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H68" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B69">
         <v>5004</v>
@@ -4126,15 +4123,15 @@
         <v>5060</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H69" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>152</v>
@@ -4146,41 +4143,41 @@
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H70" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C71" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="D71" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E71" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F71" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H71" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B72">
         <v>5004</v>
@@ -4198,41 +4195,41 @@
         <v>5005</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H72" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B73" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="D73" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E73" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F73" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H73" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s">
         <v>152</v>
@@ -4244,15 +4241,15 @@
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H74" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
         <v>152</v>
@@ -4264,41 +4261,41 @@
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H75" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="C76" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D76" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E76" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F76" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H76" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B77">
         <v>161</v>
@@ -4316,41 +4313,41 @@
         <v>161</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H77" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B78" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C78" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D78" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E78" t="s">
+        <v>288</v>
+      </c>
+      <c r="F78" t="s">
         <v>293</v>
       </c>
-      <c r="F78" t="s">
-        <v>298</v>
-      </c>
       <c r="G78" s="1" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="H78" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B79">
         <v>49</v>
@@ -4368,15 +4365,15 @@
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H79" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B80">
         <v>20</v>
@@ -4394,15 +4391,15 @@
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H80" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B81">
         <v>139</v>
@@ -4420,93 +4417,93 @@
         <v>53</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H81" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B82" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C82" t="s">
-        <v>347</v>
+        <v>650</v>
       </c>
       <c r="D82" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="E82" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F82" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="H82" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="B83" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C83" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D83" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E83" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F83" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="H83" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C84" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D84" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E84" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F84" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="H84" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B85">
         <v>1701</v>
@@ -4524,15 +4521,15 @@
         <v>3389</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H85" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B86" t="s">
         <v>152</v>
@@ -4544,93 +4541,93 @@
         <v>1</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H86" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B87" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C87" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D87" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="E87" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F87" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H87" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B88" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="D88" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E88" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="F88" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H88" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B89" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C89" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D89" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="E89" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F89" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="H89" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B90">
         <v>10101100</v>
@@ -4648,41 +4645,41 @@
         <v>11000000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H90" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B91" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C91" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D91" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E91" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F91" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H91" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B92">
         <v>168</v>
@@ -4700,93 +4697,93 @@
         <v>172</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H92" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B93" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C93" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D93" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E93" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F93" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H93" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B94" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C94" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D94" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="E94" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F94" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H94" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>375</v>
+      </c>
+      <c r="B95" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" t="s">
         <v>383</v>
       </c>
-      <c r="B95" t="s">
-        <v>384</v>
-      </c>
-      <c r="C95" t="s">
-        <v>391</v>
-      </c>
       <c r="D95" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="E95" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="F95" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H95" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B96" t="s">
         <v>152</v>
@@ -4798,41 +4795,41 @@
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H96" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B97" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="E97" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="F97" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H97" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B98" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C98" t="s">
         <v>46</v>
@@ -4847,171 +4844,171 @@
         <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="H98" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B99" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C99" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D99" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E99" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F99" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H99" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B100" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C100" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="D100" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="E100" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F100" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="H100" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B101" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C101" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D101" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E101" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F101" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="H101" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B102" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C102" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D102" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="E102" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F102" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H102" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B103" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="D103" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="E103" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="F103" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H103" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B104" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C104" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D104" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="E104" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="F104" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="H104" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B105" t="s">
         <v>152</v>
@@ -5023,67 +5020,67 @@
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H105" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B106" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C106" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="D106" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E106" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F106" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="H106" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B107" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C107" t="s">
+        <v>406</v>
+      </c>
+      <c r="D107" t="s">
+        <v>399</v>
+      </c>
+      <c r="E107" t="s">
         <v>414</v>
       </c>
-      <c r="D107" t="s">
-        <v>407</v>
-      </c>
-      <c r="E107" t="s">
-        <v>422</v>
-      </c>
       <c r="F107" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="H107" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B108" t="s">
         <v>152</v>
@@ -5095,327 +5092,327 @@
         <v>1</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H108" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B109" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C109" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D109" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E109" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="F109" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="H109" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="B110" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C110" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="D110" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="E110" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="F110" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H110" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B111" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C111" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D111" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E111" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F111" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="H111" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="B112" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C112" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D112" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="E112" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F112" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="H112" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B113" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C113" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="D113" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="E113" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="F113" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H113" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B114" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C114" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D114" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="E114" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F114" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="H114" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B115" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C115" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D115" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="E115" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="F115" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="H115" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B116" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C116" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D116" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E116" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F116" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="H116" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B117" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C117" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D117" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E117" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="F117" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="H117" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B118" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C118" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E118" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F118" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="H118" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="B119" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C119" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D119" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="E119" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="F119" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="H119" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B120" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C120" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D120" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E120" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F120" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="H120" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B121" t="s">
         <v>152</v>
@@ -5427,41 +5424,41 @@
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H121" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B122" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C122" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D122" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E122" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F122" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H122" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B123" t="s">
         <v>152</v>
@@ -5473,457 +5470,457 @@
         <v>0</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H123" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="B124" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C124" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D124" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E124" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F124" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H124" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B125" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C125" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D125" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E125" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F125" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H125" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="B126" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C126" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D126" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E126" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F126" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="H126" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B127" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C127" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="D127" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="E127" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="F127" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H127" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="B128" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D128" t="s">
+        <v>502</v>
+      </c>
+      <c r="E128" t="s">
         <v>510</v>
       </c>
-      <c r="E128" t="s">
-        <v>518</v>
-      </c>
       <c r="F128" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="H128" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="B129" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C129" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D129" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="E129" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F129" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="H129" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="B130" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C130" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D130" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="E130" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F130" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="H130" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B131" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C131" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D131" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E131" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F131" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="H131" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B132" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C132" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D132" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="E132" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="F132" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H132" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B133" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C133" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D133" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E133" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F133" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="H133" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B134" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C134" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D134" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E134" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F134" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H134" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B135" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C135" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D135" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E135" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F135" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H135" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B136" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C136" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D136" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="E136" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F136" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="H136" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="B137" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C137" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D137" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="E137" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F137" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="H137" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B138" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C138" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D138" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E138" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F138" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="H138" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="B139" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C139" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="D139" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="E139" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="F139" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="H139" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B140" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C140" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D140" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="E140" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="F140" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="H140" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B141" t="s">
         <v>152</v>
@@ -5935,197 +5932,197 @@
         <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H141" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B142" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C142" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D142" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="E142" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="F142" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="H142" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C143" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D143" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E143" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F143" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="H143" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="B144" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C144" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D144" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="E144" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F144" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="H144" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="B145" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C145" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D145" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="E145" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="F145" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H145" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="B146" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C146" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="D146" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="E146" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F146" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H146" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="B147" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C147" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="D147" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="E147" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F147" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="H147" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B148" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C148" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D148" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="E148" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="F148" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H148" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B149" t="s">
         <v>152</v>
@@ -6137,36 +6134,36 @@
         <v>1</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H149" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="B150" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C150" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="D150" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="E150" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F150" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="H150" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\PTAlso\PTA\PTA\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\pta\PTA\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="653">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -479,9 +479,6 @@
     <t xml:space="preserve">Light Emitting Diode(LED) or Liquid Crystal Displays (LCD) screens are much better at displacing glare than the other technolgy combinations. </t>
   </si>
   <si>
-    <t>in modern PCs, the procedure of replacing BIOS contents is sometimes refered to as:</t>
-  </si>
-  <si>
     <t>Direct memory access DMA</t>
   </si>
   <si>
@@ -491,27 +488,15 @@
     <t>A+S</t>
   </si>
   <si>
-    <t>which Microsoft Windows OS utility can be used to view basic information about computers BIOS</t>
-  </si>
-  <si>
     <t>WINVER&gt;EXE</t>
   </si>
   <si>
     <t>MSINFO32.EXE</t>
   </si>
   <si>
-    <t>controle panel</t>
-  </si>
-  <si>
     <t>SERVICES.MSC</t>
   </si>
   <si>
-    <t>power failure during BIOS upgrade can be the cause of irreversible damage to the computer system</t>
-  </si>
-  <si>
-    <t>after normal system shutdown, when the computer is turned off, contents of the memory used to store BIOS setting are:</t>
-  </si>
-  <si>
     <t>Erased</t>
   </si>
   <si>
@@ -527,18 +512,12 @@
     <t>Rettained</t>
   </si>
   <si>
-    <t>which of the acronyms listed below refers to a series of basic hardware diagnostic test performed by the BIOS after the computer is powered on?</t>
-  </si>
-  <si>
     <t>IDE</t>
   </si>
   <si>
     <t>Qos</t>
   </si>
   <si>
-    <t>after completing the initial diagnostics and assigning system resources, the startup Bios program checks for information about secondary storage devices that might contain the OS.  The list of devices and the order in which they should be checked can be found and arranged in th CMOS setu utility, and this option is commonly refered to as:</t>
-  </si>
-  <si>
     <t>boot record</t>
   </si>
   <si>
@@ -554,9 +533,6 @@
     <t>Boot sequence</t>
   </si>
   <si>
-    <t>in order to work, an integrated component such as Network Interface Card(NIC) on a newly assembled computer system may need to be first</t>
-  </si>
-  <si>
     <t>Enabled in Windows Controle Panel</t>
   </si>
   <si>
@@ -584,9 +560,6 @@
     <t xml:space="preserve">Getting the CMOS setup utility and Enabling the virtualization technology setting </t>
   </si>
   <si>
-    <t>the CMOS setup utility can be accessed by pressing:</t>
-  </si>
-  <si>
     <t>Reset button on the front panel of the computer case</t>
   </si>
   <si>
@@ -614,42 +587,15 @@
     <t>Which of the folowing statements is true</t>
   </si>
   <si>
-    <t xml:space="preserve">aborted BIOS update can be resumed by the transaction recovery system </t>
-  </si>
-  <si>
-    <t>a common securtiy measure is to store BIOS on a non-rewriteable memory chip</t>
-  </si>
-  <si>
-    <t>the process of BIOS update can be aborted and resumed at a later time</t>
-  </si>
-  <si>
     <t>Aborted BIOS update could render the computer unusable</t>
   </si>
   <si>
     <t>aborted BIOS update could render the computer unusable</t>
   </si>
   <si>
-    <t>which type of password provides the hightst level of permissions in BIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root </t>
-  </si>
-  <si>
     <t>supervisor</t>
   </si>
   <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>power user</t>
-  </si>
-  <si>
-    <t>what is LoJack?</t>
-  </si>
-  <si>
-    <t>loopback adapter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secutity feature used for locating stolen desktops, laptops, or tablets </t>
   </si>
   <si>
@@ -662,9 +608,6 @@
     <t xml:space="preserve">Security feature used for locating stolen Desktops, laptops, or tablets </t>
   </si>
   <si>
-    <t>which of the folowing terms refer to a tech that allows for storing passwords, certificates, or encryption keys in a hardware chip?</t>
-  </si>
-  <si>
     <t>Access Controle List (ACL)</t>
   </si>
   <si>
@@ -680,9 +623,6 @@
     <t>Trusted Platform Module(TPM)</t>
   </si>
   <si>
-    <t>while tryign to enable the entire drive encryption feature in windows technician receives the followling error message: "A compatible Trusted Platform Module(TPM) security Device must be present on this computer, but a TPM was not found." knowing that the system had a TPM chip installed, which of the folowing steps might help in solving this problem?</t>
-  </si>
-  <si>
     <t>Re-install OS</t>
   </si>
   <si>
@@ -731,12 +671,6 @@
     <t>Similarly to magnetic drives, Solid State-Drives (SSD) require periodic defragmentation in order to improve system performance.</t>
   </si>
   <si>
-    <t>a tiny sopt on the LCD monitor display screen that permanetly remains black when it should be activated and displaying color is commonly refered to as stuck pixel.</t>
-  </si>
-  <si>
-    <t>a permanent computer display screen discoloration caused by displaying the same static image for extended periods of time is known as:</t>
-  </si>
-  <si>
     <t>Artifact</t>
   </si>
   <si>
@@ -749,9 +683,6 @@
     <t>Dead pixel</t>
   </si>
   <si>
-    <t>which of the folowing command-line utilities allows to test the reachability of a host across an IP network</t>
-  </si>
-  <si>
     <t>NETSTAT</t>
   </si>
   <si>
@@ -770,9 +701,6 @@
     <t>IFCONFIG</t>
   </si>
   <si>
-    <t xml:space="preserve">which of the folowing command-line prompt tools listed below allows to display IP addresses, subnet mask, and default gateway for all adaptors? </t>
-  </si>
-  <si>
     <t>A Linux comand-line utility used for displaying and modifying network interface configuration settings is called</t>
   </si>
   <si>
@@ -791,9 +719,6 @@
     <t>N+</t>
   </si>
   <si>
-    <t>which of the folowing is an example of active eavesdropping</t>
-  </si>
-  <si>
     <t>Phishing</t>
   </si>
   <si>
@@ -845,21 +770,9 @@
     <t>Packed software</t>
   </si>
   <si>
-    <t>well known vulberability</t>
-  </si>
-  <si>
     <t>Vulnerability that is present in already released software but unknown to the software developer</t>
   </si>
   <si>
-    <t>one of the measures for securing network devices includes the practice of disabling unsused ports.</t>
-  </si>
-  <si>
-    <t>a hacker has captured network traffic with cleartext commands sent from the client to the server console. Which of the following ports is being used by the network admin for the client-server communication?</t>
-  </si>
-  <si>
-    <t>which of the folowing answers refers to preferred replacement for SLIP protocol</t>
-  </si>
-  <si>
     <t>PPP</t>
   </si>
   <si>
@@ -875,9 +788,6 @@
     <t>FTPS is an extension to the Secure Shell Protocol (SSH) and runs by default on port number 22</t>
   </si>
   <si>
-    <t>which of the following protocols does not provide authentication?</t>
-  </si>
-  <si>
     <t>FTP</t>
   </si>
   <si>
@@ -890,12 +800,6 @@
     <t>SFTP</t>
   </si>
   <si>
-    <t>of the three exsiting versions of the Simple Network Management Protocol (SNMP) versions 1 and 2 (SNMPv1 and SNMPv2) offer authentication based on community strings sent in an unencrypted form (in cleartext). SNMPv3 provides packet encryption, authentication, and hasning mechanisms that allow for checking whether data has changed in transit.</t>
-  </si>
-  <si>
-    <t>which of the following answers refers to a cryptographic network protocol for secure data communication, remote command-line login, remote command execution, and other secure network services between computers?</t>
-  </si>
-  <si>
     <t>Telnet</t>
   </si>
   <si>
@@ -905,15 +809,9 @@
     <t>Bcrypt</t>
   </si>
   <si>
-    <t>which of the protocols listed below was designed as a secure replacement for Telnet</t>
-  </si>
-  <si>
     <t>LDAP</t>
   </si>
   <si>
-    <t>the SCP protocol is used for:</t>
-  </si>
-  <si>
     <t>Directory access</t>
   </si>
   <si>
@@ -941,9 +839,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>which of the following solutions provides a shielded environment that protects against unintentional signal leakage and eavesdropping</t>
-  </si>
-  <si>
     <t>SCADA</t>
   </si>
   <si>
@@ -968,9 +863,6 @@
     <t>signature files</t>
   </si>
   <si>
-    <t>the term "DHCP snooping" refers to an exploit that enables operation of a rouge DHCP server on a network.</t>
-  </si>
-  <si>
     <t>Simple Mail Transfer Protocol(SMTP) operates with the use of TCP port:</t>
   </si>
   <si>
@@ -980,9 +872,6 @@
     <t>Port number 5061 is typically used for Session Initiation Protocol (SIP) traffic encrypted with Transport Layre Security (TLS)</t>
   </si>
   <si>
-    <t>port number 5004 is used by:</t>
-  </si>
-  <si>
     <t>MGCP</t>
   </si>
   <si>
@@ -1046,9 +935,6 @@
     <t>Merberos</t>
   </si>
   <si>
-    <t>which of the file transfer protocols listed below runs on port number 69 and does not provide authentication?</t>
-  </si>
-  <si>
     <t>TCP port 445 is used by:</t>
   </si>
   <si>
@@ -1115,9 +1001,6 @@
     <t>Which of the following answers lists the binary notation of the decimal number 192?</t>
   </si>
   <si>
-    <t>an Ipv 4 address consists of:</t>
-  </si>
-  <si>
     <t>32bits</t>
   </si>
   <si>
@@ -1229,9 +1112,6 @@
     <t>S+</t>
   </si>
   <si>
-    <t>a device designed to forward data packets between networks is caled:</t>
-  </si>
-  <si>
     <t>Layer 2 switch</t>
   </si>
   <si>
@@ -1256,9 +1136,6 @@
     <t>Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">a network device designed for managing the optimal distribution of workloads across multiple computing resources is called </t>
-  </si>
-  <si>
     <t>Load balancer</t>
   </si>
   <si>
@@ -1271,9 +1148,6 @@
     <t>Load Balancer</t>
   </si>
   <si>
-    <t>the last default rule on a firewall on a firewall is to deny all traffic.</t>
-  </si>
-  <si>
     <t>A computer network service that allows clients to make indirect network connections to other network services is called:</t>
   </si>
   <si>
@@ -1424,9 +1298,6 @@
     <t>VLAN tagging</t>
   </si>
   <si>
-    <t>wireless networking</t>
-  </si>
-  <si>
     <t>An access control model in which access to resources is granted or denied depending on Access Control List (ACL) entries is also known as:</t>
   </si>
   <si>
@@ -1695,9 +1566,6 @@
   </si>
   <si>
     <t>What is the purpose of non-repudiation?</t>
-  </si>
-  <si>
-    <t>taking hashes ensures that data retains its:</t>
   </si>
   <si>
     <t>Confidentiality</t>
@@ -1974,8 +1842,14 @@
     <t>Remote authentication Dial in user service (RADIUS)</t>
   </si>
   <si>
+    <t xml:space="preserve">TRUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE </t>
+  </si>
+  <si>
     <r>
-      <t>the main functionality of the basic input/output system (</t>
+      <t>The main functionality of the basic input/output system (</t>
     </r>
     <r>
       <rPr>
@@ -2000,10 +1874,139 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TRUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE </t>
+    <t>In modern PCs, the procedure of replacing BIOS contents is sometimes refered to as:</t>
+  </si>
+  <si>
+    <t>Which Microsoft Windows OS utility can be used to view basic information about computers BIOS</t>
+  </si>
+  <si>
+    <t>Power failure during BIOS upgrade can be the cause of irreversible damage to the computer system</t>
+  </si>
+  <si>
+    <t>After normal system shutdown, when the computer is turned off, contents of the memory used to store BIOS setting are:</t>
+  </si>
+  <si>
+    <t>Which of the acronyms listed below refers to a series of basic hardware diagnostic test performed by the BIOS after the computer is powered on?</t>
+  </si>
+  <si>
+    <t>After completing the initial diagnostics and assigning system resources, the startup Bios program checks for information about secondary storage devices that might contain the OS.  The list of devices and the order In which they should be checked can be found and arranged in th CMOS setu utility, and this option is commonly refered to as:</t>
+  </si>
+  <si>
+    <t>In order to work, an integrated component such as Network Interface Card(NIC) on a newly assembled computer system may need to be first</t>
+  </si>
+  <si>
+    <t>The CMOS setup utility can be accessed by pressing:</t>
+  </si>
+  <si>
+    <t>Which type of password provides the hightst level of permissions in BIOS</t>
+  </si>
+  <si>
+    <t>What is LoJack?</t>
+  </si>
+  <si>
+    <t>Which of the folowing terms refer to a tech that allows for storing passwords, certificates, or encryption keys in a hardware chip?</t>
+  </si>
+  <si>
+    <t>While tryign to enable the entire drive encryption feature in windows technician receives the followling error message: "A compatible Trusted Platform Module(TPM) security Device must be present on this computer, but a TPM was not found." knowing that the system had a TPM chip installed, which of the folowing steps might help in solving this problem?</t>
+  </si>
+  <si>
+    <t>A tiny sopt on the LCD monitor display screen that permanetly remains black when it should be activated and displaying color is commonly refered to as stuck pixel.</t>
+  </si>
+  <si>
+    <t>A permanent computer display screen discoloration caused by displaying the same static image for extended periods of time is known as:</t>
+  </si>
+  <si>
+    <t>Which of the folowing command-line utilities allows to test the reachability of a host across an IP network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the folowing command-line prompt tools listed below allows to display IP addresses, subnet mask, and default gateway for all adaptors? </t>
+  </si>
+  <si>
+    <t>Which of the folowing is an example of active eavesdropping</t>
+  </si>
+  <si>
+    <t>One of the measures for securing network devices includes the practice of disabling unsused ports.</t>
+  </si>
+  <si>
+    <t>Which of the folowing answers refers to preferred replacement for SLIP protocol</t>
+  </si>
+  <si>
+    <t>Which of the following protocols does not provide authentication?</t>
+  </si>
+  <si>
+    <t>Of the three exsiting versions of the Simple Network Management Protocol (SNMP) versions 1 and 2 (SNMPv1 and SNMPv2) offer authentication based on community strings sent in an unencrypted form (in cleartext). SNMPv3 provides packet encryption, authentication, and hasning mechanisms that allow for checking whether data has changed in transit.</t>
+  </si>
+  <si>
+    <t>Which of the following answers refers to a cryptographic network protocol for secure data communication, remote command-line login, remote command execution, and other secure network services between computers?</t>
+  </si>
+  <si>
+    <t>Which of the protocols listed below was designed as a secure replacement for Telnet</t>
+  </si>
+  <si>
+    <t>The SCP protocol is used for:</t>
+  </si>
+  <si>
+    <t>Which of the following solutions provides a shielded environment that protects against unintentional signal leakage and eavesdropping</t>
+  </si>
+  <si>
+    <t>The term "DHCP snooping" refers to an exploit that enables operation of a rouge DHCP server on a network.</t>
+  </si>
+  <si>
+    <t>Port number 5004 is used by:</t>
+  </si>
+  <si>
+    <t>Which of the file transfer protocols listed below runs on port number 69 and does not provide authentication?</t>
+  </si>
+  <si>
+    <t>An Ipv 4 address consists of:</t>
+  </si>
+  <si>
+    <t>A device designed to forward data packets between networks is caled:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A network device designed for managing the optimal distribution of workloads across multiple computing resources is called </t>
+  </si>
+  <si>
+    <t>The last default rule on a firewall on a firewall is to deny all traffic.</t>
+  </si>
+  <si>
+    <t>Taking hashes ensures that data retains its:</t>
+  </si>
+  <si>
+    <t>Well known vulberability</t>
+  </si>
+  <si>
+    <t>Wireless networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root </t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Power user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aborted BIOS update can be resumed by the transaction recovery system </t>
+  </si>
+  <si>
+    <t>Loopback adapter</t>
+  </si>
+  <si>
+    <t>A common securtiy measure is to store BIOS on a non-rewriteable memory chip</t>
+  </si>
+  <si>
+    <t>The process of BIOS update can be aborted and resumed at a later time</t>
+  </si>
+  <si>
+    <t>The key set by the motherboard manufacturer for accessing CMOS setup utility during boot</t>
+  </si>
+  <si>
+    <t>Controle panel</t>
   </si>
 </sst>
 </file>
@@ -2381,8 +2384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B131" workbookViewId="0">
-      <selection activeCell="G149" sqref="G149"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3047,138 +3050,138 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>649</v>
+        <v>607</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>578</v>
+        <v>534</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>612</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
@@ -3187,625 +3190,625 @@
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>613</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>614</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>615</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>188</v>
+        <v>651</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>196</v>
+        <v>647</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>197</v>
+        <v>649</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>198</v>
+        <v>650</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>616</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>202</v>
+        <v>643</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>203</v>
+        <v>644</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>645</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>205</v>
+        <v>646</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>206</v>
+        <v>617</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>207</v>
+        <v>648</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>212</v>
+        <v>618</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>218</v>
+        <v>619</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>588</v>
+        <v>544</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>235</v>
+        <v>620</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>236</v>
+        <v>621</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>622</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>248</v>
+        <v>623</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>255</v>
+        <v>624</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>273</v>
+        <v>641</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>275</v>
+        <v>625</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B56" s="1">
         <v>49</v>
@@ -3823,289 +3826,289 @@
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>277</v>
+        <v>626</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>283</v>
+        <v>627</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>288</v>
+        <v>628</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>289</v>
+        <v>629</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>293</v>
+        <v>630</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>295</v>
+        <v>631</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>305</v>
+        <v>632</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>314</v>
+        <v>633</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B68" s="1">
         <v>110</v>
@@ -4123,15 +4126,15 @@
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B69" s="1">
         <v>5004</v>
@@ -4149,63 +4152,63 @@
         <v>5060</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>318</v>
+        <v>634</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="B72" s="1">
         <v>5004</v>
@@ -4223,111 +4226,111 @@
         <v>5005</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B77" s="1">
         <v>161</v>
@@ -4345,41 +4348,41 @@
         <v>161</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B79" s="1">
         <v>49</v>
@@ -4397,15 +4400,15 @@
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="B80" s="1">
         <v>20</v>
@@ -4423,15 +4426,15 @@
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="B81" s="1">
         <v>139</v>
@@ -4449,93 +4452,93 @@
         <v>53</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>340</v>
+        <v>635</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="B85" s="1">
         <v>1701</v>
@@ -4553,115 +4556,115 @@
         <v>3389</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B90" s="1">
         <v>10101100</v>
@@ -4679,41 +4682,41 @@
         <v>11000000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>363</v>
+        <v>636</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B92" s="1">
         <v>168</v>
@@ -4731,142 +4734,142 @@
         <v>172</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>46</v>
@@ -4881,1338 +4884,1338 @@
         <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>603</v>
+        <v>559</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>401</v>
+        <v>637</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>410</v>
+        <v>638</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>415</v>
+        <v>639</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>466</v>
+        <v>642</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>619</v>
+        <v>575</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>621</v>
+        <v>577</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>623</v>
+        <v>579</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>499</v>
+        <v>456</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>502</v>
+        <v>459</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>519</v>
+        <v>476</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>526</v>
+        <v>483</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>528</v>
+        <v>485</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>533</v>
+        <v>490</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>534</v>
+        <v>491</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>634</v>
+        <v>590</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>635</v>
+        <v>591</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>545</v>
+        <v>502</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>637</v>
+        <v>593</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>555</v>
+        <v>512</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>561</v>
+        <v>517</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>563</v>
+        <v>519</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>568</v>
+        <v>524</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>651</v>
+        <v>606</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>650</v>
+        <v>605</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -2058,14 +2058,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2380,10 +2376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,15 +2567,15 @@
       <c r="F7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2597,10 +2593,10 @@
       <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2626,7 +2622,7 @@
       <c r="G9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2652,7 +2648,7 @@
       <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2678,7 +2674,7 @@
       <c r="G11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2704,7 +2700,7 @@
       <c r="G12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2730,7 +2726,7 @@
       <c r="G13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2756,7 +2752,7 @@
       <c r="G14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2782,7 +2778,7 @@
       <c r="G15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2808,7 +2804,7 @@
       <c r="G16" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2834,12 +2830,12 @@
       <c r="G17" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2860,7 +2856,7 @@
       <c r="G18" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2868,25 +2864,25 @@
       <c r="A19" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="1" t="s">
         <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2912,7 +2908,7 @@
       <c r="G20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2938,7 +2934,7 @@
       <c r="G21" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2964,12 +2960,12 @@
       <c r="G22" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2990,12 +2986,12 @@
       <c r="G23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3016,7 +3012,7 @@
       <c r="G24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3042,7 +3038,7 @@
       <c r="G25" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3053,16 +3049,18 @@
       <c r="B26" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C26" s="2" t="b">
+      <c r="C26" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F26" s="2" t="b">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3088,7 +3086,7 @@
       <c r="G27" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3114,7 +3112,7 @@
       <c r="G28" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3125,16 +3123,18 @@
       <c r="B29" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C29" s="2" t="b">
+      <c r="C29" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F29" s="2" t="b">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
       <c r="G30" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3186,7 +3186,7 @@
       <c r="G31" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H31" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
       <c r="G32" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H32" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3238,7 +3238,7 @@
       <c r="G33" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3264,7 +3264,7 @@
       <c r="G34" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="H34" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       <c r="G35" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H35" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       <c r="G36" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="H36" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       <c r="G37" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3368,7 +3368,7 @@
       <c r="G38" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="1" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3507,10 +3507,12 @@
       <c r="B44" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C44" s="2" t="b">
+      <c r="C44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F44" s="2" t="b">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -3527,10 +3529,12 @@
       <c r="B45" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C45" s="2" t="b">
+      <c r="C45" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F45" s="2" t="b">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -3744,7 +3748,7 @@
       <c r="G53" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3764,13 +3768,13 @@
       <c r="E54" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>274</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3781,16 +3785,18 @@
       <c r="B55" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C55" s="2" t="b">
+      <c r="C55" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F55" s="2" t="b">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3798,25 +3804,25 @@
       <c r="A56" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>49</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="1">
         <v>23</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="1">
         <v>68</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>22</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3842,7 +3848,7 @@
       <c r="G57" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3853,16 +3859,18 @@
       <c r="B58" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C58" s="2" t="b">
+      <c r="C58" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F58" s="2" t="b">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3873,22 +3881,22 @@
       <c r="B59" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="1" t="s">
         <v>286</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3899,16 +3907,18 @@
       <c r="B60" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C60" s="2" t="b">
+      <c r="C60" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F60" s="2" t="b">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3919,22 +3929,22 @@
       <c r="B61" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3945,22 +3955,22 @@
       <c r="B62" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3971,22 +3981,22 @@
       <c r="B63" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="1" t="s">
         <v>297</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3997,22 +4007,22 @@
       <c r="B64" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="1" t="s">
         <v>301</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4023,22 +4033,22 @@
       <c r="B65" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="1" t="s">
         <v>307</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4049,22 +4059,22 @@
       <c r="B66" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="1" t="s">
         <v>313</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4075,16 +4085,18 @@
       <c r="B67" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C67" s="2" t="b">
+      <c r="C67" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F67" s="2" t="b">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4092,25 +4104,25 @@
       <c r="A68" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>110</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="1">
         <v>23</v>
       </c>
-      <c r="D68" s="2">
+      <c r="D68" s="1">
         <v>143</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>25</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4118,25 +4130,25 @@
       <c r="A69" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>5004</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="1">
         <v>5005</v>
       </c>
-      <c r="D69" s="2">
+      <c r="D69" s="1">
         <v>5060</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>5061</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>5060</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4147,16 +4159,18 @@
       <c r="B70" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C70" s="2" t="b">
+      <c r="C70" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F70" s="2" t="b">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4167,22 +4181,22 @@
       <c r="B71" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="1" t="s">
         <v>320</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4190,25 +4204,25 @@
       <c r="A72" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>5004</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="1">
         <v>5060</v>
       </c>
-      <c r="D72" s="2">
+      <c r="D72" s="1">
         <v>5005</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>5061</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>5005</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4216,25 +4230,25 @@
       <c r="A73" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="1" t="s">
         <v>321</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4242,19 +4256,21 @@
       <c r="A74" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C74" s="2" t="b">
+      <c r="C74" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F74" s="2" t="b">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4262,19 +4278,21 @@
       <c r="A75" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C75" s="2" t="b">
+      <c r="C75" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F75" s="2" t="b">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4282,25 +4300,25 @@
       <c r="A76" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="1" t="s">
         <v>330</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4308,25 +4326,25 @@
       <c r="A77" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>161</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="1">
         <v>138</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D77" s="1">
         <v>162</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="1">
         <v>139</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="1">
         <v>161</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4334,77 +4352,77 @@
       <c r="A78" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>291</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>49</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="1">
         <v>23</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="1">
         <v>68</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="1">
         <v>22</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>20</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="1">
         <v>21</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="1">
         <v>22</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="1">
         <v>25</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4412,25 +4430,25 @@
       <c r="A81" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>139</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="1">
         <v>53</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="1">
         <v>443</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="1">
         <v>22</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <v>53</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4438,25 +4456,25 @@
       <c r="A82" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="1" t="s">
         <v>337</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4464,25 +4482,25 @@
       <c r="A83" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="1" t="s">
         <v>286</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="1" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4490,1692 +4508,1772 @@
       <c r="A84" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="1" t="s">
         <v>343</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>1701</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="1">
         <v>139</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D85" s="1">
         <v>3389</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="1">
         <v>110</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <v>3389</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C86" s="2" t="b">
+      <c r="C86" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F86" s="2" t="b">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="1" t="s">
         <v>350</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="1" t="s">
         <v>352</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="1" t="s">
         <v>361</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>10101100</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="1">
         <v>11000000</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="1">
         <v>1111111</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="1">
         <v>10101000</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <v>11000000</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="1" t="s">
         <v>364</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>168</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="1">
         <v>172</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D92" s="1">
         <v>192</v>
       </c>
-      <c r="E92" s="2">
+      <c r="E92" s="1">
         <v>255</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>172</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F93" s="1" t="s">
         <v>370</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="H93" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F94" s="1" t="s">
         <v>377</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="H94" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="1" t="s">
         <v>375</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="H95" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C96" s="2" t="b">
+      <c r="C96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F96" s="2" t="b">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="H96" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="F97" s="1" t="s">
         <v>385</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="H97" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="F98" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="H98" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="F99" s="1" t="s">
         <v>389</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="H99" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F100" s="1" t="s">
         <v>394</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="H100" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="F101" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="G101" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="H101" s="2" t="s">
+      <c r="H101" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F102" s="1" t="s">
         <v>405</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="H102" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="F103" s="1" t="s">
         <v>407</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="H103" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="F104" s="1" t="s">
         <v>414</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="H104" s="2" t="s">
+      <c r="H104" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C105" s="2" t="b">
+      <c r="C105" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F105" s="2" t="b">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H105" s="2" t="s">
+      <c r="H105" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="F106" s="1" t="s">
         <v>418</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="H106" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="F107" s="1" t="s">
         <v>412</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="H107" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C108" s="2" t="b">
+      <c r="C108" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F108" s="2" t="b">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="H108" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="F109" s="2" t="s">
+      <c r="F109" s="1" t="s">
         <v>425</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="H109" s="2" t="s">
+      <c r="H109" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="F110" s="1" t="s">
         <v>431</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="H110" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F111" s="1" t="s">
         <v>435</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="H111" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="F112" s="1" t="s">
         <v>442</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="H112" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="F113" s="1" t="s">
         <v>446</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="H113" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="F114" s="1" t="s">
         <v>422</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="H114" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="F115" s="1" t="s">
         <v>456</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="H115" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="F116" s="1" t="s">
         <v>460</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="H116" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F117" s="1" t="s">
         <v>464</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E118" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="F118" s="1" t="s">
         <v>471</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="H118" s="2" t="s">
+      <c r="H118" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="F119" s="1" t="s">
         <v>475</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="H119" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="F120" s="1" t="s">
         <v>441</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="H120" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C121" s="2" t="b">
+      <c r="C121" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F121" s="2" t="b">
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="H121" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="F122" s="1" t="s">
         <v>483</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="H122" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C123" s="2" t="b">
+      <c r="C123" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F123" s="2" t="b">
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1" t="b">
         <v>0</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="H123" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="F124" s="1" t="s">
         <v>492</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="H124" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" s="1" t="s">
         <v>498</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H125" s="2" t="s">
+      <c r="H125" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F126" s="1" t="s">
         <v>399</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="H126" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="F127" s="1" t="s">
         <v>504</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="H127" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="F128" s="1" t="s">
         <v>507</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="H128" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="F129" s="1" t="s">
         <v>268</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="H129" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="F130" s="1" t="s">
         <v>513</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="H130" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="F131" s="1" t="s">
         <v>516</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="H131" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="1" t="s">
         <v>520</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H132" s="2" t="s">
+      <c r="H132" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="F133" s="1" t="s">
         <v>525</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="H133" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="F134" s="1" t="s">
         <v>420</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="H134" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="F135" s="2" t="s">
+      <c r="F135" s="1" t="s">
         <v>510</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="H135" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="F136" s="2" t="s">
+      <c r="F136" s="1" t="s">
         <v>524</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="H136" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="F137" s="1" t="s">
         <v>515</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="H137" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="F138" s="1" t="s">
         <v>539</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="H138" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="F139" s="1" t="s">
         <v>531</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="H139" s="2" t="s">
+      <c r="H139" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="F140" s="1" t="s">
         <v>259</v>
       </c>
       <c r="G140" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="H140" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C141" s="2" t="b">
+      <c r="C141" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F141" s="2" t="b">
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="H141" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="F142" s="1" t="s">
         <v>541</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="H142" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="F143" s="1" t="s">
         <v>301</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="H143" s="2" t="s">
+      <c r="H143" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="F144" s="1" t="s">
         <v>554</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="H144" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="F145" s="1" t="s">
         <v>498</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H145" s="2" t="s">
+      <c r="H145" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F146" s="1" t="s">
         <v>562</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="H146" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="F147" s="1" t="s">
         <v>565</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="H147" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F148" s="1" t="s">
         <v>490</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H148" s="2" t="s">
+      <c r="H148" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C149" s="2" t="b">
+      <c r="C149" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F149" s="2" t="b">
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="b">
         <v>1</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="H149" s="1" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="E150" s="2" t="s">
+      <c r="E150" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="F150" s="1" t="s">
         <v>573</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="H150" s="2" t="s">
+      <c r="H150" s="1" t="s">
         <v>400</v>
       </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\PTAlso\PTA\PTA\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\pta\PTA\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="653">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -479,9 +479,6 @@
     <t xml:space="preserve">Light Emitting Diode(LED) or Liquid Crystal Displays (LCD) screens are much better at displacing glare than the other technolgy combinations. </t>
   </si>
   <si>
-    <t>in modern PCs, the procedure of replacing BIOS contents is sometimes refered to as:</t>
-  </si>
-  <si>
     <t>Direct memory access DMA</t>
   </si>
   <si>
@@ -491,27 +488,15 @@
     <t>A+S</t>
   </si>
   <si>
-    <t>which Microsoft Windows OS utility can be used to view basic information about computers BIOS</t>
-  </si>
-  <si>
     <t>WINVER&gt;EXE</t>
   </si>
   <si>
     <t>MSINFO32.EXE</t>
   </si>
   <si>
-    <t>controle panel</t>
-  </si>
-  <si>
     <t>SERVICES.MSC</t>
   </si>
   <si>
-    <t>power failure during BIOS upgrade can be the cause of irreversible damage to the computer system</t>
-  </si>
-  <si>
-    <t>after normal system shutdown, when the computer is turned off, contents of the memory used to store BIOS setting are:</t>
-  </si>
-  <si>
     <t>Erased</t>
   </si>
   <si>
@@ -527,18 +512,12 @@
     <t>Rettained</t>
   </si>
   <si>
-    <t>which of the acronyms listed below refers to a series of basic hardware diagnostic test performed by the BIOS after the computer is powered on?</t>
-  </si>
-  <si>
     <t>IDE</t>
   </si>
   <si>
     <t>Qos</t>
   </si>
   <si>
-    <t>after completing the initial diagnostics and assigning system resources, the startup Bios program checks for information about secondary storage devices that might contain the OS.  The list of devices and the order in which they should be checked can be found and arranged in th CMOS setu utility, and this option is commonly refered to as:</t>
-  </si>
-  <si>
     <t>boot record</t>
   </si>
   <si>
@@ -554,9 +533,6 @@
     <t>Boot sequence</t>
   </si>
   <si>
-    <t>in order to work, an integrated component such as Network Interface Card(NIC) on a newly assembled computer system may need to be first</t>
-  </si>
-  <si>
     <t>Enabled in Windows Controle Panel</t>
   </si>
   <si>
@@ -584,9 +560,6 @@
     <t xml:space="preserve">Getting the CMOS setup utility and Enabling the virtualization technology setting </t>
   </si>
   <si>
-    <t>the CMOS setup utility can be accessed by pressing:</t>
-  </si>
-  <si>
     <t>Reset button on the front panel of the computer case</t>
   </si>
   <si>
@@ -614,42 +587,15 @@
     <t>Which of the folowing statements is true</t>
   </si>
   <si>
-    <t xml:space="preserve">aborted BIOS update can be resumed by the transaction recovery system </t>
-  </si>
-  <si>
-    <t>a common securtiy measure is to store BIOS on a non-rewriteable memory chip</t>
-  </si>
-  <si>
-    <t>the process of BIOS update can be aborted and resumed at a later time</t>
-  </si>
-  <si>
     <t>Aborted BIOS update could render the computer unusable</t>
   </si>
   <si>
     <t>aborted BIOS update could render the computer unusable</t>
   </si>
   <si>
-    <t>which type of password provides the hightst level of permissions in BIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">root </t>
-  </si>
-  <si>
     <t>supervisor</t>
   </si>
   <si>
-    <t>administrator</t>
-  </si>
-  <si>
-    <t>power user</t>
-  </si>
-  <si>
-    <t>what is LoJack?</t>
-  </si>
-  <si>
-    <t>loopback adapter</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secutity feature used for locating stolen desktops, laptops, or tablets </t>
   </si>
   <si>
@@ -662,9 +608,6 @@
     <t xml:space="preserve">Security feature used for locating stolen Desktops, laptops, or tablets </t>
   </si>
   <si>
-    <t>which of the folowing terms refer to a tech that allows for storing passwords, certificates, or encryption keys in a hardware chip?</t>
-  </si>
-  <si>
     <t>Access Controle List (ACL)</t>
   </si>
   <si>
@@ -680,9 +623,6 @@
     <t>Trusted Platform Module(TPM)</t>
   </si>
   <si>
-    <t>while tryign to enable the entire drive encryption feature in windows technician receives the followling error message: "A compatible Trusted Platform Module(TPM) security Device must be present on this computer, but a TPM was not found." knowing that the system had a TPM chip installed, which of the folowing steps might help in solving this problem?</t>
-  </si>
-  <si>
     <t>Re-install OS</t>
   </si>
   <si>
@@ -731,12 +671,6 @@
     <t>Similarly to magnetic drives, Solid State-Drives (SSD) require periodic defragmentation in order to improve system performance.</t>
   </si>
   <si>
-    <t>a tiny sopt on the LCD monitor display screen that permanetly remains black when it should be activated and displaying color is commonly refered to as stuck pixel.</t>
-  </si>
-  <si>
-    <t>a permanent computer display screen discoloration caused by displaying the same static image for extended periods of time is known as:</t>
-  </si>
-  <si>
     <t>Artifact</t>
   </si>
   <si>
@@ -749,9 +683,6 @@
     <t>Dead pixel</t>
   </si>
   <si>
-    <t>which of the folowing command-line utilities allows to test the reachability of a host across an IP network</t>
-  </si>
-  <si>
     <t>NETSTAT</t>
   </si>
   <si>
@@ -770,9 +701,6 @@
     <t>IFCONFIG</t>
   </si>
   <si>
-    <t xml:space="preserve">which of the folowing command-line prompt tools listed below allows to display IP addresses, subnet mask, and default gateway for all adaptors? </t>
-  </si>
-  <si>
     <t>A Linux comand-line utility used for displaying and modifying network interface configuration settings is called</t>
   </si>
   <si>
@@ -791,9 +719,6 @@
     <t>N+</t>
   </si>
   <si>
-    <t>which of the folowing is an example of active eavesdropping</t>
-  </si>
-  <si>
     <t>Phishing</t>
   </si>
   <si>
@@ -845,21 +770,9 @@
     <t>Packed software</t>
   </si>
   <si>
-    <t>well known vulberability</t>
-  </si>
-  <si>
     <t>Vulnerability that is present in already released software but unknown to the software developer</t>
   </si>
   <si>
-    <t>one of the measures for securing network devices includes the practice of disabling unsused ports.</t>
-  </si>
-  <si>
-    <t>a hacker has captured network traffic with cleartext commands sent from the client to the server console. Which of the following ports is being used by the network admin for the client-server communication?</t>
-  </si>
-  <si>
-    <t>which of the folowing answers refers to preferred replacement for SLIP protocol</t>
-  </si>
-  <si>
     <t>PPP</t>
   </si>
   <si>
@@ -875,9 +788,6 @@
     <t>FTPS is an extension to the Secure Shell Protocol (SSH) and runs by default on port number 22</t>
   </si>
   <si>
-    <t>which of the following protocols does not provide authentication?</t>
-  </si>
-  <si>
     <t>FTP</t>
   </si>
   <si>
@@ -890,12 +800,6 @@
     <t>SFTP</t>
   </si>
   <si>
-    <t>of the three exsiting versions of the Simple Network Management Protocol (SNMP) versions 1 and 2 (SNMPv1 and SNMPv2) offer authentication based on community strings sent in an unencrypted form (in cleartext). SNMPv3 provides packet encryption, authentication, and hasning mechanisms that allow for checking whether data has changed in transit.</t>
-  </si>
-  <si>
-    <t>which of the following answers refers to a cryptographic network protocol for secure data communication, remote command-line login, remote command execution, and other secure network services between computers?</t>
-  </si>
-  <si>
     <t>Telnet</t>
   </si>
   <si>
@@ -905,15 +809,9 @@
     <t>Bcrypt</t>
   </si>
   <si>
-    <t>which of the protocols listed below was designed as a secure replacement for Telnet</t>
-  </si>
-  <si>
     <t>LDAP</t>
   </si>
   <si>
-    <t>the SCP protocol is used for:</t>
-  </si>
-  <si>
     <t>Directory access</t>
   </si>
   <si>
@@ -941,9 +839,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>which of the following solutions provides a shielded environment that protects against unintentional signal leakage and eavesdropping</t>
-  </si>
-  <si>
     <t>SCADA</t>
   </si>
   <si>
@@ -968,9 +863,6 @@
     <t>signature files</t>
   </si>
   <si>
-    <t>the term "DHCP snooping" refers to an exploit that enables operation of a rouge DHCP server on a network.</t>
-  </si>
-  <si>
     <t>Simple Mail Transfer Protocol(SMTP) operates with the use of TCP port:</t>
   </si>
   <si>
@@ -980,9 +872,6 @@
     <t>Port number 5061 is typically used for Session Initiation Protocol (SIP) traffic encrypted with Transport Layre Security (TLS)</t>
   </si>
   <si>
-    <t>port number 5004 is used by:</t>
-  </si>
-  <si>
     <t>MGCP</t>
   </si>
   <si>
@@ -1046,9 +935,6 @@
     <t>Merberos</t>
   </si>
   <si>
-    <t>which of the file transfer protocols listed below runs on port number 69 and does not provide authentication?</t>
-  </si>
-  <si>
     <t>TCP port 445 is used by:</t>
   </si>
   <si>
@@ -1115,9 +1001,6 @@
     <t>Which of the following answers lists the binary notation of the decimal number 192?</t>
   </si>
   <si>
-    <t>an Ipv 4 address consists of:</t>
-  </si>
-  <si>
     <t>32bits</t>
   </si>
   <si>
@@ -1229,9 +1112,6 @@
     <t>S+</t>
   </si>
   <si>
-    <t>a device designed to forward data packets between networks is caled:</t>
-  </si>
-  <si>
     <t>Layer 2 switch</t>
   </si>
   <si>
@@ -1256,9 +1136,6 @@
     <t>Entry</t>
   </si>
   <si>
-    <t xml:space="preserve">a network device designed for managing the optimal distribution of workloads across multiple computing resources is called </t>
-  </si>
-  <si>
     <t>Load balancer</t>
   </si>
   <si>
@@ -1271,9 +1148,6 @@
     <t>Load Balancer</t>
   </si>
   <si>
-    <t>the last default rule on a firewall on a firewall is to deny all traffic.</t>
-  </si>
-  <si>
     <t>A computer network service that allows clients to make indirect network connections to other network services is called:</t>
   </si>
   <si>
@@ -1424,9 +1298,6 @@
     <t>VLAN tagging</t>
   </si>
   <si>
-    <t>wireless networking</t>
-  </si>
-  <si>
     <t>An access control model in which access to resources is granted or denied depending on Access Control List (ACL) entries is also known as:</t>
   </si>
   <si>
@@ -1695,9 +1566,6 @@
   </si>
   <si>
     <t>What is the purpose of non-repudiation?</t>
-  </si>
-  <si>
-    <t>taking hashes ensures that data retains its:</t>
   </si>
   <si>
     <t>Confidentiality</t>
@@ -1974,8 +1842,14 @@
     <t>Remote authentication Dial in user service (RADIUS)</t>
   </si>
   <si>
+    <t xml:space="preserve">TRUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE </t>
+  </si>
+  <si>
     <r>
-      <t>the main functionality of the basic input/output system (</t>
+      <t>The main functionality of the basic input/output system (</t>
     </r>
     <r>
       <rPr>
@@ -2000,7 +1874,139 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">TRUE </t>
+    <t>In modern PCs, the procedure of replacing BIOS contents is sometimes refered to as:</t>
+  </si>
+  <si>
+    <t>Which Microsoft Windows OS utility can be used to view basic information about computers BIOS</t>
+  </si>
+  <si>
+    <t>Power failure during BIOS upgrade can be the cause of irreversible damage to the computer system</t>
+  </si>
+  <si>
+    <t>After normal system shutdown, when the computer is turned off, contents of the memory used to store BIOS setting are:</t>
+  </si>
+  <si>
+    <t>Which of the acronyms listed below refers to a series of basic hardware diagnostic test performed by the BIOS after the computer is powered on?</t>
+  </si>
+  <si>
+    <t>After completing the initial diagnostics and assigning system resources, the startup Bios program checks for information about secondary storage devices that might contain the OS.  The list of devices and the order In which they should be checked can be found and arranged in th CMOS setu utility, and this option is commonly refered to as:</t>
+  </si>
+  <si>
+    <t>In order to work, an integrated component such as Network Interface Card(NIC) on a newly assembled computer system may need to be first</t>
+  </si>
+  <si>
+    <t>The CMOS setup utility can be accessed by pressing:</t>
+  </si>
+  <si>
+    <t>Which type of password provides the hightst level of permissions in BIOS</t>
+  </si>
+  <si>
+    <t>What is LoJack?</t>
+  </si>
+  <si>
+    <t>Which of the folowing terms refer to a tech that allows for storing passwords, certificates, or encryption keys in a hardware chip?</t>
+  </si>
+  <si>
+    <t>While tryign to enable the entire drive encryption feature in windows technician receives the followling error message: "A compatible Trusted Platform Module(TPM) security Device must be present on this computer, but a TPM was not found." knowing that the system had a TPM chip installed, which of the folowing steps might help in solving this problem?</t>
+  </si>
+  <si>
+    <t>A tiny sopt on the LCD monitor display screen that permanetly remains black when it should be activated and displaying color is commonly refered to as stuck pixel.</t>
+  </si>
+  <si>
+    <t>A permanent computer display screen discoloration caused by displaying the same static image for extended periods of time is known as:</t>
+  </si>
+  <si>
+    <t>Which of the folowing command-line utilities allows to test the reachability of a host across an IP network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which of the folowing command-line prompt tools listed below allows to display IP addresses, subnet mask, and default gateway for all adaptors? </t>
+  </si>
+  <si>
+    <t>Which of the folowing is an example of active eavesdropping</t>
+  </si>
+  <si>
+    <t>One of the measures for securing network devices includes the practice of disabling unsused ports.</t>
+  </si>
+  <si>
+    <t>Which of the folowing answers refers to preferred replacement for SLIP protocol</t>
+  </si>
+  <si>
+    <t>Which of the following protocols does not provide authentication?</t>
+  </si>
+  <si>
+    <t>Of the three exsiting versions of the Simple Network Management Protocol (SNMP) versions 1 and 2 (SNMPv1 and SNMPv2) offer authentication based on community strings sent in an unencrypted form (in cleartext). SNMPv3 provides packet encryption, authentication, and hasning mechanisms that allow for checking whether data has changed in transit.</t>
+  </si>
+  <si>
+    <t>Which of the following answers refers to a cryptographic network protocol for secure data communication, remote command-line login, remote command execution, and other secure network services between computers?</t>
+  </si>
+  <si>
+    <t>Which of the protocols listed below was designed as a secure replacement for Telnet</t>
+  </si>
+  <si>
+    <t>The SCP protocol is used for:</t>
+  </si>
+  <si>
+    <t>Which of the following solutions provides a shielded environment that protects against unintentional signal leakage and eavesdropping</t>
+  </si>
+  <si>
+    <t>The term "DHCP snooping" refers to an exploit that enables operation of a rouge DHCP server on a network.</t>
+  </si>
+  <si>
+    <t>Port number 5004 is used by:</t>
+  </si>
+  <si>
+    <t>Which of the file transfer protocols listed below runs on port number 69 and does not provide authentication?</t>
+  </si>
+  <si>
+    <t>An Ipv 4 address consists of:</t>
+  </si>
+  <si>
+    <t>A device designed to forward data packets between networks is caled:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A network device designed for managing the optimal distribution of workloads across multiple computing resources is called </t>
+  </si>
+  <si>
+    <t>The last default rule on a firewall on a firewall is to deny all traffic.</t>
+  </si>
+  <si>
+    <t>Taking hashes ensures that data retains its:</t>
+  </si>
+  <si>
+    <t>Well known vulberability</t>
+  </si>
+  <si>
+    <t>Wireless networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Root </t>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>Power user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aborted BIOS update can be resumed by the transaction recovery system </t>
+  </si>
+  <si>
+    <t>Loopback adapter</t>
+  </si>
+  <si>
+    <t>A common securtiy measure is to store BIOS on a non-rewriteable memory chip</t>
+  </si>
+  <si>
+    <t>The process of BIOS update can be aborted and resumed at a later time</t>
+  </si>
+  <si>
+    <t>The key set by the motherboard manufacturer for accessing CMOS setup utility during boot</t>
+  </si>
+  <si>
+    <t>Controle panel</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2385,7 @@
   <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,138 +3050,138 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>649</v>
+        <v>607</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C26" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1" t="b">
-        <v>1</v>
+      <c r="F26" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="F27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F28" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>578</v>
+        <v>534</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>160</v>
+        <v>610</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C29" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1" t="b">
-        <v>1</v>
+      <c r="F29" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>579</v>
+        <v>535</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>167</v>
+        <v>612</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
@@ -3184,625 +3190,625 @@
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>580</v>
+        <v>536</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>170</v>
+        <v>613</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>581</v>
+        <v>537</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>614</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>644</v>
+        <v>600</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>186</v>
+        <v>615</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>188</v>
+        <v>651</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>582</v>
+        <v>538</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>196</v>
+        <v>647</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>197</v>
+        <v>649</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>198</v>
+        <v>650</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>583</v>
+        <v>539</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>201</v>
+        <v>616</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>202</v>
+        <v>643</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>203</v>
+        <v>644</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>645</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>205</v>
+        <v>646</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>206</v>
+        <v>617</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>207</v>
+        <v>648</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>585</v>
+        <v>541</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>212</v>
+        <v>618</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>586</v>
+        <v>542</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>218</v>
+        <v>619</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>588</v>
+        <v>544</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C44" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="b">
-        <v>0</v>
+      <c r="F44" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>235</v>
+        <v>620</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C45" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="b">
-        <v>0</v>
+      <c r="F45" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>236</v>
+        <v>621</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>241</v>
+        <v>622</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>590</v>
+        <v>546</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>248</v>
+        <v>623</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>591</v>
+        <v>547</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>593</v>
+        <v>549</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>255</v>
+        <v>624</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>594</v>
+        <v>550</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>595</v>
+        <v>551</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>596</v>
+        <v>552</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>273</v>
+        <v>641</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>275</v>
+        <v>625</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C55" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1" t="b">
-        <v>1</v>
+      <c r="F55" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B56" s="1">
         <v>49</v>
@@ -3820,289 +3826,289 @@
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>277</v>
+        <v>626</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>597</v>
+        <v>553</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C58" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1" t="b">
-        <v>1</v>
+      <c r="F58" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>283</v>
+        <v>627</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>288</v>
+        <v>628</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C60" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1" t="b">
-        <v>1</v>
+      <c r="F60" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>289</v>
+        <v>629</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>293</v>
+        <v>630</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>295</v>
+        <v>631</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>305</v>
+        <v>632</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>643</v>
+        <v>599</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>314</v>
+        <v>633</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C67" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1" t="b">
-        <v>0</v>
+      <c r="F67" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="B68" s="1">
         <v>110</v>
@@ -4120,15 +4126,15 @@
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="B69" s="1">
         <v>5004</v>
@@ -4146,63 +4152,63 @@
         <v>5060</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C70" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1" t="b">
-        <v>0</v>
+      <c r="F70" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>318</v>
+        <v>634</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>323</v>
+        <v>286</v>
       </c>
       <c r="B72" s="1">
         <v>5004</v>
@@ -4220,111 +4226,111 @@
         <v>5005</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>324</v>
+        <v>287</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>321</v>
+        <v>284</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C74" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1" t="b">
-        <v>0</v>
+      <c r="F74" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C75" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1" t="b">
-        <v>0</v>
+      <c r="F75" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>322</v>
+        <v>285</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="B77" s="1">
         <v>161</v>
@@ -4342,41 +4348,41 @@
         <v>161</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>599</v>
+        <v>555</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>333</v>
+        <v>296</v>
       </c>
       <c r="B79" s="1">
         <v>49</v>
@@ -4394,15 +4400,15 @@
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="B80" s="1">
         <v>20</v>
@@ -4420,15 +4426,15 @@
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>335</v>
+        <v>298</v>
       </c>
       <c r="B81" s="1">
         <v>139</v>
@@ -4446,93 +4452,93 @@
         <v>53</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>336</v>
+        <v>299</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>338</v>
+        <v>301</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>600</v>
+        <v>556</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>340</v>
+        <v>635</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>598</v>
+        <v>554</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>341</v>
+        <v>303</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>320</v>
+        <v>283</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>601</v>
+        <v>557</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="B85" s="1">
         <v>1701</v>
@@ -4550,115 +4556,115 @@
         <v>3389</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C86" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="1" t="b">
-        <v>1</v>
+      <c r="F86" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>347</v>
+        <v>309</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>349</v>
+        <v>311</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>351</v>
+        <v>313</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>353</v>
+        <v>315</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>355</v>
+        <v>317</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>356</v>
+        <v>318</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>358</v>
+        <v>320</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>361</v>
+        <v>323</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>602</v>
+        <v>558</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B90" s="1">
         <v>10101100</v>
@@ -4676,41 +4682,41 @@
         <v>11000000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>363</v>
+        <v>636</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>365</v>
+        <v>326</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>364</v>
+        <v>325</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="B92" s="1">
         <v>168</v>
@@ -4728,142 +4734,142 @@
         <v>172</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C96" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="1" t="b">
-        <v>1</v>
+      <c r="F96" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>383</v>
+        <v>344</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>46</v>
@@ -4878,1338 +4884,1338 @@
         <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>603</v>
+        <v>559</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>604</v>
+        <v>560</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>392</v>
+        <v>353</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>393</v>
+        <v>354</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>394</v>
+        <v>355</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>605</v>
+        <v>561</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>398</v>
+        <v>359</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>401</v>
+        <v>637</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>607</v>
+        <v>563</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>410</v>
+        <v>638</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>608</v>
+        <v>564</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>415</v>
+        <v>639</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C105" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="1" t="b">
-        <v>1</v>
+      <c r="F105" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>417</v>
+        <v>375</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>419</v>
+        <v>377</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>609</v>
+        <v>565</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>421</v>
+        <v>379</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>610</v>
+        <v>566</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>423</v>
+        <v>381</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C108" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="1" t="b">
-        <v>1</v>
+      <c r="F108" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>425</v>
+        <v>383</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>611</v>
+        <v>567</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>429</v>
+        <v>387</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>430</v>
+        <v>388</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>432</v>
+        <v>390</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>433</v>
+        <v>391</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>431</v>
+        <v>389</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>612</v>
+        <v>568</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>437</v>
+        <v>395</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>435</v>
+        <v>393</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>613</v>
+        <v>569</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>440</v>
+        <v>398</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>443</v>
+        <v>401</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>444</v>
+        <v>402</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>448</v>
+        <v>406</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>615</v>
+        <v>571</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>450</v>
+        <v>408</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>451</v>
+        <v>409</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>454</v>
+        <v>412</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>455</v>
+        <v>413</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>456</v>
+        <v>414</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>617</v>
+        <v>573</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>457</v>
+        <v>415</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>458</v>
+        <v>416</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>459</v>
+        <v>417</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>461</v>
+        <v>419</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>460</v>
+        <v>418</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>618</v>
+        <v>574</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>462</v>
+        <v>420</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>465</v>
+        <v>423</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>466</v>
+        <v>642</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>464</v>
+        <v>422</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>619</v>
+        <v>575</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>467</v>
+        <v>424</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>468</v>
+        <v>425</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>469</v>
+        <v>426</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>470</v>
+        <v>427</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>471</v>
+        <v>428</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>472</v>
+        <v>429</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>473</v>
+        <v>430</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>397</v>
+        <v>358</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>475</v>
+        <v>432</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>621</v>
+        <v>577</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>478</v>
+        <v>435</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>479</v>
+        <v>436</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>622</v>
+        <v>578</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>480</v>
+        <v>437</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C121" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
-      <c r="F121" s="1" t="b">
-        <v>1</v>
+      <c r="F121" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>485</v>
+        <v>442</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>483</v>
+        <v>440</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>623</v>
+        <v>579</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>486</v>
+        <v>443</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C123" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
-      <c r="F123" s="1" t="b">
-        <v>0</v>
+      <c r="F123" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>499</v>
+        <v>456</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>399</v>
+        <v>360</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>624</v>
+        <v>580</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>502</v>
+        <v>459</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>625</v>
+        <v>581</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>627</v>
+        <v>583</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>517</v>
+        <v>474</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>628</v>
+        <v>584</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>518</v>
+        <v>475</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>519</v>
+        <v>476</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>522</v>
+        <v>479</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>520</v>
+        <v>477</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>523</v>
+        <v>480</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>526</v>
+        <v>483</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>629</v>
+        <v>585</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>527</v>
+        <v>484</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>528</v>
+        <v>485</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>630</v>
+        <v>586</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>529</v>
+        <v>486</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>530</v>
+        <v>487</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>631</v>
+        <v>587</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>532</v>
+        <v>489</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>533</v>
+        <v>490</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>534</v>
+        <v>491</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>535</v>
+        <v>492</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>524</v>
+        <v>481</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>536</v>
+        <v>493</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>516</v>
+        <v>473</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>632</v>
+        <v>588</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>537</v>
+        <v>494</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>538</v>
+        <v>495</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>540</v>
+        <v>497</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>539</v>
+        <v>496</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>633</v>
+        <v>589</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>542</v>
+        <v>499</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>525</v>
+        <v>482</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>543</v>
+        <v>500</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>634</v>
+        <v>590</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>544</v>
+        <v>501</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>635</v>
+        <v>591</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>545</v>
+        <v>502</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C141" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
-      <c r="F141" s="1" t="b">
-        <v>1</v>
+      <c r="F141" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>547</v>
+        <v>504</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>420</v>
+        <v>378</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>548</v>
+        <v>505</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>541</v>
+        <v>498</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>636</v>
+        <v>592</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>550</v>
+        <v>507</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>637</v>
+        <v>593</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>551</v>
+        <v>508</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>552</v>
+        <v>509</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>553</v>
+        <v>510</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>555</v>
+        <v>512</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>554</v>
+        <v>511</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>638</v>
+        <v>594</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>558</v>
+        <v>514</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>559</v>
+        <v>515</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>560</v>
+        <v>516</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>561</v>
+        <v>517</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>562</v>
+        <v>518</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>639</v>
+        <v>595</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>563</v>
+        <v>519</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>566</v>
+        <v>522</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>567</v>
+        <v>523</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>565</v>
+        <v>521</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>568</v>
+        <v>524</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>488</v>
+        <v>445</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>489</v>
+        <v>446</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>490</v>
+        <v>447</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>569</v>
+        <v>525</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C149" s="1" t="b">
-        <v>0</v>
+        <v>605</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
-      <c r="F149" s="1" t="b">
-        <v>1</v>
+      <c r="F149" s="1" t="s">
+        <v>605</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>575</v>
+        <v>531</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>570</v>
+        <v>526</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>571</v>
+        <v>527</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>572</v>
+        <v>528</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>574</v>
+        <v>530</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>573</v>
+        <v>529</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>641</v>
+        <v>597</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>400</v>
+        <v>361</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\pta\PTA\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\PTAlso\PTA\PTA\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="649">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -563,9 +563,6 @@
     <t>Reset button on the front panel of the computer case</t>
   </si>
   <si>
-    <t>the key set by the motherboard manufacturer for accessing CMOS setup utility during boot</t>
-  </si>
-  <si>
     <t>Del key during boot</t>
   </si>
   <si>
@@ -1145,9 +1142,6 @@
     <t>Captive portal</t>
   </si>
   <si>
-    <t>Load Balancer</t>
-  </si>
-  <si>
     <t>A computer network service that allows clients to make indirect network connections to other network services is called:</t>
   </si>
   <si>
@@ -1322,9 +1316,6 @@
     <t>Protocol analyzer</t>
   </si>
   <si>
-    <t>Flood guard</t>
-  </si>
-  <si>
     <t>Which of the protocols listed below protects against switching loops?</t>
   </si>
   <si>
@@ -1371,9 +1362,6 @@
   </si>
   <si>
     <t>Data encryption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiding data within another piece of data </t>
   </si>
   <si>
     <t>What is the purpose of non-repudation?</t>
@@ -2384,8 +2372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3050,21 +3038,21 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>153</v>
@@ -3072,13 +3060,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>152</v>
@@ -3090,7 +3078,7 @@
         <v>152</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>153</v>
@@ -3098,7 +3086,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>154</v>
@@ -3107,7 +3095,7 @@
         <v>155</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>156</v>
@@ -3116,7 +3104,7 @@
         <v>155</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>153</v>
@@ -3124,21 +3112,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>153</v>
@@ -3146,7 +3134,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>157</v>
@@ -3164,7 +3152,7 @@
         <v>161</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>153</v>
@@ -3172,7 +3160,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>162</v>
@@ -3190,7 +3178,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>153</v>
@@ -3198,7 +3186,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>164</v>
@@ -3216,7 +3204,7 @@
         <v>168</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>153</v>
@@ -3224,7 +3212,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>169</v>
@@ -3242,7 +3230,7 @@
         <v>173</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>153</v>
@@ -3253,13 +3241,13 @@
         <v>174</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>176</v>
@@ -3268,7 +3256,7 @@
         <v>177</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>153</v>
@@ -3276,25 +3264,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>178</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>181</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>179</v>
+        <v>647</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>153</v>
@@ -3302,25 +3290,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>153</v>
@@ -3328,25 +3316,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>153</v>
@@ -3354,25 +3342,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>153</v>
@@ -3380,25 +3368,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>153</v>
@@ -3406,25 +3394,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>153</v>
@@ -3432,22 +3420,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
@@ -3456,25 +3444,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="F42" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>153</v>
@@ -3482,25 +3470,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="F43" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>153</v>
@@ -3508,21 +3496,21 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>153</v>
@@ -3530,21 +3518,21 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>153</v>
@@ -3552,25 +3540,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>153</v>
@@ -3578,25 +3566,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>153</v>
@@ -3604,25 +3592,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>153</v>
@@ -3630,25 +3618,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>153</v>
@@ -3656,25 +3644,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>153</v>
@@ -3682,133 +3670,133 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F51" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="F52" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B56" s="1">
         <v>49</v>
@@ -3826,289 +3814,289 @@
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F57" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="F59" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E61" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="F63" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>272</v>
-      </c>
       <c r="G65" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>278</v>
-      </c>
       <c r="G66" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B68" s="1">
         <v>110</v>
@@ -4126,15 +4114,15 @@
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B69" s="1">
         <v>5004</v>
@@ -4152,63 +4140,63 @@
         <v>5060</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="F71" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B72" s="1">
         <v>5004</v>
@@ -4226,111 +4214,111 @@
         <v>5005</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="G73" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B77" s="1">
         <v>161</v>
@@ -4348,41 +4336,41 @@
         <v>161</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E78" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B79" s="1">
         <v>49</v>
@@ -4400,15 +4388,15 @@
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B80" s="1">
         <v>20</v>
@@ -4426,15 +4414,15 @@
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B81" s="1">
         <v>139</v>
@@ -4452,93 +4440,93 @@
         <v>53</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="E82" s="1" t="s">
-        <v>302</v>
-      </c>
       <c r="F82" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="E83" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="G83" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B85" s="1">
         <v>1701</v>
@@ -4556,115 +4544,115 @@
         <v>3389</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="G87" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E88" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="F88" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>323</v>
-      </c>
       <c r="G89" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B90" s="1">
         <v>10101100</v>
@@ -4682,41 +4670,41 @@
         <v>11000000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B91" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="F91" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B92" s="1">
         <v>168</v>
@@ -4734,142 +4722,142 @@
         <v>172</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="F93" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E94" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="F94" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="F95" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>46</v>
@@ -4884,1338 +4872,1338 @@
         <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>352</v>
-      </c>
       <c r="F99" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="E100" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="F100" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="G100" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="F102" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="F103" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="F104" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="E106" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>378</v>
-      </c>
       <c r="F106" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="F109" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>391</v>
-      </c>
       <c r="F110" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="E111" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="F111" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="E112" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>401</v>
-      </c>
       <c r="F112" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>406</v>
-      </c>
       <c r="F113" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="F114" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="E115" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>414</v>
-      </c>
       <c r="F115" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="D116" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="E116" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>419</v>
-      </c>
       <c r="F116" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>423</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="D118" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="E118" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>428</v>
-      </c>
       <c r="F118" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="B119" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>431</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B120" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="F120" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>442</v>
-      </c>
       <c r="F122" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="E124" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="F124" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E125" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="G125" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="D126" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F126" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H126" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E127" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B127" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>462</v>
-      </c>
       <c r="F127" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C129" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E129" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F129" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="E132" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="F132" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C137" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>243</v>
-      </c>
       <c r="F137" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="E138" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="F138" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B140" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F140" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D143" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D143" s="1" t="s">
+      <c r="E143" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E143" s="1" t="s">
-        <v>269</v>
-      </c>
       <c r="F143" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E144" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>512</v>
-      </c>
       <c r="F144" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B145" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="F145" s="1" t="s">
-        <v>455</v>
-      </c>
       <c r="G145" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B146" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="G146" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="E147" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="F147" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>448</v>
-      </c>
       <c r="F148" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E150" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>530</v>
-      </c>
       <c r="F150" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">

--- a/PTA/platforms/browser/www/testBank.xlsx
+++ b/PTA/platforms/browser/www/testBank.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Calvin\Documents\PTAlso\PTA\PTA\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\pta\PTA\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="635">
   <si>
     <t>Which of the following is NOT a type of motherboard expansion slot?</t>
   </si>
@@ -509,9 +509,6 @@
     <t>Saved on a harddrive</t>
   </si>
   <si>
-    <t>Rettained</t>
-  </si>
-  <si>
     <t>IDE</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
     <t>Bootsequence</t>
   </si>
   <si>
-    <t>Boot sequence</t>
-  </si>
-  <si>
     <t>Enabled in Windows Controle Panel</t>
   </si>
   <si>
@@ -542,9 +536,6 @@
     <t>Checked against the Hardware Compatibility List (HCL)</t>
   </si>
   <si>
-    <t>Enabled in the advances BIOS settings menu</t>
-  </si>
-  <si>
     <t>Enabled in the advanced BIOS settings menu</t>
   </si>
   <si>
@@ -557,9 +548,6 @@
     <t>Safe Mode troubleshooting</t>
   </si>
   <si>
-    <t xml:space="preserve">Getting the CMOS setup utility and Enabling the virtualization technology setting </t>
-  </si>
-  <si>
     <t>Reset button on the front panel of the computer case</t>
   </si>
   <si>
@@ -587,12 +575,6 @@
     <t>Aborted BIOS update could render the computer unusable</t>
   </si>
   <si>
-    <t>aborted BIOS update could render the computer unusable</t>
-  </si>
-  <si>
-    <t>supervisor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secutity feature used for locating stolen desktops, laptops, or tablets </t>
   </si>
   <si>
@@ -602,9 +584,6 @@
     <t>RJ_11 plug</t>
   </si>
   <si>
-    <t xml:space="preserve">Security feature used for locating stolen Desktops, laptops, or tablets </t>
-  </si>
-  <si>
     <t>Access Controle List (ACL)</t>
   </si>
   <si>
@@ -617,9 +596,6 @@
     <t>Trusted Platform Module (TPM)</t>
   </si>
   <si>
-    <t>Trusted Platform Module(TPM)</t>
-  </si>
-  <si>
     <t>Re-install OS</t>
   </si>
   <si>
@@ -632,9 +608,6 @@
     <t>Enabling the TPM security feature in Windows controle panel</t>
   </si>
   <si>
-    <t>Enabling the TPM security in CMOS setup menu</t>
-  </si>
-  <si>
     <t xml:space="preserve">A computer supporting LoJack tech has two main componets installed: a Application Agent residing in he os which sends tracking signals to the monitoring center allowing the law enforcement to locate and recover stolen device, andd Persistence Module  which restores the Application Agent and allows it to survive os re-installation or hard drive format: the highest level of security offered by LoJack can be achieved when Persistence Module resides in </t>
   </si>
   <si>
@@ -857,9 +830,6 @@
     <t>Security logs</t>
   </si>
   <si>
-    <t>signature files</t>
-  </si>
-  <si>
     <t>Simple Mail Transfer Protocol(SMTP) operates with the use of TCP port:</t>
   </si>
   <si>
@@ -992,9 +962,6 @@
     <t>Content filtering solution</t>
   </si>
   <si>
-    <t>Teredo IPv6 tunneling software</t>
-  </si>
-  <si>
     <t>Which of the following answers lists the binary notation of the decimal number 192?</t>
   </si>
   <si>
@@ -1088,9 +1055,6 @@
     <t>Class C Address space</t>
   </si>
   <si>
-    <t>Class C address space</t>
-  </si>
-  <si>
     <t>A software or hardware that checks information coming from the Internet and depending on the applied configuration settings either blocks it or allows it to pass through is called:</t>
   </si>
   <si>
@@ -1379,9 +1343,6 @@
     <t>transforming plaintext into ciphertext</t>
   </si>
   <si>
-    <t>Preventing someone from denying that they have taken specific action</t>
-  </si>
-  <si>
     <t>Which of the Following answerd refers to a general term used to describe software designed specifically to damage or disrupt the operation of a computer system</t>
   </si>
   <si>
@@ -1566,9 +1527,6 @@
   </si>
   <si>
     <t>Availability</t>
-  </si>
-  <si>
-    <t>Integrity</t>
   </si>
   <si>
     <t>What is the name of a storage solution used to retain copies of private encryption keys?</t>
@@ -2372,8 +2330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,21 +2996,21 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>153</v>
@@ -3060,13 +3018,13 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>152</v>
@@ -3078,7 +3036,7 @@
         <v>152</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>153</v>
@@ -3086,7 +3044,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>154</v>
@@ -3095,7 +3053,7 @@
         <v>155</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>156</v>
@@ -3104,7 +3062,7 @@
         <v>155</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>153</v>
@@ -3112,21 +3070,21 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>153</v>
@@ -3134,7 +3092,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>157</v>
@@ -3149,10 +3107,10 @@
         <v>160</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>153</v>
@@ -3160,16 +3118,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>11</v>
@@ -3178,7 +3136,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>153</v>
@@ -3186,25 +3144,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>153</v>
@@ -3212,25 +3170,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="F33" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>153</v>
@@ -3238,25 +3196,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>177</v>
+        <v>582</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>153</v>
@@ -3264,25 +3222,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>153</v>
@@ -3290,25 +3248,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>153</v>
@@ -3316,25 +3274,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>153</v>
@@ -3342,25 +3300,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>188</v>
+        <v>626</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>153</v>
@@ -3368,25 +3326,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>153</v>
@@ -3394,25 +3352,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>153</v>
@@ -3420,22 +3378,22 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
@@ -3444,25 +3402,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>153</v>
@@ -3470,25 +3428,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>153</v>
@@ -3496,21 +3454,21 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>153</v>
@@ -3518,21 +3476,21 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>153</v>
@@ -3540,25 +3498,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>153</v>
@@ -3566,25 +3524,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>153</v>
@@ -3592,25 +3550,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>153</v>
@@ -3618,25 +3576,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>153</v>
@@ -3644,25 +3602,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>153</v>
@@ -3670,133 +3628,133 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B56" s="1">
         <v>49</v>
@@ -3814,289 +3772,289 @@
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>277</v>
+        <v>581</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B68" s="1">
         <v>110</v>
@@ -4114,15 +4072,15 @@
         <v>25</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B69" s="1">
         <v>5004</v>
@@ -4140,63 +4098,63 @@
         <v>5060</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="B72" s="1">
         <v>5004</v>
@@ -4214,111 +4172,111 @@
         <v>5005</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="E76" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B77" s="1">
         <v>161</v>
@@ -4336,41 +4294,41 @@
         <v>161</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B79" s="1">
         <v>49</v>
@@ -4388,15 +4346,15 @@
         <v>23</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B80" s="1">
         <v>20</v>
@@ -4414,15 +4372,15 @@
         <v>22</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B81" s="1">
         <v>139</v>
@@ -4440,93 +4398,93 @@
         <v>53</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B85" s="1">
         <v>1701</v>
@@ -4544,115 +4502,115 @@
         <v>3389</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B90" s="1">
         <v>10101100</v>
@@ -4670,41 +4628,41 @@
         <v>11000000</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B92" s="1">
         <v>168</v>
@@ -4722,142 +4680,142 @@
         <v>172</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>46</v>
@@ -4872,1338 +4830,1338 @@
         <v>45</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D104" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>369</v>
-      </c>
       <c r="G104" s="1" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
